--- a/scraper/Database_Molecular_and_Sero.xlsx
+++ b/scraper/Database_Molecular_and_Sero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_31d6\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iqtcloud.sharepoint.com/sites/MS-COVID-19TestingTeam/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB217ACD-11D5-4F35-9C48-3240B68F42A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB70332D-9A7E-4359-B7A4-2C7EA1BCB288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Molecular test fields" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="694">
   <si>
     <t>Company</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Sample type</t>
   </si>
   <si>
-    <t>Verified LOD (copies / reaction)</t>
+    <t>Verified LOD</t>
   </si>
   <si>
     <t>Avg Ct (lowest dilution 10/10)</t>
@@ -76,15 +76,15 @@
     <t>Product No.</t>
   </si>
   <si>
-    <t>Product name</t>
-  </si>
-  <si>
     <t>PCR instrument platform</t>
   </si>
   <si>
     <t>Supplier recommended Ct cut-off</t>
   </si>
   <si>
+    <t xml:space="preserve">Customer Support by Email or Web </t>
+  </si>
+  <si>
     <t>Company point of contact</t>
   </si>
   <si>
@@ -133,36 +133,6 @@
     <t>Still expanding production capacity?</t>
   </si>
   <si>
-    <t>Name of company</t>
-  </si>
-  <si>
-    <t>Commercial name of test</t>
-  </si>
-  <si>
-    <t>NP swab, OP swab, nasal swab, sputum, saliva, BAL, other</t>
-  </si>
-  <si>
-    <t>Source of data reported in preceding 4 columns.  Ideally a link to a document on the internet:  published paper, company website, regulatory agency record.</t>
-  </si>
-  <si>
-    <t>Y/N</t>
-  </si>
-  <si>
-    <t>Private, wholly-owned subsidiary, public</t>
-  </si>
-  <si>
-    <t>Share price x shares outstanding</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>X/Y/Z</t>
-  </si>
-  <si>
-    <t>kits / unit time</t>
-  </si>
-  <si>
     <t>Center for Disease Control and Prevention</t>
   </si>
   <si>
@@ -172,10 +142,653 @@
     <t>US FDA EUA</t>
   </si>
   <si>
-    <t>N (target 1), N (target 2), RnaseP</t>
+    <t>N, RnaseP</t>
   </si>
   <si>
     <t>nasopharyngeal swab, oropharyngeal swab, sputum, lower respiratory tract aspirates, bronchoalveolar lavage, nasopharyngeal wash/aspirate, nasal aspirate</t>
+  </si>
+  <si>
+    <t>3 copies per microliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/134922/download</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2019-nCoVEUA-01</t>
+  </si>
+  <si>
+    <t>ABI 7500 Fast Dx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respvirus@cdc.gov </t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>1600 Clifton Road ND</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Wadsworth Center
+New York State Department of Health</t>
+  </si>
+  <si>
+    <t>New York SARS-CoV-2 Real-time Reverse Transcriptase (RT)- PCR Diagnostic Panel</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab, oropharyngeal swab, sputum</t>
+  </si>
+  <si>
+    <t>5 copies per microliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/135847/download</t>
+  </si>
+  <si>
+    <t>LVD SOP-151.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYS.CoV2.test.event.report@health.ny.gov </t>
+  </si>
+  <si>
+    <t>Empire State Plaza, PO Box 509</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>12201-0509</t>
+  </si>
+  <si>
+    <t>Roche Molecular Systems Inc.</t>
+  </si>
+  <si>
+    <t>cobas SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>ORF1ab, E</t>
+  </si>
+  <si>
+    <t>nasal swab, nasopharyngeal swab, oropharyngeal swab</t>
+  </si>
+  <si>
+    <t>0.009 TCID50</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136049/download</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>09175431190, 09175440190, 07002238190</t>
+  </si>
+  <si>
+    <t>cobas 6800 system, cobas 8800 system</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Roche Diagnostics</t>
+  </si>
+  <si>
+    <t>1 800 526 1247</t>
+  </si>
+  <si>
+    <t>9115 Hague Road</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>46250-0457</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific, Inc.</t>
+  </si>
+  <si>
+    <t>TaqPath COVID-19 Combo Kit</t>
+  </si>
+  <si>
+    <t>ORF1ab, N, S, MS2</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab, oropharyngeal swab, nasal swab, mid-turbinate swab, nasopharyngeal aspirate, bronchoalveolar lavage</t>
+  </si>
+  <si>
+    <t>10 genome copy equivalents</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136112/download</t>
+  </si>
+  <si>
+    <t>96, 384</t>
+  </si>
+  <si>
+    <t>A47814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABI 7500, ThermoFisher QuantStudio 5, ThermoFisher QuantStudio 7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.thermofisher.com/support </t>
+  </si>
+  <si>
+    <t>Life Technologies Corporation</t>
+  </si>
+  <si>
+    <t>1 800 955 6288</t>
+  </si>
+  <si>
+    <t>5781 Van Allen Way</t>
+  </si>
+  <si>
+    <t>Carlsbad</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Hologic</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 Assay (Panther Fusion® System)</t>
+  </si>
+  <si>
+    <t>ORF1ab</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab, nasal swab, oropharyngeal swab, bronchoalveolar lavage, bronchial wash</t>
+  </si>
+  <si>
+    <t>0.01 TCID50 per milliliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136156/download</t>
+  </si>
+  <si>
+    <t>335 tests / 8 hours</t>
+  </si>
+  <si>
+    <t>varies</t>
+  </si>
+  <si>
+    <t>PRD-04303, PRD-04332, PRD-06404, PRD-04331, PRD-04334, PRD-06391, PRD-04335, PRD-04304</t>
+  </si>
+  <si>
+    <t>Panther / Panther Fusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customersupport@hologic.com </t>
+  </si>
+  <si>
+    <t>Hologic, Inc.</t>
+  </si>
+  <si>
+    <t>1 800 442 9892</t>
+  </si>
+  <si>
+    <t>10210 Genetic Center Drive</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Quidel Corporation</t>
+  </si>
+  <si>
+    <t>Lyra® SARS-CoV-2 Assay</t>
+  </si>
+  <si>
+    <t>varies with instrument and sample type</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136820/download</t>
+  </si>
+  <si>
+    <t>ABI 7500, ABI 7500 Fast Dx, Bio-Rad CFX96, Qiagen Rotor-Gene Q, Roche LightCycler 480, ThermoFisher QuantStudio 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer_service@dhiusa.com </t>
+  </si>
+  <si>
+    <t>1 800 874 1517</t>
+  </si>
+  <si>
+    <t>2005 East State Street, Wuite 100</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Abbott Molecular</t>
+  </si>
+  <si>
+    <t>Abbott RealTime SARS-CoV-2 assay</t>
+  </si>
+  <si>
+    <t>RdRp, N</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab, oropharyngeal swab</t>
+  </si>
+  <si>
+    <t>6.2  genome equivalents per reaction</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136258/download</t>
+  </si>
+  <si>
+    <t>09N77-095, 09N77-085</t>
+  </si>
+  <si>
+    <t>Abbott m2000 System</t>
+  </si>
+  <si>
+    <t>molecularsupport@abbott.com</t>
+  </si>
+  <si>
+    <t>Abbott Molecular Inc.</t>
+  </si>
+  <si>
+    <t>1 800 553 7042</t>
+  </si>
+  <si>
+    <t>1300 East Touhy Avenue</t>
+  </si>
+  <si>
+    <t>Des Plaines</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>DiaSorin Molecular LLC</t>
+  </si>
+  <si>
+    <t>Simplexa COVID-19 Direct assay</t>
+  </si>
+  <si>
+    <t>ORF1ab, S</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab, nasal swab, bronchoalveolar lavage</t>
+  </si>
+  <si>
+    <t>500 copies per milliliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136286/download</t>
+  </si>
+  <si>
+    <t>MOL4151, MOL1455, MOL4160</t>
+  </si>
+  <si>
+    <t>Liason MDX</t>
+  </si>
+  <si>
+    <t>CS.molecular@diasorin.com</t>
+  </si>
+  <si>
+    <t>1 800 838-4548</t>
+  </si>
+  <si>
+    <t>11331 Valley View Stree</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t>GenMark Diagnostics, Inc.</t>
+  </si>
+  <si>
+    <t>ePlex SARS-CoV-2 Test</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab</t>
+  </si>
+  <si>
+    <t>10000 copies per milliliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136282/download</t>
+  </si>
+  <si>
+    <t>3, 6, 12, 18 or 24</t>
+  </si>
+  <si>
+    <t>EA008212</t>
+  </si>
+  <si>
+    <t>ePlex</t>
+  </si>
+  <si>
+    <t>CustomerService@genmarkdx.com</t>
+  </si>
+  <si>
+    <t>GenMark Diagnostics Inc.</t>
+  </si>
+  <si>
+    <t>1 760 448 4300</t>
+  </si>
+  <si>
+    <t>5964 La Place Court</t>
+  </si>
+  <si>
+    <t>Primerdesign Ltd.</t>
+  </si>
+  <si>
+    <t>Primerdesign Ltd COVID-19 genesig Real-Time PCR assay</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab, oropharyngeal swab, bronchoalveolar lavage</t>
+  </si>
+  <si>
+    <t>0.33 copies per microliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136823/download</t>
+  </si>
+  <si>
+    <t>Z-Path-COVID-19-CE</t>
+  </si>
+  <si>
+    <t>ABI 7500, Bio-Rad CFX Connect, Roche LIghtCycler 480 II</t>
+  </si>
+  <si>
+    <t>orders@primerdesign.co.uk</t>
+  </si>
+  <si>
+    <t>Primerdesign Ltd</t>
+  </si>
+  <si>
+    <t>+44 (0) 800 0156 494</t>
+  </si>
+  <si>
+    <t>School Lane</t>
+  </si>
+  <si>
+    <t>Chandler’s Ford</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>SO53 4DG</t>
+  </si>
+  <si>
+    <t>Cepheid</t>
+  </si>
+  <si>
+    <t>Xpert Xpress SARS-CoV-2 test</t>
+  </si>
+  <si>
+    <t>N2, E</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab, oropharyngeal swab, nasal swab, mid-turbinate swab, nasal wash, nasal aspirate</t>
+  </si>
+  <si>
+    <t>250 copies per milliliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136314/download</t>
+  </si>
+  <si>
+    <t>XPRSARS-COV2-10</t>
+  </si>
+  <si>
+    <t>GeneXpert Dx,  GeneXpert Infinity, GeneXpert Xpress</t>
+  </si>
+  <si>
+    <t>ordermanagement@cepheid.com</t>
+  </si>
+  <si>
+    <t>Cepheid Inc.</t>
+  </si>
+  <si>
+    <t>1 888 838 3222</t>
+  </si>
+  <si>
+    <t>900 Carribbean Drive</t>
+  </si>
+  <si>
+    <t>Sunnyvale</t>
+  </si>
+  <si>
+    <t>BioFire Defense, LLC</t>
+  </si>
+  <si>
+    <t>BioFire COVID-19 Test</t>
+  </si>
+  <si>
+    <t>ORF1ab, ORF8</t>
+  </si>
+  <si>
+    <t>nasopharangeal swab</t>
+  </si>
+  <si>
+    <t>330 copies per milliliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136353/download</t>
+  </si>
+  <si>
+    <t>6 or 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423745, 423744, 423748 </t>
+  </si>
+  <si>
+    <t>FilmArray 2.0, FilmArray Torch</t>
+  </si>
+  <si>
+    <t>support@BioFireDefense.com</t>
+  </si>
+  <si>
+    <t>1 801 262 3592</t>
+  </si>
+  <si>
+    <t>79 West 4500 South, Suite 14</t>
+  </si>
+  <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Mesa Biotech Inc.</t>
+  </si>
+  <si>
+    <t>Accula SARS-Cov-2 Test</t>
+  </si>
+  <si>
+    <t>nasal swab</t>
+  </si>
+  <si>
+    <t>200 copies per reaction</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136355/download</t>
+  </si>
+  <si>
+    <t>COV4100</t>
+  </si>
+  <si>
+    <t>Accula Dock, Silaris Dock</t>
+  </si>
+  <si>
+    <t>info@mesabiotech.com</t>
+  </si>
+  <si>
+    <t>Mesa Biotech, Inc.</t>
+  </si>
+  <si>
+    <t>1 858 800 4929</t>
+  </si>
+  <si>
+    <t>6190 Cornerstone Court East, Suite 220</t>
+  </si>
+  <si>
+    <t>1drop Inc.</t>
+  </si>
+  <si>
+    <t>1copy COVID-19 qPCR Multi Kit</t>
+  </si>
+  <si>
+    <t>RdRp, E</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab, anterior nasal swab, midturbinate nasal swab, oropharyngeal swab, nasopharyngeal wash, nasopharangeal aspirate, nasal aspirate</t>
+  </si>
+  <si>
+    <t>200 copies per milliliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137935/download</t>
+  </si>
+  <si>
+    <t>M22MD100M</t>
+  </si>
+  <si>
+    <t>Roche LightCycler 480, Qiagen Rotor-Gene Q 5plex HRM, ThermoFisher Quantstudio 5, ABI 7500, Bio-Rad CFX96</t>
+  </si>
+  <si>
+    <t>cs@1drop.co.kr</t>
+  </si>
+  <si>
+    <t>+82 70 4275 1248</t>
+  </si>
+  <si>
+    <t>A-203, Keumkang Penterium IT Tower, 215, Galmachi-ro, Jungwon-gu</t>
+  </si>
+  <si>
+    <t>Seongnam-si</t>
+  </si>
+  <si>
+    <t>Gyeonggi-do</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Applied DNA Sciences, Inc.</t>
+  </si>
+  <si>
+    <t>Linea COVID-19 Assay Kit</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>nasal swab, nasopharyngeal swab, oropharyngeal swab, nasopharyngeal wash, nasopharangeal aspirate, nasal aspirate</t>
+  </si>
+  <si>
+    <t>1.25 copies per microliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/138059/download</t>
+  </si>
+  <si>
+    <t>100, 500, 1000</t>
+  </si>
+  <si>
+    <t>DX1001-001-000, DX1001-002-000, DX1001-003-000</t>
+  </si>
+  <si>
+    <t>ThermoFisher Quantstudio Dx</t>
+  </si>
+  <si>
+    <t>dxcovid@adnas.com</t>
+  </si>
+  <si>
+    <t>Applied DNA Sciences Inc.</t>
+  </si>
+  <si>
+    <t>1 631 240 8800</t>
+  </si>
+  <si>
+    <t>50 Health Sciences Drive</t>
+  </si>
+  <si>
+    <t>Stony Brook</t>
+  </si>
+  <si>
+    <t>Alinity m SARS-CoV-2 assay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasopharyngeal swab, oropharyngeal swab, bronchoalveolar lavage </t>
+  </si>
+  <si>
+    <t>100 copies per milliliter</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137979/download</t>
+  </si>
+  <si>
+    <t>09N78-095, 09N78-085</t>
+  </si>
+  <si>
+    <t>Alinity m</t>
+  </si>
+  <si>
+    <t>Gnomegen LLC</t>
+  </si>
+  <si>
+    <t>Gnomegen COVID-19 RT-qPCR Detection Kit</t>
+  </si>
+  <si>
+    <t>N,  RNase P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nasopharyngeal and oropharyngeal swab s</t>
+  </si>
+  <si>
+    <t>10 copies per reaction</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137895/download</t>
+  </si>
+  <si>
+    <t>CV0303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABI 7500 Fast Dx </t>
+  </si>
+  <si>
+    <t>sales@gnomegendx.com</t>
+  </si>
+  <si>
+    <t>1 858 375 7581</t>
+  </si>
+  <si>
+    <t>6440 Lusk Blvd Suite D207</t>
   </si>
   <si>
     <t>SEASUN BIOMATERIALS</t>
@@ -192,9 +805,6 @@
 nasal aspirate specimens and sputum</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>info@seasunbio.com</t>
   </si>
   <si>
@@ -222,9 +832,6 @@
 aspirates and bronchoalveolar lavage (BAL) fluid</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Rheonix Encompass MDx Workstation</t>
   </si>
   <si>
@@ -238,12 +845,6 @@
   </si>
   <si>
     <t>Ithaca</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>USA</t>
   </si>
   <si>
     <t>LabGenomics Co., Ltd.</t>
@@ -302,12 +903,6 @@
     <t>515 Colorow Drive</t>
   </si>
   <si>
-    <t>Salt Lake City</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
     <t>Bio-Rad Laboratories, Inc</t>
   </si>
   <si>
@@ -338,12 +933,993 @@
     <t>Pleasanton</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sansure BioTech Inc.	</t>
   </si>
   <si>
+    <t>Novel Coronavirus (2019-nCoV) Nucleic Acid Diagnostic Kit
+(PCR-Fluorescence Probing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNase P (RP), ORF1ab, N </t>
+  </si>
+  <si>
+    <t>nasopharyngeal swabs, oropharyngeal (throat) swabs, anterior
+nasal swabs, mid-turbinate swabs, nasal washes, and nasal
+aspirates</t>
+  </si>
+  <si>
+    <t>24 or 48</t>
+  </si>
+  <si>
+    <t>ABI 7500 Real-Time PCR System</t>
+  </si>
+  <si>
+    <t>info@sansure.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +86-731-88883176</t>
+  </si>
+  <si>
+    <t>No. 680, Lusong Road, Yuelu District</t>
+  </si>
+  <si>
+    <t>Changsha</t>
+  </si>
+  <si>
+    <t>Hunan</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast Track Diagnostics Luxembourg S.á.r.l. (a Siemens Healthineers Company)	</t>
+  </si>
+  <si>
+    <t>FTD SARS-CoV-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N gene and ORF1ab , Equine arteritis virus (EAV) as internal control</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nasal, nasopharyngeal,
+oropharyngeal swabs, and nasopharyngeal wash/aspirate or nasal
+aspirate) and bronchoalveolar lavage</t>
+  </si>
+  <si>
+    <t>Applied Biosystems® 7500 Real-Time PCR System (ThermoFisher Scientific) and the NucliSENS® easyMAG® (bioMérieux)</t>
+  </si>
+  <si>
+    <t>support-ftd.team@siemens-healthineers.com</t>
+  </si>
+  <si>
+    <t>+352 281098-217</t>
+  </si>
+  <si>
+    <t>Fast Track Diagnostics Luxembourg S.à.r.l A Siemens Healthineers Company 29, rue Henri Koch</t>
+  </si>
+  <si>
+    <t>Esch-sur-Alzette</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>L-4354</t>
+  </si>
+  <si>
+    <t>Becton, Dickinson &amp; Company</t>
+  </si>
+  <si>
+    <t>BD SARS-CoV-2Reagents for BD MAX System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA from the nucleocapsid
+phosphoprotein gene (N1 and N2 regions) of the SARS-CoV-2 coronavirus, and the human RNase P gene</t>
+  </si>
+  <si>
+    <t>nasal,
+nasopharyngeal and oropharyngeal swab samples</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136816/download</t>
+  </si>
+  <si>
+    <t>https://www.bd.com/en-us/offerings/capabilities/molecular-diagnostics/molecular-tests/biogx-sars-cov-2-reagents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444213 | BioGX SARS-CoV-2 Reagents for the BD MAX™ System
+ 444214 | BioGX SARS-CoV-2 &amp; RNase P Synthetic Single- Stranded RNA Control
+Templates </t>
+  </si>
+  <si>
+    <t>EQUIPMENT AND MATERIALS REQUIRED BUT NOT PROVIDED
+• BD MAX System (BD Cat. No. 441916)
+• BD MAX Sample Rack (BD Cat. No. 441935, 443550, 443551, 444807, or 444808)
+• BD MAX ExK TNA-3 (BD Cat. No. 442827)
+• BD MAX PCR Cartridges (BD Cat. No. 437519)
+• SARS-CoV-2 Controls
+• Copan UTM Collection Kit
+• BD UVT Collection Kit
+• Vortex Genie 2 (VWR Cat. No. 58815-235 or equivalent)
+• Multi-Tube Vortex Mixer (VWR Cat. No. 58816-115 or equivalent)
+• Rack compatible with a multi-tube vortexer (e.g., Cryogenic Vial Holder or equivalent)
+• Variable Volume Calibrated Pipettor (750 µL volume capable)
+• Aerosol resistant micropipette tips
+• Disposable gloves, powderless</t>
+  </si>
+  <si>
+    <t>BALTIMORECS@BD.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800-638-8656 </t>
+  </si>
+  <si>
+    <t>1 Becton Drive</t>
+  </si>
+  <si>
+    <t>Franklin Lakes</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>07417-1880</t>
+  </si>
+  <si>
+    <t>DiaCarta, Inc</t>
+  </si>
+  <si>
+    <t>QuantiVirus SARS-CoV-2 Test kit</t>
+  </si>
+  <si>
+    <t>N, Orf1ab and E genes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasal swabs, nasopharyngeal swabs, oropharyngeal swabs, and
+sputum </t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136809/download</t>
+  </si>
+  <si>
+    <t>24/48/480</t>
+  </si>
+  <si>
+    <t>DC-11-0007 (24 Reactions)
+DC-11-0008 (48 Reactions)
+DC-11-0009 (480 Reactions)</t>
+  </si>
+  <si>
+    <t>QuantStudio 5 Real-Time PCR
+Instrument and ABI 7500 Fast Dx PCR Instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19support@diacarta.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 510-878-6662</t>
+  </si>
+  <si>
+    <t>2600 Hilltop Drive</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Atila BioSystems, Inc.</t>
+  </si>
+  <si>
+    <t>iAMP COVID-19 Detection Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OMEGA primer sets are designed
+to specifically detect RNA and later cDNA from the N and ORF-1ab genes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nasal, nasopharyngeal and/or oropharyngeal swabs</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136870/download</t>
+  </si>
+  <si>
+    <t>https://atilabiosystems.com/our-products/covid-19/</t>
+  </si>
+  <si>
+    <t>~1hr</t>
+  </si>
+  <si>
+    <t>iAMP-COVID19-100</t>
+  </si>
+  <si>
+    <t>Compatible with Atila Power-Gene 9600 Plus, Bio-Rad CFX96, ABI7500, and other commonly used RT-qPCR instruments with FAM and HEX fluorescent channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@atilabiosystems.com
+</t>
+  </si>
+  <si>
+    <t>1-(650)-544-4516</t>
+  </si>
+  <si>
+    <t>740 Sierra Vista Ave, Suite E,</t>
+  </si>
+  <si>
+    <t>Mountain View</t>
+  </si>
+  <si>
+    <t>Maccura Biotechnology (USA) LLC</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 Fluorescent PCR Kit</t>
+  </si>
+  <si>
+    <t>ORF1ab,
+N and E genes</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swabs, oropharyngeal
+swabs, nasal swabs, and mid-turbinate swabs)</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137026/download</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t>32/64/96</t>
+  </si>
+  <si>
+    <t>7500 Real-Time PCR Systems with v2.3 software (Applied Biosystems)</t>
+  </si>
+  <si>
+    <t>support-USA@ext.maccura.com</t>
+  </si>
+  <si>
+    <t>240-669-9948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11300 Rockville Pike, Suite 715, </t>
+  </si>
+  <si>
+    <t>Rockville</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>GenoSensor, LLC</t>
+  </si>
+  <si>
+    <t>GS™ COVID-19 RT-PCR KIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OFR1ab, E,
+and N genes</t>
+  </si>
+  <si>
+    <t>nasopharyngeal/
+oropharyngeal
+swabs</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137093/download</t>
+  </si>
+  <si>
+    <t>http://www.genosensorcorp.com/COVID19%20Kit.html</t>
+  </si>
+  <si>
+    <t>90 mins</t>
+  </si>
+  <si>
+    <t>22/94</t>
+  </si>
+  <si>
+    <t>2702-22 &amp; 2702-94</t>
+  </si>
+  <si>
+    <t>Applied Biosystems™ 7500 Fast Dx Real-Time PCR Instrument</t>
+  </si>
+  <si>
+    <t>info@genosensorcorp.com</t>
+  </si>
+  <si>
+    <t>1-480-598-5378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4665 S. Ash Ave. Suite G-18
+</t>
+  </si>
+  <si>
+    <t>Tempe</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>KorvaLabs Inc.</t>
+  </si>
+  <si>
+    <t>Curative-Korva SARS-Cov-2 Assay</t>
+  </si>
+  <si>
+    <t>Oropharyngeal (throat) swab, nasopharyngeal swab, and nasal swabs s</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137089/download</t>
+  </si>
+  <si>
+    <t>31 hrs</t>
+  </si>
+  <si>
+    <t>BioRad CFX 96 Touch,
+BioRad CFX Connect Real-Time PCR systems and Roche LightCycler 480 II Real-Time
+PCR systems</t>
+  </si>
+  <si>
+    <t>info@korvalabs.com</t>
+  </si>
+  <si>
+    <t>(424) 645-7575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430 S. Cataract Ave. </t>
+  </si>
+  <si>
+    <t>San Dimas</t>
+  </si>
+  <si>
+    <t>5,000 tests per day
+manufacturing 20,000 test kits</t>
+  </si>
+  <si>
+    <t>Fosun Pharma USA Inc.</t>
+  </si>
+  <si>
+    <t>Fosun COVID-19 RT-PCR Detection Kit</t>
+  </si>
+  <si>
+    <t>ORF1ab, N gene
+and E gene</t>
+  </si>
+  <si>
+    <t>anterior nasal swab, mid-turbinate nasal swab, nasopharyngeal swab, oropharyngeal swab, sputum,
+lower respiratory tract aspirate, bronchoalveolar lavage, nasopharyngeal wash, nasopharangeal aspirate, nasal
+aspirate</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137120/download</t>
+  </si>
+  <si>
+    <t>48/96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCSYHF02-a; PCSYHF03-a </t>
+  </si>
+  <si>
+    <t>Applied Biosystems® 7500 Real-Time PCR Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inquiry@fosunpharmausa.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (866) 611-3762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>OSANG Healthcare</t>
+  </si>
+  <si>
+    <t>GeneFinder COVID-19 Plus RealAmp Kit</t>
+  </si>
+  <si>
+    <t>nasopharyngeal, oropharyngeal, nasal, and mid-turbinate nasal swab specimens,
+bronchoalveolar lavage fluid (BAL), and sputum</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137116/download</t>
+  </si>
+  <si>
+    <t>Applied Biosystems® 7500 Real-Time PCR Instrument (ABI 7500), Applied Biosystems®, 7500 Fast Real-Time
+PCR Instrument (ABI 7500 Fast), or CFX96 Real-Time PCR Instrument (CFX96)</t>
+  </si>
+  <si>
+    <t>jswoo@osanghc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +82-31-460-0300</t>
+  </si>
+  <si>
+    <t>132 Anyangcheondong-ro, 
+Tel: +82-31-460-0300</t>
+  </si>
+  <si>
+    <t>Dongan-gu,
+Anyang-si, ,</t>
+  </si>
+  <si>
+    <t>Trax Management Services Inc.</t>
+  </si>
+  <si>
+    <t>PhoenixDx 2019-CoV</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2: E gene, N gene and RdRP gene</t>
+  </si>
+  <si>
+    <t>nasal, nasopharyngeal and oropharyngeal swabs,
+bronchioalveolar lavage.</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137153/download</t>
+  </si>
+  <si>
+    <t>https://www.antibodies-online.com/kit/6952137/PhoenixDx+2019-nCoV+RNA+Detection+Kit/</t>
+  </si>
+  <si>
+    <t>2hs</t>
+  </si>
+  <si>
+    <t>BioRad CFX-96 IVD marked instrument with BioRad CFX Manager Software version 3.0, or
+− Qiagen Rotor-Gene Q software 2.3.5 or higher, or
+− Applied Biosystems ABI 7500 Fast Real time PCR Dx software version 2.0.4 or higher</t>
+  </si>
+  <si>
+    <t>&lt; 35 cycles</t>
+  </si>
+  <si>
+    <t>info@traxconnects.com</t>
+  </si>
+  <si>
+    <t>1 833 548 8378</t>
+  </si>
+  <si>
+    <t>2900 Atoll Dr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewis Center, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH </t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Seegene, Inc.</t>
+  </si>
+  <si>
+    <t>Allplex 2019-nCoV Assay</t>
+  </si>
+  <si>
+    <t>E, RdRP, N</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab, oropharyngeal swab, anterior nasal swab, midturbinate and sputum specimens</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137178/download</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137178/download
+http://www.seegene.com/assays/allplex_2019_ncov_assay</t>
+  </si>
+  <si>
+    <t>110 mins</t>
+  </si>
+  <si>
+    <t>384
+Conflict with co. webpage of 50 &amp; 100</t>
+  </si>
+  <si>
+    <t>RP10250X / RP10252W</t>
+  </si>
+  <si>
+    <t>CFX96TM Real-time PCR Detection System-IVD (Bio-Rad); or
+CFX96 TouchTM Real-Time PCR Detection System (Bio-Rad);
+o CFX ManagerTM Software V3.1; or CFX MaestroTM Software V1
+o Seegene Viewer Software V3.20 for analysis and interpretation
+of result (Seegene Inc.)*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> support@seegenetech.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325 N Wiget Ln #140, </t>
+  </si>
+  <si>
+    <t>Walnut Creek</t>
+  </si>
+  <si>
+    <t>altona Diagnostics GmbH</t>
+  </si>
+  <si>
+    <t>RealStar SARS-CoV02 RT-PCR Kits U.S.</t>
+  </si>
+  <si>
+    <t>E gene specific  (B-βCoV; including SARS-CoV-2),  a second primer for S gene.</t>
+  </si>
+  <si>
+    <t>nasopharyngeal
+swabs, oropharyngeal (throat) swabs, anterior nasal swabs, mid-turbinate nasal
+swabs, nasal washes and nasal aspirates</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137252/download</t>
+  </si>
+  <si>
+    <t>CFX96™ Touch Real-Time PCR Detection System (Bio-Rad, Cat. No.
+1855195) - CFX Manager™ Software v3.1
+• CFX96™ Touch Deep Well Real-Time PCR Detection System (BioRad, Cat. No. 185-4095) - CFX Manager™ Software v3.1</t>
+  </si>
+  <si>
+    <t>support@altona-diagnostics.com</t>
+  </si>
+  <si>
+    <t>1 614 706 1784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82120 Corporate Boulevard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plain City, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio </t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>SD Biosensor, Inc.</t>
+  </si>
+  <si>
+    <t>STANDARD M nCoV Real-Time Detection Kit</t>
+  </si>
+  <si>
+    <t>ORF1ab (RdRp) gene,  E gene,</t>
+  </si>
+  <si>
+    <t>n nasopharyngeal, oropharyngeal, nasal, and midturbinate nasal swab, and sputum specimens</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137302/download</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137302/download
+http://sdbiosensor.com/xe/product/7653</t>
+  </si>
+  <si>
+    <t>11NCO10</t>
+  </si>
+  <si>
+    <t>LightCycler® 480 (S/W version 1.5.1.62, Roche)
+▪ CFX96™ Dx System (S/W version 3.1, Bio-Rad)
+▪ Applied Biosystems 7500 Real-Time PCR Instrument System (S/W version 2.0.6, Thermo Fisher
+Scientific)</t>
+  </si>
+  <si>
+    <t>≦ 25</t>
+  </si>
+  <si>
+    <t>covid-latam@sdbiosensor.com</t>
+  </si>
+  <si>
+    <t>82-31-300-0400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-4&amp;5 Floor, 16, Deogyeong-daero 1556beon-gil, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeongtong-gu,Suwon-si, </t>
+  </si>
+  <si>
+    <t>PerkinElmer, Inc.</t>
+  </si>
+  <si>
+    <t>PerkinElmer New Coronavirus Nucleic Acid Detection Kit</t>
+  </si>
+  <si>
+    <t>nucleocapsid (N) gene and ORF1ab</t>
+  </si>
+  <si>
+    <t>oropharyngeal swab, nasopharyngeal
+swab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-NAT II system:  LoD of 9.307 copies/mL for the ORF1ab target and 30.467
+copies/mL for the N target
+Chemagic 360 system: 7.142 copies/mL for the ORF1ab target and 23.380
+copies/mL for the N target
+</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136410/download</t>
+  </si>
+  <si>
+    <t>2019-nCoV-PCR-AUS</t>
+  </si>
+  <si>
+    <t>PerkinElmer® PreNAT II Automated Workstation
+ chemagic™ 360
+ Applied Biosystems® 7500 Real-Time PCR system.</t>
+  </si>
+  <si>
+    <t>COVID-19.TechnicalSupport@PerkinElmer.com</t>
+  </si>
+  <si>
+    <t>(800) 762-4000</t>
+  </si>
+  <si>
+    <t>7050 Burleson Road</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Avellino Lab USA, Inc.</t>
+  </si>
+  <si>
+    <t>AvellinoCoV2 test</t>
+  </si>
+  <si>
+    <t>N, RNase P</t>
+  </si>
+  <si>
+    <t>55 copies/µl</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136453/download</t>
+  </si>
+  <si>
+    <t>Applied Biosystems 7500 Fast Real-Time PCR System</t>
+  </si>
+  <si>
+    <t>Connie Chao-Shern Ph.D.</t>
+  </si>
+  <si>
+    <t>1505 Adams Drive Suite B2</t>
+  </si>
+  <si>
+    <t>Menlo Park</t>
+  </si>
+  <si>
+    <t>BGI Genomics Co. Ltd</t>
+  </si>
+  <si>
+    <t>Real-Time Fluorescent RT-PCR Kit for Detecting SARS-CoV-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oropharyngeal swab, nasopharyngeal swab, anterior nasal swab, mid-turbinate 
+nasal swab, nasal wash, nasal aspirate, bronchoalveolar lavage </t>
+  </si>
+  <si>
+    <t>100 Copies/mL</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136472/download</t>
+  </si>
+  <si>
+    <t>50 reactions/kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applied Biosystems™ Real-Time PCR System 7500
+ABI 7500 Fast Real-Time PCR System
+Roche
+LightCycler® 480 System
+QuantStudio 5 Real-Time PCR System </t>
+  </si>
+  <si>
+    <t>(+86) 400-706-6615</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Building No. 7, BGI Park, No. 21 Hongan 3rd Street</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>Yantian District</t>
+  </si>
+  <si>
+    <t>Luminex Molecular Diagnostics, Inc.</t>
+  </si>
+  <si>
+    <t>NxTAG CoV Extended Panel Assay</t>
+  </si>
+  <si>
+    <t>ORBF1ab, N, E</t>
+  </si>
+  <si>
+    <t>support@luminexcorp.com</t>
+  </si>
+  <si>
+    <t>1-877-785-2323</t>
+  </si>
+  <si>
+    <t>439 University Ave</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Abbott Diagnostics Scarborough, Inc.</t>
+  </si>
+  <si>
+    <t>ID NOW COVID-19</t>
+  </si>
+  <si>
+    <t>QIAGEN GmbH</t>
+  </si>
+  <si>
+    <t>QIAstat-Dx Respiratory SARS-CoV-2 Panel</t>
+  </si>
+  <si>
+    <t>NeuMoDx Molecular, Inc.</t>
+  </si>
+  <si>
+    <t>NeuMoDx SARS-CoV-2 Assay</t>
+  </si>
+  <si>
+    <t>Ipsum Diagnostics, LLC</t>
+  </si>
+  <si>
+    <t>COV-19 IDx assay</t>
+  </si>
+  <si>
+    <t>Becton, Dickinson &amp; Company (BD)</t>
+  </si>
+  <si>
+    <t>BioGX SARS-CoV-2 Reagents for BD MAX System</t>
+  </si>
+  <si>
+    <t>Co-Diagnostics, Inc.</t>
+  </si>
+  <si>
+    <t>Logix Smart Coronavirus Disease 2019 (COVID-19) Kit</t>
+  </si>
+  <si>
+    <t>ScienCell Research Laboratories</t>
+  </si>
+  <si>
+    <t>ScienCell SARS-CoV-2 Coronavirus Real-time RT-PCR (RT-qPCR) Detection Kit</t>
+  </si>
+  <si>
+    <t>Luminex Corporation</t>
+  </si>
+  <si>
+    <t>ARIES SARS-CoV-2 Assay</t>
+  </si>
+  <si>
+    <t>Gnomegen COVID-19 RT-Digital PCR Detection Kit</t>
+  </si>
+  <si>
+    <t>InBios International, Inc</t>
+  </si>
+  <si>
+    <t>Smart Detect SARS-CoV-2 rRT-PCR Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioMérieux SA	</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 R-GENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N, RdRp (assay 1); E, HPRT1 for cell control (assay 2)</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swabs, oropharyngeal (throat) swabs, anterior nasal swabs, mid-turbinate nasal swabs, nasal aspirates, nasal washes and bronchoalveolar lavage (BAL) fluid</t>
+  </si>
+  <si>
+    <t>120 for assay 1, 30 for assay 2</t>
+  </si>
+  <si>
+    <t>Applied Biosystems 7500 Fast with software version 2.3, 
+Applied Biosystems 7500 Fast Dx with software version 1.4, Applied Biosystems QuantStudio 5 Dx with software version 1.0,
+LightCycler 480 (System II) (Roche) with software version 1.5, CFX96 (Bio-Rad) with software Maestro 1.1, Rotor‑Gene Q (Qiagen) with software 2.3.</t>
+  </si>
+  <si>
+    <t>CustomerService-ImmunoMolecular@biomerieux.com</t>
+  </si>
+  <si>
+    <t>Sophie Vernay</t>
+  </si>
+  <si>
+    <t>800-682-2666</t>
+  </si>
+  <si>
+    <t>376 Chemin de l’Orme</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marcy l’Etoile</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherlock BioSciences, Inc.	</t>
+  </si>
+  <si>
+    <t>Sherlock CRISPR SARS-CoV-2 Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORF1ab, N,  RNase P POP7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nasal swabs, nasopharyngeal swabs,
+oropharyngeal swabs, nasopharyngeal wash/aspirate or nasal
+aspirate) and bronchoalveolar lavage specimens</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137746/download</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>BioTek NEO2 Plate Reader running Gen5 3.08 software</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> support@sherlock.bio </t>
+  </si>
+  <si>
+    <t>John Vozella</t>
+  </si>
+  <si>
+    <t>(617) 702-6263</t>
+  </si>
+  <si>
+    <t>35 Spinelli Place</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>02138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTI Medical Systems, Inc.	</t>
+  </si>
+  <si>
+    <t>OPTI SARS-CoV-2 RT PCR Test</t>
+  </si>
+  <si>
+    <t>N1, N2, RNase P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nasal, nasopharyngeal,
+oropharyngeal swabs, sputum, lower respiratory tract aspirates,
+bronchoalveolar lavage, and nasopharyngeal wash/aspirate or nasal
+aspirate</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137739/download</t>
+  </si>
+  <si>
+    <t>2–3.5 hours</t>
+  </si>
+  <si>
+    <t>99-57003</t>
+  </si>
+  <si>
+    <t>Applied Biosystems® 7500 FAST, Applied Biosystems® QuantStudio 5, Agilent Mx3005P, Bio Molecular Systems Mic qPCR, Roche LightCycler® 480</t>
+  </si>
+  <si>
+    <t>Covid19@optimedical.com</t>
+  </si>
+  <si>
+    <t>Theron Gober</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-800-490-6784</t>
+  </si>
+  <si>
+    <t>235 Hembree Park Drive</t>
+  </si>
+  <si>
+    <t>Roswell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zymo Research Corporation	</t>
+  </si>
+  <si>
+    <t>Quick SARS-CoV-2rRT-PCR Kit</t>
+  </si>
+  <si>
+    <t>nasal, nasopharyngeal, midturbinate or oropharyngeal swabs,  sputum, tracheal aspirates, and bronchoalveolar
+lavage</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137780/download</t>
+  </si>
+  <si>
+    <t>1.5 hours</t>
+  </si>
+  <si>
+    <t>R3011</t>
+  </si>
+  <si>
+    <t>Bio-Rad CFX96 Touch Real-Time PCR Detection
+System with the Bio-Rad CFX
+Maestro™ 1.1 Version 4.1.2433.1219 software</t>
+  </si>
+  <si>
+    <t>tech@zymoresearch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julie Ogi </t>
+  </si>
+  <si>
+    <t>+1 888 301 6639</t>
+  </si>
+  <si>
+    <t>17062 Murphy Ave.</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutgers Clinical Genomics Laboratory at RUCDR Infinite Biologics - Rutgers University	</t>
+  </si>
+  <si>
+    <t>Rutgers Clinical Genomics Laboratory TaqPath SARS-CoV-2Assay</t>
+  </si>
+  <si>
+    <t>N, ORF1ab, S</t>
+  </si>
+  <si>
+    <t>oropharyngeal (throat) swab, nasopharyngeal swab, anterior nasal
+swab, mid-turbinate nasal swab, and bronchoalveolar lavage
+(BAL) fluid, saliva when used with Spectrum Solutions SDNA-1000</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137776/download</t>
+  </si>
+  <si>
+    <t>48 hours</t>
+  </si>
+  <si>
+    <t>ThermoFisher Applied Biosystems QuantStudio 5 Real-Time PCR System with
+software v1.3, Applied Biosystems ViiA7 Real-Time PCR System with Applied
+Biosystems QuantStudio 5 software v1.3 and Perkin Elmer Chemagic 360
+extraction instrument (software v6.3.0.3).</t>
+  </si>
+  <si>
+    <t>rucdr-cgl@dls.rutgers.edu</t>
+  </si>
+  <si>
+    <t>+1 848-445-7081</t>
+  </si>
+  <si>
+    <t>Nelson Biology Labs
+604 Allison Road</t>
+  </si>
+  <si>
+    <t>Piscataway</t>
+  </si>
+  <si>
+    <t>08854</t>
+  </si>
+  <si>
     <t>Test Name</t>
   </si>
   <si>
@@ -371,6 +1947,12 @@
     <t># of other tests in the marketplace / number with FDA approval / with CE mark / CFDA approval</t>
   </si>
   <si>
+    <t>Name of company</t>
+  </si>
+  <si>
+    <t>Commercial name of test</t>
+  </si>
+  <si>
     <t>Rapid diagnostic test, ELISA</t>
   </si>
   <si>
@@ -392,14 +1974,271 @@
     <t>For most RDT this will be "no".  Some have readers.  N/A for ELISA</t>
   </si>
   <si>
+    <t>Y/N</t>
+  </si>
+  <si>
+    <t>Private, wholly-owned subsidiary, public</t>
+  </si>
+  <si>
+    <t>Share price x shares outstanding</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>W/X/Y/Z</t>
+  </si>
+  <si>
+    <t>kits / unit time</t>
+  </si>
+  <si>
+    <t>Ortho Clinical Diagnostics, Inc.</t>
+  </si>
+  <si>
+    <t>VITROS Immunodiagnostic Products Anti-SARS-CoV-2 Total Reagent Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IgG, IgA and IgM</t>
+  </si>
+  <si>
+    <t>Serum • K2 EDTA Plasma</t>
+  </si>
+  <si>
+    <t>80 μL of sample for each determination</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136967/download</t>
+  </si>
+  <si>
+    <t>85 mins</t>
+  </si>
+  <si>
+    <t>VITROS ECi/ECiQ/3600 Immunodiagnostic
+Systems and the VITROS 5600/XT 7600 Integrated Systems</t>
+  </si>
+  <si>
+    <t>US-CustomerService@orthoclinicaldiagnostics.com</t>
+  </si>
+  <si>
+    <t>(+1) 800 828 6316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Indigo Creek Drive
+</t>
+  </si>
+  <si>
+    <t>Rochester,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY</t>
+  </si>
+  <si>
+    <t>Chembio Diagnostic System, Inc</t>
+  </si>
+  <si>
+    <t>DPP COVID-19 IgM/IgG System</t>
+  </si>
+  <si>
+    <t>Dual sample path paltform that distributes
+sample onto two assay paths (strips</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IgM/IgG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fingerstick whole blood, venous whole blood, serum, or plasma
+(lithium heparin or EDTA) samples </t>
+  </si>
+  <si>
+    <t>10µL Fingerstick</t>
+  </si>
+  <si>
+    <t>&gt;77.4%</t>
+  </si>
+  <si>
+    <t>&gt;94.7%</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/136963/download</t>
+  </si>
+  <si>
+    <t>&lt;25 mins</t>
+  </si>
+  <si>
+    <t>65-9569-0</t>
+  </si>
+  <si>
+    <t>DPP® Micro Reader Kit for Use with DPP COVID-19 IgM/IgG System 70-1069-0
+DPP® Micro Reader II Kit for Use with DPP COVID-19 IgM/IgG System 70-1070-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> info@chembio.com</t>
+  </si>
+  <si>
+    <t>001 631 924 1135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3661 HORSEBLOCK ROAD
+</t>
+  </si>
+  <si>
+    <t>MEDFORD</t>
+  </si>
+  <si>
+    <t>Mount Sinai Laboratory</t>
+  </si>
+  <si>
+    <t>COVID-19 ELISA IgG Antibody Test</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>IgG</t>
+  </si>
+  <si>
+    <t>serum and plasma</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137029/download</t>
+  </si>
+  <si>
+    <t>Components specific to the COVID-19 ELISA IgG Antibody Test include the
+recombinant RBD protein and the recombinant full-length Spike protein are both
+developed at the Mount Sinai Laboratory (MSL)</t>
+  </si>
+  <si>
+    <t>Autobio Diagnostics Co. Ltd.</t>
+  </si>
+  <si>
+    <t>Anti-SARS-CoV-2 Rapid Test</t>
+  </si>
+  <si>
+    <t>Cassette contains
+membranes which are pre-coated with two mouse anti-human monoclonal antibodies (anti-IgG and anti-IgM) on
+two separated test lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IgM and IgG </t>
+  </si>
+  <si>
+    <t>10µL</t>
+  </si>
+  <si>
+    <t>&gt;95.7%</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137367/download
+https://hardydiagnostics.com/sars-cov-2/</t>
+  </si>
+  <si>
+    <t>~30 + 15 mins</t>
+  </si>
+  <si>
+    <t>RTA0203</t>
+  </si>
+  <si>
+    <t>TechService@HardyDiagnostics.com</t>
+  </si>
+  <si>
+    <t>(805) 346-2766 ext. 5658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1430 West McCoy Lane, Santa 
+</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA </t>
+  </si>
+  <si>
+    <t>Ortho-Clinical Diagnostics, Inc.</t>
+  </si>
+  <si>
+    <t>VITROS Immunodiagnostic Products Anti-SARS-CoV-2 IgG Reagent Pack</t>
+  </si>
+  <si>
+    <t>Serum</t>
+  </si>
+  <si>
+    <t>20µL</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137363/download</t>
+  </si>
+  <si>
+    <t>DiaSorin Inc.</t>
+  </si>
+  <si>
+    <t>LIAISON SARS-CoV-2 S1/S2 IgG</t>
+  </si>
+  <si>
+    <t>IgG IgG anti-S1 and IgG anti-S2 specific antibodies</t>
+  </si>
+  <si>
+    <t>serum or plasma</t>
+  </si>
+  <si>
+    <t>2.4mL</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/137359/download
+https://www.diasorin.com/en/immunodiagnostic-solutions/clinical-areas/infectious-diseases/covid-19</t>
+  </si>
+  <si>
+    <t>170 per hour</t>
+  </si>
+  <si>
+    <t>indirect
+chemiluminescence immunoassay</t>
+  </si>
+  <si>
+    <t>LIAISON® XL</t>
+  </si>
+  <si>
+    <t>1.651.439.9710 / +1.800.328.1482</t>
+  </si>
+  <si>
+    <t>1951 Northwestern Avenue - P.O. Box 285</t>
+  </si>
+  <si>
+    <t>Stillwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota </t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>55082-0285</t>
+  </si>
+  <si>
+    <t>Cellex Inc.</t>
+  </si>
+  <si>
+    <t>qSARS-CoV-2 IgG/IgM Rapid Test</t>
+  </si>
+  <si>
+    <t>IgG, IgM</t>
+  </si>
+  <si>
+    <t>Sofia 2 SARS Antigen FIA</t>
+  </si>
+  <si>
+    <t>Antigen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +2275,46 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF58595B"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -521,30 +2400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -552,9 +2409,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -566,8 +2420,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -884,57 +2804,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8D7EB-7B57-491C-8EFF-EE7E951B406D}">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="16" style="14" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="16" style="14" customWidth="1"/>
-    <col min="12" max="13" width="24.42578125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="16" style="14" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="14" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="14" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="14" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" style="14" customWidth="1"/>
-    <col min="19" max="20" width="19" style="14" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" style="14" customWidth="1"/>
-    <col min="22" max="24" width="17.42578125" style="14" customWidth="1"/>
-    <col min="25" max="28" width="17.7109375" style="14" customWidth="1"/>
-    <col min="29" max="30" width="17.42578125" style="14" customWidth="1"/>
-    <col min="31" max="31" width="17.7109375" style="14" customWidth="1"/>
-    <col min="32" max="32" width="20.140625" style="14" customWidth="1"/>
-    <col min="33" max="34" width="17.42578125" style="14" customWidth="1"/>
-    <col min="35" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="28.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16" style="5" customWidth="1"/>
+    <col min="12" max="13" width="24.42578125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16" style="5" customWidth="1"/>
+    <col min="15" max="16" width="18.140625" style="5" customWidth="1"/>
+    <col min="17" max="18" width="30.7109375" style="5" customWidth="1"/>
+    <col min="19" max="20" width="19" style="5" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="5" customWidth="1"/>
+    <col min="22" max="24" width="17.42578125" style="5" customWidth="1"/>
+    <col min="25" max="28" width="17.7109375" style="5" customWidth="1"/>
+    <col min="29" max="30" width="17.42578125" style="5" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" style="5" customWidth="1"/>
+    <col min="32" max="32" width="20.140625" style="5" customWidth="1"/>
+    <col min="33" max="34" width="17.42578125" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="13" customFormat="1" ht="75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:34" s="4" customFormat="1" ht="57.95">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -949,565 +2867,3650 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="105">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:34" ht="144.94999999999999">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="D2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="G2" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="L2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="M2" s="5">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="P2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="14" t="s">
-        <v>38</v>
+      <c r="Q2" s="5">
+        <v>40</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>30329</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="165">
-      <c r="A3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="14" t="s">
+    <row r="3" spans="1:34" ht="57.95">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5">
+        <v>35.4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="5">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>40</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="57.95">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="5">
+        <v>96</v>
+      </c>
+      <c r="N4" s="5">
+        <v>192</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="116.1">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>92008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="87">
+      <c r="A6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>92121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="101.45">
+      <c r="A7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="5">
+        <v>96</v>
+      </c>
+      <c r="N7" s="5">
+        <v>96</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="43.5">
+      <c r="A8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="5">
+        <v>96</v>
+      </c>
+      <c r="N8" s="5">
+        <v>96</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>60018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="57.95">
+      <c r="A9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="5">
+        <v>8</v>
+      </c>
+      <c r="N9" s="5">
+        <v>24</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>90630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="29.1">
+      <c r="A10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="5">
+        <v>12</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>92008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="72.599999999999994">
+      <c r="A11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="5">
+        <v>96</v>
+      </c>
+      <c r="N11" s="5">
+        <v>96</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="87">
+      <c r="A12" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="5">
+        <v>10</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>94089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="29.1">
+      <c r="A13" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>84107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="43.5">
+      <c r="A14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>25</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>92121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="144.94999999999999">
+      <c r="A15" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="5">
         <v>48</v>
       </c>
+      <c r="N15" s="5">
+        <v>100</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>13217</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" ht="165">
-      <c r="A4" s="15" t="s">
+    <row r="16" spans="1:34" ht="130.5">
+      <c r="A16" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="5">
+        <v>96</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="16">
+      <c r="Y16" s="5">
+        <v>11790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="72.599999999999994">
+      <c r="A17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="5">
+        <v>192</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>60018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="29.1">
+      <c r="A18" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="5">
+        <v>96</v>
+      </c>
+      <c r="N18" s="5">
+        <v>500</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>92121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="159.6">
+      <c r="A19" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y19" s="8">
         <v>34015</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="180">
-      <c r="A5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="20" spans="1:34" ht="159.6">
+      <c r="A20" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="V5" s="14" t="s">
+      <c r="X20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="144.94999999999999">
+      <c r="A21" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="87">
+      <c r="A22" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y5">
-        <v>14850</v>
+      <c r="P22" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>84108</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="150">
-      <c r="A6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="V6" t="s">
-        <v>77</v>
-      </c>
-      <c r="W6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>57</v>
+    <row r="23" spans="1:34" ht="130.5">
+      <c r="A23" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>94588</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="105">
-      <c r="A7" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="14" t="s">
+    <row r="24" spans="1:34" ht="130.5">
+      <c r="A24" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>410205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="130.5">
+      <c r="A25" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" s="14" customFormat="1" ht="150.94999999999999" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
+        <v>24</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+    </row>
+    <row r="27" spans="1:34" s="14" customFormat="1" ht="87">
+      <c r="A27" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="S7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>84108</v>
-      </c>
+      <c r="N27" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>94806</v>
+      </c>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
     </row>
-    <row r="8" spans="1:34" ht="135">
-      <c r="A8" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="14" t="s">
+    <row r="28" spans="1:34" s="14" customFormat="1" ht="130.5">
+      <c r="A28" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="5">
+        <v>94</v>
+      </c>
+      <c r="N28" s="5">
+        <v>100</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="W28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S8" s="14" t="s">
+      <c r="X28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>94043</v>
+      </c>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+    </row>
+    <row r="29" spans="1:34" s="14" customFormat="1" ht="72.599999999999994">
+      <c r="A29" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>20852</v>
+      </c>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+    </row>
+    <row r="30" spans="1:34" s="14" customFormat="1" ht="57.95">
+      <c r="A30" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>85282</v>
+      </c>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+    </row>
+    <row r="31" spans="1:34" s="14" customFormat="1" ht="116.1">
+      <c r="A31" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="S31" s="5"/>
+      <c r="T31" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>91773</v>
+      </c>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AH31" s="5"/>
+    </row>
+    <row r="32" spans="1:34" s="14" customFormat="1" ht="217.5">
+      <c r="A32" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>8540</v>
+      </c>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+    </row>
+    <row r="33" spans="1:34" s="14" customFormat="1" ht="144.94999999999999">
+      <c r="A33" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N33" s="5">
+        <v>100</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>14040</v>
+      </c>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+    </row>
+    <row r="34" spans="1:34" s="14" customFormat="1" ht="188.45">
+      <c r="A34" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>43035</v>
+      </c>
+      <c r="Z34" s="19">
+        <v>507</v>
+      </c>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+    </row>
+    <row r="35" spans="1:34" s="14" customFormat="1" ht="261">
+      <c r="A35" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="5">
+        <v>96</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>94598</v>
+      </c>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+    </row>
+    <row r="36" spans="1:34" s="14" customFormat="1" ht="203.1">
+      <c r="A36" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
+        <v>384</v>
+      </c>
+      <c r="O36" s="5">
+        <v>821005</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>43064</v>
+      </c>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+    </row>
+    <row r="37" spans="1:34" s="14" customFormat="1" ht="188.45">
+      <c r="A37" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5">
+        <v>96</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>16690</v>
+      </c>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+    </row>
+    <row r="38" spans="1:34" ht="203.1">
+      <c r="A38" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="5">
+        <v>96</v>
+      </c>
+      <c r="N38" s="5">
+        <v>48</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>78744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" ht="43.5">
+      <c r="A39" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>94025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="174">
+      <c r="A40" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="T8" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U8" s="14" t="s">
+      <c r="E40" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>518083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" ht="29.1">
+      <c r="A41" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" ht="29.1">
+      <c r="A42" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="29.1">
+      <c r="A43" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="29.1">
+      <c r="A46" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" ht="29.1">
+      <c r="A47" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="29.1">
+      <c r="A48" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" ht="29.1">
+      <c r="A50" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" ht="304.5">
+      <c r="A52" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="O52" s="15">
+        <v>423735</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="S52" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="T52" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="U52" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="V52" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y52">
+        <v>69280</v>
+      </c>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15"/>
+      <c r="AH52" s="15"/>
+    </row>
+    <row r="53" spans="1:34" ht="144.94999999999999">
+      <c r="A53" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15">
+        <v>33</v>
+      </c>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="S53" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="T53" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="U53" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="V53" t="s">
+        <v>555</v>
+      </c>
+      <c r="W53" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="X53" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y53" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="15"/>
+      <c r="AH53" s="15"/>
+    </row>
+    <row r="54" spans="1:34" ht="174">
+      <c r="A54" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="15">
         <v>96</v>
       </c>
-      <c r="V8" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y8">
-        <v>94588</v>
-      </c>
+      <c r="N54" s="15">
+        <v>100</v>
+      </c>
+      <c r="O54" t="s">
+        <v>564</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="U54" t="s">
+        <v>569</v>
+      </c>
+      <c r="V54" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="W54" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X54" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y54">
+        <v>30076</v>
+      </c>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+      <c r="AH54" s="15"/>
     </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="15" t="s">
-        <v>99</v>
+    <row r="55" spans="1:34" ht="130.5">
+      <c r="A55" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="15">
+        <v>96</v>
+      </c>
+      <c r="N55" s="15">
+        <v>100</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="U55" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="V55" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="W55" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="X55" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y55" s="15">
+        <v>92614</v>
+      </c>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+      <c r="AH55" s="15"/>
+    </row>
+    <row r="56" spans="1:34" ht="246.6">
+      <c r="A56" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="X56" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y56" s="31" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S4" r:id="rId1" xr:uid="{2501F33B-7274-424B-8468-6DE33FA5A7DC}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{C86866C7-9036-4D67-9A32-29BF83E66647}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{CACD2684-1DD7-41FE-A3DA-7F8BDCE1AAB5}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{81DA4600-EECE-4E30-A117-3A68DAEE4B45}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{6CAD040A-3D72-46D2-B427-807FABB21D17}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{86FDFF04-4A64-46BD-8A71-F6B92035EBC6}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{B73F151C-E026-415B-A146-3D3A240A5D47}"/>
+    <hyperlink ref="R19" r:id="rId1" xr:uid="{2501F33B-7274-424B-8468-6DE33FA5A7DC}"/>
+    <hyperlink ref="A19" r:id="rId2" xr:uid="{C86866C7-9036-4D67-9A32-29BF83E66647}"/>
+    <hyperlink ref="A20" r:id="rId3" xr:uid="{CACD2684-1DD7-41FE-A3DA-7F8BDCE1AAB5}"/>
+    <hyperlink ref="A21" r:id="rId4" xr:uid="{81DA4600-EECE-4E30-A117-3A68DAEE4B45}"/>
+    <hyperlink ref="A22" r:id="rId5" xr:uid="{6CAD040A-3D72-46D2-B427-807FABB21D17}"/>
+    <hyperlink ref="A23" r:id="rId6" xr:uid="{86FDFF04-4A64-46BD-8A71-F6B92035EBC6}"/>
+    <hyperlink ref="A24" r:id="rId7" xr:uid="{B73F151C-E026-415B-A146-3D3A240A5D47}"/>
+    <hyperlink ref="R24" r:id="rId8" xr:uid="{9070004B-5DAC-4533-A9A0-522C84C1FF4E}"/>
+    <hyperlink ref="A25" r:id="rId9" xr:uid="{60CD910D-D4C9-49DC-B4F7-09879A095BE7}"/>
+    <hyperlink ref="R25" r:id="rId10" xr:uid="{C335D43A-9CB0-46D0-BDDE-E6B581BBBB64}"/>
+    <hyperlink ref="J3" r:id="rId11" xr:uid="{C26B642A-29F6-4609-84C8-E57DB6079B97}"/>
+    <hyperlink ref="J2" r:id="rId12" xr:uid="{4E11991A-ACAC-43F6-BB3D-85CB00B5EEA1}"/>
+    <hyperlink ref="J4" r:id="rId13" xr:uid="{84617DE5-DF22-4F96-9FCF-20B5A8474382}"/>
+    <hyperlink ref="J5" r:id="rId14" xr:uid="{A726E49B-94E6-4DA4-9DC2-F6190358BBAD}"/>
+    <hyperlink ref="J6" r:id="rId15" xr:uid="{5059885F-E33C-48F7-A310-F03B9577E240}"/>
+    <hyperlink ref="J7" r:id="rId16" xr:uid="{F2F9CC3D-6918-4417-97E5-FB1F4332F03E}"/>
+    <hyperlink ref="J8" r:id="rId17" xr:uid="{7285FDA7-440F-4F26-B791-19A4B17499FC}"/>
+    <hyperlink ref="R8" r:id="rId18" xr:uid="{726801C6-A298-40B8-B4B1-32FE8FEC1F05}"/>
+    <hyperlink ref="R2" r:id="rId19" xr:uid="{6C11F4EB-D6FA-4BD4-8BB6-7EE75DD4394F}"/>
+    <hyperlink ref="R3" r:id="rId20" xr:uid="{C4EAE621-CDCB-4802-98E3-1CF7694B5468}"/>
+    <hyperlink ref="R5" r:id="rId21" xr:uid="{469E4D20-FC46-4894-A45E-546DE96661CF}"/>
+    <hyperlink ref="R6" r:id="rId22" xr:uid="{FC888401-6C55-4B2F-9688-D1E8F6B78252}"/>
+    <hyperlink ref="R7" r:id="rId23" xr:uid="{92C8088F-8082-40E6-8FBA-B7936D93A92D}"/>
+    <hyperlink ref="J26" r:id="rId24" xr:uid="{21ED35CD-DBC5-784B-ACEA-659EDE68D76F}"/>
+    <hyperlink ref="R26" r:id="rId25" xr:uid="{5EF7BC0E-D352-5E4C-860C-21F14D6F2D7A}"/>
+    <hyperlink ref="B27" r:id="rId26" tooltip="QuantiVirus SARS-CoV-2 Test Kit - Letter of Authorization" display="https://www.fda.gov/media/136806/download" xr:uid="{D334996F-6132-984E-B05B-C71A453178A2}"/>
+    <hyperlink ref="B28" r:id="rId27" tooltip="iAMP COVID-19 Detection Kit - Letter of Authorization" display="https://www.fda.gov/media/136872/download" xr:uid="{B71F4EE1-15A3-2041-9F94-EED7824B73FC}"/>
+    <hyperlink ref="B29" r:id="rId28" tooltip="Maccura Biotechnology (USA) LLC SARS-CoV-2 Fluorescent PCR Kit- Letter of Authorization" display="https://www.fda.gov/media/137023/download" xr:uid="{786D5676-B7CB-ED46-A89A-79A4F980BBE8}"/>
+    <hyperlink ref="B30" r:id="rId29" tooltip="GS™ COVID-19 RT-PCR KIT - Letter of Authorization" display="https://www.fda.gov/media/137090/download" xr:uid="{9F8EB438-3A01-5C4C-A334-961A6DEB7013}"/>
+    <hyperlink ref="B31" r:id="rId30" tooltip="Curative-Korva SARS-Cov-2 Assay - Letter of Authorization" display="https://www.fda.gov/media/137088/download" xr:uid="{76E990F7-032D-8443-84C9-B761ADF6FC69}"/>
+    <hyperlink ref="B32" r:id="rId31" tooltip="Fosun COVID-19 RT-PCR Detection Kit - Letter of Authorization" display="https://www.fda.gov/media/137117/download" xr:uid="{1EBBC2AF-5F9C-7944-A769-F84E4359EAA3}"/>
+    <hyperlink ref="B33" r:id="rId32" tooltip="GeneFinder COVID-19 Plus RealAmp Kit - Letter of Authorization" display="https://www.fda.gov/media/137113/download" xr:uid="{1B29950C-0C1C-1744-9BCC-F4B4A8056D27}"/>
+    <hyperlink ref="B34" r:id="rId33" tooltip="PhoenixDx 2019-CoV - Letter of Authorization" display="https://www.fda.gov/media/137150/download" xr:uid="{B49291E4-F456-BF48-B3C9-979A7E4DECB8}"/>
+    <hyperlink ref="B35" r:id="rId34" tooltip="Allplex 2019-nCoV Assay - Letter of Authorization" display="https://www.fda.gov/media/137179/download" xr:uid="{9FB36700-20B6-1D48-A474-DBBC3E29F356}"/>
+    <hyperlink ref="B36" r:id="rId35" tooltip="altona Diagnostics GmbH Letter of Authorization " display="https://www.fda.gov/media/137257/download" xr:uid="{CCCD5D07-7E07-5A44-B2D4-1D4311C4FBF3}"/>
+    <hyperlink ref="B37" r:id="rId36" tooltip="SD Biosensor EUA Letter of Authorization " display="https://www.fda.gov/media/137303/download" xr:uid="{3E78E463-A8F9-0E49-A975-7D1C99151945}"/>
+    <hyperlink ref="B26" r:id="rId37" tooltip="BD SARS-CoV-2Reagents for BD MAX System - Letter of Authorization" display="https://www.fda.gov/media/136813/download" xr:uid="{BDE32201-8B49-6D4D-A411-D5CE56A5F4E7}"/>
+    <hyperlink ref="F27" r:id="rId38" xr:uid="{FB26D095-A0BB-3440-A44C-E62DFD74D881}"/>
+    <hyperlink ref="R27" r:id="rId39" xr:uid="{AC57A5C3-5CE5-9548-8758-922F37DF91A1}"/>
+    <hyperlink ref="B38" r:id="rId40" xr:uid="{83A06B80-951E-4F89-BF42-E5A9AE6A97A6}"/>
+    <hyperlink ref="B39" r:id="rId41" xr:uid="{6413D747-34A9-4B5C-B256-AC324C2348D7}"/>
+    <hyperlink ref="B40" r:id="rId42" xr:uid="{8DAE45BC-E381-42CD-B32E-0294AABA8CAA}"/>
+    <hyperlink ref="B41" r:id="rId43" xr:uid="{FE444052-1B5D-45C5-8060-3463FC0B23CA}"/>
+    <hyperlink ref="B42" r:id="rId44" xr:uid="{0AAA98A7-73FE-4C3B-9787-8C8A07ABF587}"/>
+    <hyperlink ref="B43" r:id="rId45" xr:uid="{F3C1256B-7DFF-4C4B-B17D-3861F29EA0EE}"/>
+    <hyperlink ref="B44" r:id="rId46" xr:uid="{FBBC7D47-E85D-4815-9E0D-4552148D15E2}"/>
+    <hyperlink ref="B45" r:id="rId47" xr:uid="{529F127D-9FAB-4B73-BBE3-8B0970C8184E}"/>
+    <hyperlink ref="B46" r:id="rId48" xr:uid="{01712F8F-503E-491E-B099-2501785876E3}"/>
+    <hyperlink ref="B47" r:id="rId49" xr:uid="{9BCFF74B-A6B5-4C47-A52E-3AC5DA69C89D}"/>
+    <hyperlink ref="B48" r:id="rId50" xr:uid="{D279B0DE-0FC8-445D-9D2C-5AAEEEA5D63A}"/>
+    <hyperlink ref="B49" r:id="rId51" xr:uid="{91C2B06C-4BC4-4BD2-B474-FBCC1D363D14}"/>
+    <hyperlink ref="B50" r:id="rId52" xr:uid="{BF34E4B7-B2E4-4B47-B68B-C8292D74F46F}"/>
+    <hyperlink ref="B51" r:id="rId53" xr:uid="{38624B9F-1F96-4532-BFD1-124CB25DC2DD}"/>
+    <hyperlink ref="R38" r:id="rId54" xr:uid="{9A814159-E0BE-4A40-8E27-34BFA73C077F}"/>
+    <hyperlink ref="J38" r:id="rId55" xr:uid="{301F9AE9-D085-48E2-8FE2-7E585454A6FB}"/>
+    <hyperlink ref="J39" r:id="rId56" xr:uid="{0FDDFE99-6D4D-413A-AF81-C99D222F22D2}"/>
+    <hyperlink ref="F28" r:id="rId57" xr:uid="{D9EC71A1-CFC1-B049-9757-000E58AF0BD1}"/>
+    <hyperlink ref="F26" r:id="rId58" xr:uid="{82394236-B486-FC45-B897-97900D713B49}"/>
+    <hyperlink ref="J40" r:id="rId59" xr:uid="{0EE67FCF-8CFF-4DEC-B184-A734FB0FAD95}"/>
+    <hyperlink ref="R28" r:id="rId60" xr:uid="{69BF3C43-C307-0C4F-B52E-4887BA38C72E}"/>
+    <hyperlink ref="J28" r:id="rId61" xr:uid="{B0FB3B62-E718-7B41-A2EF-12CA9E9A0970}"/>
+    <hyperlink ref="F29" r:id="rId62" xr:uid="{657148DB-6E3B-304E-A9F9-B30C3FAE9956}"/>
+    <hyperlink ref="S41" r:id="rId63" xr:uid="{A266E18A-D79F-4FBD-84E0-25D735DEEA49}"/>
+    <hyperlink ref="R29" r:id="rId64" xr:uid="{0AC3EECD-7871-0649-84F3-DB301B66A3FF}"/>
+    <hyperlink ref="J29" r:id="rId65" xr:uid="{ED4654E3-5895-7C49-A2CF-E6F0D35113B4}"/>
+    <hyperlink ref="F30" r:id="rId66" xr:uid="{B845D8B7-0DDC-9F40-811D-8648F46B43B6}"/>
+    <hyperlink ref="J30" r:id="rId67" display="http://www.genosensorcorp.com/COVID19 Kit.html" xr:uid="{E2DECEDE-3F47-8C4C-9901-BDD8559FF6F4}"/>
+    <hyperlink ref="R30" r:id="rId68" xr:uid="{C4CC9D20-BAF8-ED4F-A793-500B70579F87}"/>
+    <hyperlink ref="F31" r:id="rId69" xr:uid="{5315D1EA-D8A7-5E49-8F46-1D1F2358FBA1}"/>
+    <hyperlink ref="R10" r:id="rId70" xr:uid="{8FE033A4-6D02-4BB4-8D23-7C156DB226E2}"/>
+    <hyperlink ref="J10" r:id="rId71" xr:uid="{D0319E76-0374-4654-B2E0-1182F2F23B3B}"/>
+    <hyperlink ref="J9" r:id="rId72" xr:uid="{C9F8BFBF-F463-436E-8732-6FCCCDD4CAD7}"/>
+    <hyperlink ref="T31" r:id="rId73" display="tel:4246457575" xr:uid="{665EF761-0D47-554E-B468-E675CDBE8CE8}"/>
+    <hyperlink ref="R31" r:id="rId74" display="mailto:info@korvalabs.com" xr:uid="{199BDEFB-8FD3-474A-90F7-5991EA012842}"/>
+    <hyperlink ref="J12" r:id="rId75" xr:uid="{02B9202A-8967-450B-8E28-D706ECD5437E}"/>
+    <hyperlink ref="J13" r:id="rId76" xr:uid="{C823CC52-33C1-4E42-9256-32BEC0AAB570}"/>
+    <hyperlink ref="J14" r:id="rId77" xr:uid="{28AF124C-DE0C-4F6A-9013-C919EC0030B8}"/>
+    <hyperlink ref="R33" r:id="rId78" xr:uid="{AED1D534-F89F-1F4C-AF6D-0AA2351A74CA}"/>
+    <hyperlink ref="R34" r:id="rId79" xr:uid="{9E4C2C80-12D3-9D42-B644-3EBE3DB20720}"/>
+    <hyperlink ref="J34" r:id="rId80" xr:uid="{041581CF-8BA9-DC4F-BA11-BDC41581FA8E}"/>
+    <hyperlink ref="Z34" r:id="rId81" display="https://www.antibodies-online.com/kit/6952137/PhoenixDx+2019-nCoV+RNA+Detection+Kit/" xr:uid="{2E00D898-EBF7-BC45-B8BD-B31A6EE40CAD}"/>
+    <hyperlink ref="J35" r:id="rId82" display="https://www.fda.gov/media/137178/download" xr:uid="{AD165DFE-692D-1F41-9CE3-B03858723110}"/>
+    <hyperlink ref="R36" r:id="rId83" xr:uid="{D85D727B-C6D1-E040-B352-939B42C00704}"/>
+    <hyperlink ref="R37" r:id="rId84" xr:uid="{205438BE-D74B-B44E-A227-D6CDA48DBCCF}"/>
+    <hyperlink ref="B52" r:id="rId85" xr:uid="{2AC80E6A-C0BD-4FD1-984E-2EC58D04CBAB}"/>
+    <hyperlink ref="R52" r:id="rId86" xr:uid="{C83A9E88-B718-4C7F-B248-81D2BD62D3AE}"/>
+    <hyperlink ref="B53" r:id="rId87" xr:uid="{447D8C26-CCC2-43D8-9F80-DB0B20391FA4}"/>
+    <hyperlink ref="J53" r:id="rId88" xr:uid="{97E7CFDB-4AA5-4E90-8564-CEF3415A69D1}"/>
+    <hyperlink ref="R53" r:id="rId89" xr:uid="{DEC5BC51-648F-4F6D-86A9-3F0D66E24F2D}"/>
+    <hyperlink ref="J54" r:id="rId90" xr:uid="{F81F24A9-3FDD-44F4-83FA-AABC32CDAB3A}"/>
+    <hyperlink ref="B54" r:id="rId91" xr:uid="{BF9F6F8E-4CC6-44C5-B8E7-CFE81E75FF5E}"/>
+    <hyperlink ref="R54" r:id="rId92" xr:uid="{F188106F-B2B5-4D3E-8ACB-7AF5D3E5E674}"/>
+    <hyperlink ref="J55" r:id="rId93" xr:uid="{9E24306B-19BE-400A-960B-CBD28C9A6D6C}"/>
+    <hyperlink ref="B55" r:id="rId94" xr:uid="{56730A90-C0E0-459D-AE98-958702E2C44C}"/>
+    <hyperlink ref="R55" r:id="rId95" xr:uid="{82A72280-AB42-4D2C-9BB8-86014D87E925}"/>
+    <hyperlink ref="A55" r:id="rId96" xr:uid="{6088D3D1-6347-40D0-82AE-9FCC3243F602}"/>
+    <hyperlink ref="B56" r:id="rId97" xr:uid="{AC50AB0A-9D25-4E79-8AC5-9C2FB8169FC7}"/>
+    <hyperlink ref="J56" r:id="rId98" xr:uid="{25ED19F3-28E1-4E5E-B194-B134331F8733}"/>
+    <hyperlink ref="R56" r:id="rId99" xr:uid="{8798983F-9637-4150-80F8-C8C8A6C0E750}"/>
+    <hyperlink ref="J18" r:id="rId100" xr:uid="{3E17243E-9AD9-41CF-9AF1-A30DFD97757C}"/>
+    <hyperlink ref="R18" r:id="rId101" xr:uid="{4E284E36-6350-432F-8B90-5CD5FE4B30DC}"/>
+    <hyperlink ref="J17" r:id="rId102" xr:uid="{DBB51715-019F-40C8-AA64-9E975C65DC90}"/>
+    <hyperlink ref="R17" r:id="rId103" xr:uid="{717B9E3A-EEC2-462D-AD53-86090F0A9B21}"/>
+    <hyperlink ref="R15" r:id="rId104" xr:uid="{D92FA87C-4F1C-40B4-9934-F187775FE3B0}"/>
+    <hyperlink ref="J15" r:id="rId105" xr:uid="{BAF641AD-5FD0-4B5D-BA6F-8D431F00477C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId106"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA8E8F-F20E-4C76-B738-618FC376C619}">
+  <dimension ref="A1:AF10"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="5"/>
+    <col min="2" max="2" width="35.85546875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="26.28515625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="4" customFormat="1" ht="57.95">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="57.95">
+      <c r="A2" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="72.599999999999994">
+      <c r="A3" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="5">
+        <v>100</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="5">
+        <v>14626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="87">
+      <c r="A4" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="5">
+        <v>20</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="5">
+        <v>11763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="116.1">
+      <c r="A5" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="101.45">
+      <c r="A6" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="5">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="W6" s="5">
+        <v>93455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="72.599999999999994">
+      <c r="A7" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="N7" s="5">
+        <v>100</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="5">
+        <v>14626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="116.1">
+      <c r="A8" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="N8" s="5">
+        <v>100</v>
+      </c>
+      <c r="O8" s="5">
+        <v>311450</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" tooltip="Ortho Vitro Letters" display="https://www.fda.gov/media/136966/download" xr:uid="{50459D91-B6F2-284B-A7F6-6F09FFA6717F}"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="Chembio DPP Letter" display="https://www.fda.gov/media/136965/download" xr:uid="{2E2755E7-8A83-454F-99FC-80870659ACDC}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="Mount Sinai Laboratory Letter" display="https://www.fda.gov/media/137032/download" xr:uid="{D4F8BF26-F494-BA4E-BACF-A8589B17C8A2}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="Autiobio Diagnostics Anti-SARS-CoV-2 Rapid Test - Letter of Authorization" display="https://www.fda.gov/media/137364/download" xr:uid="{1CEC55B8-F460-6348-8C09-8C41FD13DAE2}"/>
+    <hyperlink ref="B7" r:id="rId5" tooltip="VITROS Immunodiagnostic Products Anti-SARS-CoV-2 IgG Reagent Pack - Letter of Authorization" display="https://www.fda.gov/media/137360/download" xr:uid="{80A39A21-A550-FA40-8DDC-51FAFF47C6DE}"/>
+    <hyperlink ref="B8" r:id="rId6" tooltip="DiaSorin Inc. LIAISON SARS-CoV-2 S1/S2 IgG - Letter of Authorization" display="https://www.fda.gov/media/137356/download" xr:uid="{D19B616A-F9F2-C143-99CB-A603D52E8CD8}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{8525FDFF-8C8B-4F27-BFA1-33C033FBD647}"/>
+    <hyperlink ref="Q3" r:id="rId8" xr:uid="{5E1D67E9-289E-8B45-B14E-0FCDE676FFDD}"/>
+    <hyperlink ref="R3" r:id="rId9" xr:uid="{7D65CC15-5A36-FB4B-9ADF-FFA0805EA4AB}"/>
+    <hyperlink ref="J5" r:id="rId10" xr:uid="{07328851-C342-6D44-99FD-7AEB5E27167C}"/>
+    <hyperlink ref="Q6" r:id="rId11" xr:uid="{AE91761E-E1E3-B34D-9F80-BC97363F0A01}"/>
+    <hyperlink ref="Q7" r:id="rId12" xr:uid="{CBF0E425-92E3-834D-9550-E14C33AC6FF1}"/>
+    <hyperlink ref="R7" r:id="rId13" display="tel:(+1) 800 421 3311" xr:uid="{A1CA6318-0282-2740-B377-4C683FD11CBC}"/>
+    <hyperlink ref="J8" r:id="rId14" xr:uid="{A371380F-AC4C-7D43-9288-3B94C37C4575}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA8E8F-F20E-4C76-B738-618FC376C619}">
-  <dimension ref="A1:AF5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="A2:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="18" max="22" width="17.7109375" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" customWidth="1"/>
-    <col min="26" max="26" width="18" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" customWidth="1"/>
-    <col min="28" max="28" width="18" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" customWidth="1"/>
-    <col min="30" max="30" width="27" customWidth="1"/>
-    <col min="31" max="31" width="17.7109375" customWidth="1"/>
-    <col min="32" max="32" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" s="7" customFormat="1" ht="60">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" ht="105">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1661,11 +6664,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4480A02C-A00C-4D86-BC0D-93448CC4AD0C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA49A7F-7C4D-4200-9628-76592D6DAB58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA49A7F-7C4D-4200-9628-76592D6DAB58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4480A02C-A00C-4D86-BC0D-93448CC4AD0C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/scraper/Database_Molecular_and_Sero.xlsx
+++ b/scraper/Database_Molecular_and_Sero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iqtcloud.sharepoint.com/sites/MS-COVID-19TestingTeam/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A4211E-5AC4-4485-94DE-C263A8473E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6AC970-C5F2-449D-A20E-EB7B017BF273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Molecular test kits" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sample Types" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Combined Molecular Tests'!$A$1:$AG$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Combined Molecular Tests'!$A$1:$AG$157</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Molecular test kits'!$A$1:$AG$51</definedName>
   </definedNames>
   <calcPr calcId="191028" calcCompleted="0"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4934" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5296" uniqueCount="1736">
   <si>
     <t>Company</t>
   </si>
@@ -2791,6 +2791,12 @@
     <t>Centers for Disease Control and Prevention (CDC)</t>
   </si>
   <si>
+    <t>1-404-639-4710</t>
+  </si>
+  <si>
+    <t>1600 Clifton Road NE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CirrusDx Laboratories	</t>
   </si>
   <si>
@@ -2978,10 +2984,6 @@
     <t>http://eurofins-diatherix.com/covid-19/</t>
   </si>
   <si>
-    <t xml:space="preserve"> nasopharyngeal swab, oropharyngeal
-swab, nasal swab, sputum</t>
-  </si>
-  <si>
     <t>ClientServicesSpecialists@diatherix-eurofins.com</t>
   </si>
   <si>
@@ -3043,9 +3045,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.exactlabs.com/covid-19-testing </t>
-  </si>
-  <si>
-    <t>nasopharangeal swab, oropharyngeal swab, nasal swab</t>
   </si>
   <si>
     <t>145 E. Badger Road, Suite 100</t>
@@ -3196,7 +3195,7 @@
     <t xml:space="preserve">https://www.testmenu.com/chop/Tests/1034587 </t>
   </si>
   <si>
-    <t>nasopharangeal swab, nasal swab, nasal wash, bronchoalveolar lavage</t>
+    <t>nasopharyngeal swab, nasal swab, nasal wash, bronchoalveolar lavage</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.chop.edu/centers-programs/pathology-and-laboratory-medicine/contact </t>
@@ -3409,9 +3408,6 @@
     <t>https://www.lifehopetestkit.com/</t>
   </si>
   <si>
-    <t>nasopharangeal swab, oropharyngeal swab, nasal swab, bronchoalveolar lavage</t>
-  </si>
-  <si>
     <t>info@lifehopelabs.com</t>
   </si>
   <si>
@@ -3632,9 +3628,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://baptisthealth.net/baptist-health-news/miami-cancer-institute-develops-in-house-test-for-covid-19/ </t>
-  </si>
-  <si>
-    <t>nasopharangeal swab, oropharyngeal swab</t>
   </si>
   <si>
     <t>1-786-596-2000</t>
@@ -4007,6 +4000,12 @@
     <t>5-6F, 19-12, Daehak-ro 76beonan-gil, Yuseong-gu</t>
   </si>
   <si>
+    <t>https://gotraxconnects.com/covid19</t>
+  </si>
+  <si>
+    <t>1-833-548-8378</t>
+  </si>
+  <si>
     <t>Ultimate Dx Laboratory</t>
   </si>
   <si>
@@ -4203,6 +4202,465 @@
     <t>06504</t>
   </si>
   <si>
+    <t>CENTOGENE US, LLC</t>
+  </si>
+  <si>
+    <t>CentoFast-SARS-CoV-2 RT-PCR Assay</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/139725/download</t>
+  </si>
+  <si>
+    <t>https://www.centogene.com/covid-19/testing/about-the-sars-cov-2-test.html</t>
+  </si>
+  <si>
+    <t>oropharyngeal swabs</t>
+  </si>
+  <si>
+    <t>corona@centogene.com</t>
+  </si>
+  <si>
+    <t>+49 (0) 381-80113 700</t>
+  </si>
+  <si>
+    <t>99 Erie Street</t>
+  </si>
+  <si>
+    <t>02139</t>
+  </si>
+  <si>
+    <t>Influenza SARS-CoV-2 (Flu SC2) Multiplex Assay</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/139743/download</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/coronavirus/2019-ncov/lab/multiplex.html</t>
+  </si>
+  <si>
+    <t>Flu SC2-EUA</t>
+  </si>
+  <si>
+    <t>CDCSARS2FluAB@cdc.gov</t>
+  </si>
+  <si>
+    <t>Laboratorio Clinico Toledo</t>
+  </si>
+  <si>
+    <t>Laboratorio Clinico Toledo SARS-CoV-2 Assay</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/139788/download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@laboratoriotoledo.com </t>
+  </si>
+  <si>
+    <t>1-787-880-0444</t>
+  </si>
+  <si>
+    <t>#51 Calle Palma</t>
+  </si>
+  <si>
+    <t>Aricebo</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>00612</t>
+  </si>
+  <si>
+    <t>Gene by Gene</t>
+  </si>
+  <si>
+    <t>Gene By Gene SARS-CoV-2 Detection Test</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/139836/download</t>
+  </si>
+  <si>
+    <t>https://genebygene.com/coronavirus-covid-19/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covid19@genebygene.com </t>
+  </si>
+  <si>
+    <t>1-713-474-2401</t>
+  </si>
+  <si>
+    <t>1445 North Loop West, Suite 760</t>
+  </si>
+  <si>
+    <t>Access Bio, Inc.</t>
+  </si>
+  <si>
+    <t>CareStart COVID-19 MDx RT-PCR</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/139832/download</t>
+  </si>
+  <si>
+    <t>http://accessbio.net/</t>
+  </si>
+  <si>
+    <t>MCGM-10072</t>
+  </si>
+  <si>
+    <t>info@accessbio.net</t>
+  </si>
+  <si>
+    <t>1-732-873-4040</t>
+  </si>
+  <si>
+    <t>65 Clyde Road, Suite A</t>
+  </si>
+  <si>
+    <t>08873</t>
+  </si>
+  <si>
+    <t>Enzo Life Sciences, Inc.</t>
+  </si>
+  <si>
+    <t>AMPIPROBE SARS-CoV-2 Test System</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/139828/download</t>
+  </si>
+  <si>
+    <t>https://www.enzolifesciences.com/ENZ-GEN215/ampiprobe-sars-cov-2-assay-kit/</t>
+  </si>
+  <si>
+    <t>ENZ-GEN216-0960, ENZ-GEN216-0096, ENZ-GEN215-0096, ENZ-GEN218-0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orders-usa@enzolifesciences.com </t>
+  </si>
+  <si>
+    <t>1-800-942-0430</t>
+  </si>
+  <si>
+    <t>10 Executive Boulevard</t>
+  </si>
+  <si>
+    <t>Farmingdale</t>
+  </si>
+  <si>
+    <t>Clinical Research Sequencing Platform (CRSP), LLC at the Broad Institute of MIT and Harvard</t>
+  </si>
+  <si>
+    <t>CRSP SARS-CoV-2 Real-time Reverse Transcriptase (RT)-PCR Diagnostic Assay</t>
+  </si>
+  <si>
+    <t>ThermoFisher QuantStudio 7, ThermoFisher ViiA7</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/139858/download</t>
+  </si>
+  <si>
+    <t>https://covid-19-test-info.broadinstitute.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics@broadinstitute.org </t>
+  </si>
+  <si>
+    <t>1-617-714-7569</t>
+  </si>
+  <si>
+    <t>320 Charles Street</t>
+  </si>
+  <si>
+    <t>02141</t>
+  </si>
+  <si>
+    <t>BioSewoom, Inc.</t>
+  </si>
+  <si>
+    <t>Real-Q 2019-nCoV Detection Kit</t>
+  </si>
+  <si>
+    <t>ABI 7500, ThermoFisher QuantStudio 5, Bio-Rad CFX96</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/139941/download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.biosewoom.com/#__79346__item2 </t>
+  </si>
+  <si>
+    <t>BS7nCoV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@biosewoom.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +82-2-498-2340</t>
+  </si>
+  <si>
+    <t>2F Wooyoung Technocenter, 144 Achasan-ro</t>
+  </si>
+  <si>
+    <t>Seongdong-gu, Seoul</t>
+  </si>
+  <si>
+    <t>04783</t>
+  </si>
+  <si>
+    <t>UCSF Health Clinical Laboratories, UCSF Clinical Labs at China Basin</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 RNA DETECTR Assay</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/139937/download</t>
+  </si>
+  <si>
+    <t>https://clinlab.ucsf.edu/covid-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID19Outreach@ucsf.edu </t>
+  </si>
+  <si>
+    <t>1-415-353-1667</t>
+  </si>
+  <si>
+    <t>185 Berry Street</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Boston Medical Center</t>
+  </si>
+  <si>
+    <t>BMC-CReM COVID-19 Test</t>
+  </si>
+  <si>
+    <t>Eppendorf Mastercycler Nexus X2, ThermoFisher QuantStudio 6</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140007/download</t>
+  </si>
+  <si>
+    <t>https://www.bmc.org/medical-professionals/pathology-laboratory-medicine</t>
+  </si>
+  <si>
+    <t>1-617-414-4054</t>
+  </si>
+  <si>
+    <t>1 Boston Medical Center Place</t>
+  </si>
+  <si>
+    <t>02118</t>
+  </si>
+  <si>
+    <t>Compass Laboratory Services, LLC</t>
+  </si>
+  <si>
+    <t>Compass Laboratory Services SARS-CoV2 Assay</t>
+  </si>
+  <si>
+    <t>ThermoFisher QuantStudio 12, ThermoFisher QuantStudio 7</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140078/download</t>
+  </si>
+  <si>
+    <t>http://www.compasslabservices.com/molecular-diagnostics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@compasslabservices.com </t>
+  </si>
+  <si>
+    <t>1-901-348-5774</t>
+  </si>
+  <si>
+    <t>1910 Nonconnah Blvd, Suite 108</t>
+  </si>
+  <si>
+    <t>PhoenixDx SARS-CoV-2 Multiplex</t>
+  </si>
+  <si>
+    <t>Bio-Rad CFX96, ThermoFisher QuantStudio 1, Qiagen Rotor-Gene Q, ABI 7500, DNA Technologie DTPrime5, Analytik Jena qTower3G</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140073/download</t>
+  </si>
+  <si>
+    <t>KogeneBiotech Co., Ltd.</t>
+  </si>
+  <si>
+    <t>PowerChek 2019-nCoV Real-time PCR Kit</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140069/download</t>
+  </si>
+  <si>
+    <t>http://www.kogene.co.kr/eng/about_us/news/listbody.php?h_gcode=board&amp;h_code=7&amp;po_no=288</t>
+  </si>
+  <si>
+    <t>R6900TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@kogene.co.kr </t>
+  </si>
+  <si>
+    <t>+82 2 2026 2150</t>
+  </si>
+  <si>
+    <t>C1101, C-dong, 168, Gasan digital 1ro</t>
+  </si>
+  <si>
+    <t>Geumcheongu, Seoul</t>
+  </si>
+  <si>
+    <t>08507</t>
+  </si>
+  <si>
+    <t>Quest Diagnostics HA SARS-CoV-2 Assay</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140239/download</t>
+  </si>
+  <si>
+    <t>https://testdirectory.questdiagnostics.com/test/test-detail/39448/sars-cov-2-rna-covid-19-ql-real-time-rt-pcr?q=39448&amp;cc=MASTER</t>
+  </si>
+  <si>
+    <t>Quest Diagnostics PF SARS-CoV-2 Assay</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140229/download</t>
+  </si>
+  <si>
+    <t>Quest Diagnostics RC SARS-CoV-2 Assay</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140234/download</t>
+  </si>
+  <si>
+    <t>Boston Heart Diagnostics</t>
+  </si>
+  <si>
+    <t>Boston Heart COVID-19 RT-PCR Test</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140259/download</t>
+  </si>
+  <si>
+    <t>https://bostonheartdiagnostics.com/</t>
+  </si>
+  <si>
+    <t>customercare@bostonheartdx.com</t>
+  </si>
+  <si>
+    <t>1-877-425-1252</t>
+  </si>
+  <si>
+    <t>200 Crossing Blvd</t>
+  </si>
+  <si>
+    <t>Framingham</t>
+  </si>
+  <si>
+    <t>01702</t>
+  </si>
+  <si>
+    <t>Access Genetics, LLC</t>
+  </si>
+  <si>
+    <t>OraRisk COVID-19 RT-PCR</t>
+  </si>
+  <si>
+    <t>Roche Light Cycler</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140293/download</t>
+  </si>
+  <si>
+    <t>https://www.oraldna.com/test/covid-19/</t>
+  </si>
+  <si>
+    <t>nasopharyngeal swab, nasal swab, saliva</t>
+  </si>
+  <si>
+    <t>support@oraldna.com</t>
+  </si>
+  <si>
+    <t>1-855-672-5362</t>
+  </si>
+  <si>
+    <t>7400 Flying Cloud Drive</t>
+  </si>
+  <si>
+    <t>Eden Prairie</t>
+  </si>
+  <si>
+    <t>DiaCarta, Inc.</t>
+  </si>
+  <si>
+    <t>QuantiVirus SARS-CoV-2 Multiplex Test Kit</t>
+  </si>
+  <si>
+    <t>ABI 7500, ThermoFisher QuantStudio 5, Bio-Rad CFX384</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140354/download</t>
+  </si>
+  <si>
+    <t>https://diacarta.com/products/covid19/multiplex</t>
+  </si>
+  <si>
+    <t>DC-11-0017, DC-11-0018, DC-11-0019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-510-878-6662</t>
+  </si>
+  <si>
+    <t>Helix OpCo LLC (dba Helix)</t>
+  </si>
+  <si>
+    <t>Helix COVID-19 Test</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140420/download</t>
+  </si>
+  <si>
+    <t>https://www.helix.com/pages/covid19-efforts</t>
+  </si>
+  <si>
+    <t>https://www.helix.com/pages/work-with-helix</t>
+  </si>
+  <si>
+    <t>1-415-805-3360</t>
+  </si>
+  <si>
+    <t>9875 Towne Center Drive</t>
+  </si>
+  <si>
+    <t>Jiangsu CoWin Biotech Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Novel Coronavirus (SARS-CoV-2) Fast Nucleic Acid Detection Kit (PCR-Fluorescence Probing)</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/media/140425/download</t>
+  </si>
+  <si>
+    <t>https://www.cwbiosciences.com/goods/index?id=77</t>
+  </si>
+  <si>
+    <t>CW3130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service@cwbiotech.com </t>
+  </si>
+  <si>
+    <t>86-523-86201352</t>
+  </si>
+  <si>
+    <t>No. 58 G52 Building, East of Lujia Road, West Side of Tai Road, China medical city</t>
+  </si>
+  <si>
     <t>Test Name</t>
   </si>
   <si>
@@ -4257,10 +4715,22 @@
     <t>Roche Lightcycler</t>
   </si>
   <si>
+    <t>nasopharangeal swab, nasal swab, nasal wash, bronchoalveolar lavage</t>
+  </si>
+  <si>
+    <t>nasopharangeal swab, oropharyngeal swab, nasal swab, bronchoalveolar lavage</t>
+  </si>
+  <si>
     <t>nasopharangeal swab, oropharangeal swab, nasal swab, nasal wash, bronchoalveolar lavage</t>
   </si>
   <si>
     <t>nasopharangeal swab, oropharangeal swab</t>
+  </si>
+  <si>
+    <t>nasopharangeal swab, oropharyngeal swab, nasal swab</t>
+  </si>
+  <si>
+    <t>nasopharangeal swab, oropharyngeal swab</t>
   </si>
   <si>
     <t>https://www.testmenu.com/nebraska</t>
@@ -4839,7 +5309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4950,6 +5420,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5021,7 +5497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5154,6 +5630,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5708,8 +6190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F543DF2C-2287-6C4A-8AF4-94B0E420CECB}" name="Table1" displayName="Table1" ref="A1:AK136" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A1:AK136" xr:uid="{6F6113B7-EEAD-4540-921E-D13DCBA1AB47}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F543DF2C-2287-6C4A-8AF4-94B0E420CECB}" name="Table1" displayName="Table1" ref="A1:AK157" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A1:AK157" xr:uid="{6F6113B7-EEAD-4540-921E-D13DCBA1AB47}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK136">
     <sortCondition ref="A1:A136"/>
   </sortState>
@@ -10954,11 +11436,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8D7EB-7B57-491C-8EFF-EE7E951B406D}">
-  <dimension ref="A1:AN136"/>
+  <dimension ref="A1:AN157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK158" sqref="AK158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -11261,7 +11743,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>73</v>
+        <v>542</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>74</v>
@@ -11683,7 +12165,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="54.6" customHeight="1">
+    <row r="11" spans="1:40" ht="66.95" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>119</v>
       </c>
@@ -11742,7 +12224,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="65.45" customHeight="1">
+    <row r="12" spans="1:40" ht="56.45" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>131</v>
       </c>
@@ -11813,7 +12295,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="47.1" customHeight="1">
+    <row r="13" spans="1:40" ht="57.95">
       <c r="A13" s="23" t="s">
         <v>846</v>
       </c>
@@ -12930,9 +13412,11 @@
       <c r="L29" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="M29" s="23"/>
+      <c r="M29" s="33" t="s">
+        <v>910</v>
+      </c>
       <c r="N29" s="23" t="s">
-        <v>262</v>
+        <v>911</v>
       </c>
       <c r="O29" s="23" t="s">
         <v>263</v>
@@ -13142,19 +13626,19 @@
     </row>
     <row r="32" spans="1:37" s="25" customFormat="1" ht="72.95" customHeight="1">
       <c r="A32" s="23" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>42</v>
@@ -13172,14 +13656,14 @@
         <v>183</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="L32" s="36"/>
       <c r="M32" s="4" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>546</v>
@@ -13298,19 +13782,19 @@
     </row>
     <row r="34" spans="1:37" s="25" customFormat="1" ht="60" customHeight="1">
       <c r="A34" s="23" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>42</v>
@@ -13328,17 +13812,17 @@
         <v>183</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="L34" s="36"/>
       <c r="M34" s="4" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>130</v>
@@ -13373,16 +13857,16 @@
     </row>
     <row r="35" spans="1:37" s="25" customFormat="1" ht="58.5" customHeight="1">
       <c r="A35" s="23" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>183</v>
@@ -13403,17 +13887,17 @@
         <v>183</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="L35" s="36"/>
       <c r="M35" s="4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>142</v>
@@ -13446,19 +13930,19 @@
     </row>
     <row r="36" spans="1:37" ht="76.5" customHeight="1">
       <c r="A36" s="23" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>822</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>42</v>
@@ -13479,16 +13963,16 @@
         <v>183</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>67</v>
@@ -13502,19 +13986,19 @@
     </row>
     <row r="37" spans="1:37" ht="57.95">
       <c r="A37" s="23" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>877</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>42</v>
@@ -13532,16 +14016,16 @@
         <v>183</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>264</v>
@@ -13747,19 +14231,19 @@
     </row>
     <row r="41" spans="1:37" ht="69" customHeight="1">
       <c r="A41" s="23" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>42</v>
@@ -13777,19 +14261,19 @@
         <v>183</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>67</v>
@@ -13803,19 +14287,19 @@
     </row>
     <row r="42" spans="1:37" ht="68.45" customHeight="1">
       <c r="A42" s="23" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>886</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>42</v>
@@ -13833,16 +14317,16 @@
         <v>183</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>264</v>
@@ -13930,25 +14414,25 @@
     </row>
     <row r="44" spans="1:37" ht="74.45" customHeight="1">
       <c r="A44" s="23" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>972</v>
+        <v>708</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>44</v>
@@ -13960,16 +14444,16 @@
         <v>183</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>865</v>
@@ -14045,19 +14529,19 @@
     </row>
     <row r="46" spans="1:37" ht="66" customHeight="1">
       <c r="A46" s="23" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>42</v>
@@ -14075,13 +14559,13 @@
         <v>183</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>183</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>524</v>
@@ -14101,19 +14585,19 @@
     </row>
     <row r="47" spans="1:37" ht="64.5" customHeight="1">
       <c r="A47" s="23" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>42</v>
@@ -14134,13 +14618,13 @@
         <v>183</v>
       </c>
       <c r="M47" s="44" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>855</v>
@@ -14160,25 +14644,25 @@
     </row>
     <row r="48" spans="1:37" ht="43.5">
       <c r="A48" s="23" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>886</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>994</v>
+        <v>151</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>44</v>
@@ -14193,13 +14677,13 @@
         <v>183</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>995</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>855</v>
@@ -15377,7 +15861,7 @@
         <v>42</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>994</v>
+        <v>151</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>44</v>
@@ -15489,7 +15973,7 @@
         <v>42</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>994</v>
+        <v>151</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>44</v>
@@ -15559,7 +16043,7 @@
       <c r="K71" s="5" t="s">
         <v>1081</v>
       </c>
-      <c r="M71" s="45" t="s">
+      <c r="M71" s="47" t="s">
         <v>1082</v>
       </c>
       <c r="N71" s="23" t="s">
@@ -15884,7 +16368,7 @@
         <v>42</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>1115</v>
+        <v>124</v>
       </c>
       <c r="H77" s="23" t="s">
         <v>44</v>
@@ -15896,16 +16380,16 @@
         <v>183</v>
       </c>
       <c r="K77" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M77" s="23" t="s">
         <v>1116</v>
       </c>
-      <c r="M77" s="23" t="s">
+      <c r="N77" s="23" t="s">
         <v>1117</v>
       </c>
-      <c r="N77" s="23" t="s">
+      <c r="O77" s="23" t="s">
         <v>1118</v>
-      </c>
-      <c r="O77" s="23" t="s">
-        <v>1119</v>
       </c>
       <c r="P77" s="23" t="s">
         <v>264</v>
@@ -16111,16 +16595,16 @@
     </row>
     <row r="81" spans="1:37" ht="57.95">
       <c r="A81" s="23" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="5" t="s">
         <v>1122</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>1123</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>183</v>
@@ -16141,13 +16625,13 @@
         <v>183</v>
       </c>
       <c r="K81" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="N81" s="4" t="s">
         <v>1125</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>1126</v>
       </c>
       <c r="O81" s="4" t="s">
         <v>1057</v>
@@ -16159,7 +16643,7 @@
         <v>67</v>
       </c>
       <c r="R81" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AK81" s="4" t="s">
         <v>839</v>
@@ -16167,19 +16651,19 @@
     </row>
     <row r="82" spans="1:37" ht="72.599999999999994">
       <c r="A82" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>1131</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>1132</v>
       </c>
       <c r="F82" s="23" t="s">
         <v>42</v>
@@ -16197,19 +16681,19 @@
         <v>183</v>
       </c>
       <c r="K82" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M82" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="M82" s="4" t="s">
+      <c r="N82" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="N82" s="4" t="s">
+      <c r="O82" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="O82" s="4" t="s">
+      <c r="P82" s="4" t="s">
         <v>1136</v>
-      </c>
-      <c r="P82" s="4" t="s">
-        <v>1137</v>
       </c>
       <c r="Q82" s="4" t="s">
         <v>67</v>
@@ -16294,7 +16778,7 @@
     </row>
     <row r="84" spans="1:37" ht="72.599999999999994">
       <c r="A84" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>1069</v>
@@ -16303,10 +16787,10 @@
         <v>877</v>
       </c>
       <c r="D84" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>1139</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>1140</v>
       </c>
       <c r="F84" s="23" t="s">
         <v>42</v>
@@ -16324,16 +16808,16 @@
         <v>183</v>
       </c>
       <c r="K84" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="M84" s="4" t="s">
+      <c r="N84" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="O84" s="4" t="s">
         <v>1143</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>1144</v>
       </c>
       <c r="P84" s="4" t="s">
         <v>641</v>
@@ -16350,19 +16834,19 @@
     </row>
     <row r="85" spans="1:37" ht="57.95">
       <c r="A85" s="23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>1146</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D85" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>1147</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>1148</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>42</v>
@@ -16380,19 +16864,19 @@
         <v>183</v>
       </c>
       <c r="K85" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M85" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="N85" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="N85" s="4" t="s">
+      <c r="O85" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="O85" s="4" t="s">
+      <c r="P85" s="4" t="s">
         <v>1152</v>
-      </c>
-      <c r="P85" s="4" t="s">
-        <v>1153</v>
       </c>
       <c r="Q85" s="4" t="s">
         <v>67</v>
@@ -16471,19 +16955,19 @@
     </row>
     <row r="87" spans="1:37" ht="57.95">
       <c r="A87" s="23" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>1154</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>1155</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>848</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>1156</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>1157</v>
       </c>
       <c r="F87" s="23" t="s">
         <v>42</v>
@@ -16501,16 +16985,16 @@
         <v>183</v>
       </c>
       <c r="K87" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M87" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="M87" s="4" t="s">
+      <c r="N87" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="N87" s="4" t="s">
+      <c r="O87" s="4" t="s">
         <v>1160</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>1161</v>
       </c>
       <c r="P87" s="4" t="s">
         <v>130</v>
@@ -16527,19 +17011,19 @@
     </row>
     <row r="88" spans="1:37" ht="43.5">
       <c r="A88" s="23" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>1165</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>1166</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>42</v>
@@ -16557,13 +17041,13 @@
         <v>183</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>183</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="O88" s="4" t="s">
         <v>1048</v>
@@ -16654,25 +17138,25 @@
     </row>
     <row r="90" spans="1:37" ht="43.5">
       <c r="A90" s="23" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>1169</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>1170</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>877</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>1172</v>
-      </c>
       <c r="F90" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>994</v>
+        <v>151</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>44</v>
@@ -16684,13 +17168,13 @@
         <v>183</v>
       </c>
       <c r="K90" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M90" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="M90" s="4" t="s">
+      <c r="N90" s="4" t="s">
         <v>1174</v>
-      </c>
-      <c r="N90" s="4" t="s">
-        <v>1175</v>
       </c>
       <c r="O90" s="4" t="s">
         <v>1057</v>
@@ -16702,7 +17186,7 @@
         <v>67</v>
       </c>
       <c r="R90" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AK90" s="4" t="s">
         <v>839</v>
@@ -16778,25 +17262,25 @@
     </row>
     <row r="92" spans="1:37" ht="68.45" customHeight="1">
       <c r="A92" s="23" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B92" s="23" t="s">
         <v>1177</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>1178</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>886</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="F92" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" s="23" t="s">
         <v>1180</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>1181</v>
       </c>
       <c r="H92" s="23" t="s">
         <v>44</v>
@@ -16808,19 +17292,19 @@
         <v>183</v>
       </c>
       <c r="K92" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M92" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="N92" s="4" t="s">
         <v>1183</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="O92" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="O92" s="4" t="s">
+      <c r="P92" s="4" t="s">
         <v>1185</v>
-      </c>
-      <c r="P92" s="4" t="s">
-        <v>1186</v>
       </c>
       <c r="Q92" s="4" t="s">
         <v>67</v>
@@ -16834,7 +17318,7 @@
     </row>
     <row r="93" spans="1:37" ht="57.95">
       <c r="A93" s="23" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>1103</v>
@@ -16843,16 +17327,16 @@
         <v>877</v>
       </c>
       <c r="D93" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>1189</v>
-      </c>
       <c r="F93" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>1190</v>
+        <v>89</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>44</v>
@@ -16867,10 +17351,10 @@
         <v>183</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="O93" s="4" t="s">
         <v>899</v>
@@ -16923,7 +17407,7 @@
         <v>602</v>
       </c>
       <c r="M94" s="23" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="N94" s="23" t="s">
         <v>604</v>
@@ -16958,25 +17442,25 @@
     </row>
     <row r="95" spans="1:37" ht="29.1">
       <c r="A95" s="23" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>1194</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="D95" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="E95" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="F95" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" s="23" t="s">
         <v>1197</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G95" s="23" t="s">
-        <v>1199</v>
       </c>
       <c r="H95" s="23" t="s">
         <v>44</v>
@@ -16988,16 +17472,16 @@
         <v>183</v>
       </c>
       <c r="K95" s="23" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M95" s="23" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N95" s="23" t="s">
         <v>1200</v>
       </c>
-      <c r="M95" s="23" t="s">
-        <v>1201</v>
-      </c>
-      <c r="N95" s="23" t="s">
-        <v>1202</v>
-      </c>
       <c r="O95" s="23" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="P95" s="23" t="s">
         <v>142</v>
@@ -17014,19 +17498,19 @@
     </row>
     <row r="96" spans="1:37" ht="57.95">
       <c r="A96" s="23" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C96" s="23" t="s">
         <v>1203</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="D96" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="E96" s="5" t="s">
         <v>1205</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>1207</v>
       </c>
       <c r="F96" s="23" t="s">
         <v>42</v>
@@ -17041,22 +17525,22 @@
         <v>44</v>
       </c>
       <c r="J96" s="23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M96" s="23" t="s">
         <v>1208</v>
       </c>
-      <c r="K96" s="5" t="s">
+      <c r="N96" s="23" t="s">
         <v>1209</v>
       </c>
-      <c r="M96" s="23" t="s">
+      <c r="O96" s="23" t="s">
         <v>1210</v>
       </c>
-      <c r="N96" s="23" t="s">
+      <c r="Q96" s="23" t="s">
         <v>1211</v>
-      </c>
-      <c r="O96" s="23" t="s">
-        <v>1212</v>
-      </c>
-      <c r="Q96" s="23" t="s">
-        <v>1213</v>
       </c>
       <c r="R96" s="23">
         <v>11491</v>
@@ -17067,46 +17551,46 @@
     </row>
     <row r="97" spans="1:37" ht="29.1">
       <c r="A97" s="23" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C97" s="23" t="s">
         <v>1214</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="D97" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="E97" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="F97" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" s="23" t="s">
         <v>1217</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="H97" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J97" s="23" t="s">
         <v>1218</v>
       </c>
-      <c r="F97" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G97" s="23" t="s">
+      <c r="K97" s="5" t="s">
         <v>1219</v>
       </c>
-      <c r="H97" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I97" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J97" s="23" t="s">
+      <c r="M97" s="23" t="s">
         <v>1220</v>
       </c>
-      <c r="K97" s="5" t="s">
+      <c r="N97" s="23" t="s">
         <v>1221</v>
       </c>
-      <c r="M97" s="23" t="s">
+      <c r="O97" s="23" t="s">
         <v>1222</v>
-      </c>
-      <c r="N97" s="23" t="s">
-        <v>1223</v>
-      </c>
-      <c r="O97" s="23" t="s">
-        <v>1224</v>
       </c>
       <c r="P97" s="23" t="s">
         <v>130</v>
@@ -17129,7 +17613,7 @@
         <v>608</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>610</v>
@@ -17191,19 +17675,19 @@
     </row>
     <row r="99" spans="1:37" ht="29.1">
       <c r="A99" s="23" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>457</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>42</v>
@@ -17221,16 +17705,16 @@
         <v>183</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>183</v>
       </c>
       <c r="N99" s="23" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="O99" s="23" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="P99" s="23" t="s">
         <v>142</v>
@@ -17247,16 +17731,16 @@
     </row>
     <row r="100" spans="1:37" ht="57.95">
       <c r="A100" s="23" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>694</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>183</v>
@@ -17265,7 +17749,7 @@
         <v>42</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>1115</v>
+        <v>124</v>
       </c>
       <c r="H100" s="23" t="s">
         <v>44</v>
@@ -17277,13 +17761,13 @@
         <v>183</v>
       </c>
       <c r="K100" s="23" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M100" s="23" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N100" s="23" t="s">
         <v>1235</v>
-      </c>
-      <c r="M100" s="23" t="s">
-        <v>1236</v>
-      </c>
-      <c r="N100" s="23" t="s">
-        <v>1237</v>
       </c>
       <c r="O100" s="23" t="s">
         <v>546</v>
@@ -17333,7 +17817,7 @@
         <v>627</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="N101" s="23" t="s">
         <v>629</v>
@@ -17368,19 +17852,19 @@
     </row>
     <row r="102" spans="1:37" ht="57.95">
       <c r="A102" s="23" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C102" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F102" s="23" t="s">
         <v>42</v>
@@ -17394,20 +17878,20 @@
       <c r="I102" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J102" s="23" t="s">
-        <v>183</v>
+      <c r="J102" s="23">
+        <v>39448</v>
       </c>
       <c r="K102" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="N102" s="4" t="s">
         <v>1243</v>
       </c>
-      <c r="M102" s="4" t="s">
+      <c r="O102" s="4" t="s">
         <v>1244</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="O102" s="4" t="s">
-        <v>1246</v>
       </c>
       <c r="P102" s="4" t="s">
         <v>130</v>
@@ -17430,7 +17914,7 @@
         <v>643</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>645</v>
@@ -17519,7 +18003,7 @@
         <v>632</v>
       </c>
       <c r="M104" s="23" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="N104" s="23" t="s">
         <v>639</v>
@@ -17652,7 +18136,7 @@
         <v>664</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="L106" s="36" t="s">
         <v>665</v>
@@ -17752,25 +18236,25 @@
     </row>
     <row r="108" spans="1:37" ht="72.599999999999994">
       <c r="A108" s="23" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C108" s="23" t="s">
         <v>1250</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="D108" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="E108" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="F108" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" s="23" t="s">
         <v>1253</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>1255</v>
       </c>
       <c r="H108" s="23" t="s">
         <v>44</v>
@@ -17782,16 +18266,16 @@
         <v>183</v>
       </c>
       <c r="K108" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="N108" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="M108" s="4" t="s">
+      <c r="O108" s="4" t="s">
         <v>1257</v>
-      </c>
-      <c r="N108" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="O108" s="4" t="s">
-        <v>1259</v>
       </c>
       <c r="P108" s="4" t="s">
         <v>66</v>
@@ -17800,7 +18284,7 @@
         <v>67</v>
       </c>
       <c r="R108" s="42" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="AK108" s="4" t="s">
         <v>839</v>
@@ -17968,10 +18452,10 @@
         <v>711</v>
       </c>
       <c r="N111" s="23" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="O111" s="23" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="P111" s="23" t="s">
         <v>50</v>
@@ -18195,7 +18679,7 @@
         <v>744</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>746</v>
@@ -18313,25 +18797,25 @@
     </row>
     <row r="117" spans="1:37" ht="57.95">
       <c r="A117" s="23" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>694</v>
       </c>
       <c r="D117" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" s="4" t="s">
         <v>1266</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>1268</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>44</v>
@@ -18343,16 +18827,16 @@
         <v>183</v>
       </c>
       <c r="K117" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="M117" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="M117" s="4" t="s">
+      <c r="N117" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O117" s="4" t="s">
         <v>1269</v>
-      </c>
-      <c r="N117" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="O117" s="4" t="s">
-        <v>1271</v>
       </c>
       <c r="P117" s="4" t="s">
         <v>525</v>
@@ -18369,19 +18853,19 @@
     </row>
     <row r="118" spans="1:37" ht="29.1">
       <c r="A118" s="23" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F118" s="23" t="s">
         <v>42</v>
@@ -18399,16 +18883,16 @@
         <v>183</v>
       </c>
       <c r="K118" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N118" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="M118" s="4" t="s">
+      <c r="O118" s="4" t="s">
         <v>1277</v>
-      </c>
-      <c r="N118" s="4" t="s">
-        <v>1278</v>
-      </c>
-      <c r="O118" s="4" t="s">
-        <v>1279</v>
       </c>
       <c r="P118" s="4" t="s">
         <v>130</v>
@@ -18425,19 +18909,19 @@
     </row>
     <row r="119" spans="1:37" ht="57.95">
       <c r="A119" s="23" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>1052</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F119" s="23" t="s">
         <v>42</v>
@@ -18458,13 +18942,13 @@
         <v>183</v>
       </c>
       <c r="M119" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="O119" s="4" t="s">
         <v>1284</v>
-      </c>
-      <c r="N119" s="4" t="s">
-        <v>1285</v>
-      </c>
-      <c r="O119" s="4" t="s">
-        <v>1286</v>
       </c>
       <c r="P119" s="4" t="s">
         <v>130</v>
@@ -18537,19 +19021,19 @@
     </row>
     <row r="121" spans="1:37" ht="29.1">
       <c r="A121" s="23" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>1287</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="E121" s="5" t="s">
         <v>1288</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>979</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>1290</v>
       </c>
       <c r="F121" s="23" t="s">
         <v>42</v>
@@ -18570,13 +19054,13 @@
         <v>183</v>
       </c>
       <c r="M121" s="23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N121" s="23" t="s">
+        <v>1290</v>
+      </c>
+      <c r="O121" s="23" t="s">
         <v>1291</v>
-      </c>
-      <c r="N121" s="23" t="s">
-        <v>1292</v>
-      </c>
-      <c r="O121" s="23" t="s">
-        <v>1293</v>
       </c>
       <c r="P121" s="23" t="s">
         <v>641</v>
@@ -18590,19 +19074,19 @@
     </row>
     <row r="122" spans="1:37" ht="43.5">
       <c r="A122" s="23" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F122" s="23" t="s">
         <v>42</v>
@@ -18623,7 +19107,7 @@
         <v>1090</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="N122" s="4" t="s">
         <v>1091</v>
@@ -18713,19 +19197,19 @@
     </row>
     <row r="124" spans="1:37" ht="43.5">
       <c r="A124" s="23" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>886</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F124" s="23" t="s">
         <v>42</v>
@@ -18743,16 +19227,16 @@
         <v>183</v>
       </c>
       <c r="K124" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="N124" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="M124" s="4" t="s">
+      <c r="O124" s="4" t="s">
         <v>1304</v>
-      </c>
-      <c r="N124" s="4" t="s">
-        <v>1305</v>
-      </c>
-      <c r="O124" s="4" t="s">
-        <v>1306</v>
       </c>
       <c r="P124" s="4" t="s">
         <v>865</v>
@@ -18769,19 +19253,19 @@
     </row>
     <row r="125" spans="1:37" ht="57.95">
       <c r="A125" s="23" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C125" s="23" t="s">
         <v>588</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F125" s="23" t="s">
         <v>42</v>
@@ -18799,13 +19283,13 @@
         <v>183</v>
       </c>
       <c r="K125" s="23" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M125" s="33" t="s">
+        <v>1310</v>
+      </c>
+      <c r="N125" s="23" t="s">
         <v>1311</v>
-      </c>
-      <c r="M125" s="33" t="s">
-        <v>1312</v>
-      </c>
-      <c r="N125" s="23" t="s">
-        <v>1313</v>
       </c>
       <c r="O125" s="23" t="s">
         <v>725</v>
@@ -18827,8 +19311,8 @@
       <c r="D126" s="32" t="s">
         <v>788</v>
       </c>
-      <c r="E126" s="24" t="s">
-        <v>789</v>
+      <c r="E126" s="7" t="s">
+        <v>1312</v>
       </c>
       <c r="F126" s="23" t="s">
         <v>42</v>
@@ -18849,7 +19333,7 @@
         <v>790</v>
       </c>
       <c r="M126" s="23" t="s">
-        <v>791</v>
+        <v>1313</v>
       </c>
       <c r="N126" s="23" t="s">
         <v>792</v>
@@ -18861,7 +19345,7 @@
         <v>794</v>
       </c>
       <c r="Q126" s="23" t="s">
-        <v>795</v>
+        <v>67</v>
       </c>
       <c r="R126" s="23">
         <v>43035</v>
@@ -19338,7 +19822,7 @@
         <v>1371</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>1372</v>
@@ -19454,6 +19938,1183 @@
         <v>100</v>
       </c>
       <c r="AK136" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="137" spans="1:37" ht="43.5">
+      <c r="A137" s="23" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" s="23" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I137" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J137" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="M137" s="28" t="s">
+        <v>1385</v>
+      </c>
+      <c r="N137" s="23" t="s">
+        <v>1386</v>
+      </c>
+      <c r="O137" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="P137" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q137" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R137" s="28" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AK137" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="138" spans="1:37" ht="72.599999999999994">
+      <c r="A138" s="23" t="s">
+        <v>909</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I138" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J138" s="23" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="M138" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="N138" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="O138" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="P138" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q138" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R138" s="23">
+        <v>30329</v>
+      </c>
+      <c r="AK138" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="139" spans="1:37" ht="57.95">
+      <c r="A139" s="23" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I139" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J139" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="M139" s="23" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N139" s="23" t="s">
+        <v>1398</v>
+      </c>
+      <c r="O139" s="23" t="s">
+        <v>1399</v>
+      </c>
+      <c r="P139" s="23" t="s">
+        <v>1400</v>
+      </c>
+      <c r="Q139" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R139" s="28" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AK139" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="140" spans="1:37" ht="29.1">
+      <c r="A140" s="23" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G140" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="H140" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I140" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J140" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M140" s="23" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N140" s="23" t="s">
+        <v>1408</v>
+      </c>
+      <c r="O140" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="P140" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q140" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R140" s="23">
+        <v>77008</v>
+      </c>
+      <c r="AK140" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="141" spans="1:37" ht="57.95">
+      <c r="A141" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H141" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I141" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J141" s="23" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="M141" s="33" t="s">
+        <v>1415</v>
+      </c>
+      <c r="N141" s="23" t="s">
+        <v>1416</v>
+      </c>
+      <c r="O141" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P141" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q141" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R141" s="28" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AK141" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="142" spans="1:37" ht="57.95">
+      <c r="A142" s="23" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I142" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J142" s="23" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="M142" s="23" t="s">
+        <v>1424</v>
+      </c>
+      <c r="N142" s="23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="O142" s="23" t="s">
+        <v>1426</v>
+      </c>
+      <c r="P142" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q142" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R142" s="23">
+        <v>11735</v>
+      </c>
+      <c r="AK142" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="143" spans="1:37" ht="57.95">
+      <c r="A143" s="23" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H143" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I143" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J143" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="M143" s="23" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="O143" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="P143" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q143" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R143" s="28" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AK143" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="144" spans="1:37" ht="72.599999999999994">
+      <c r="A144" s="23" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="H144" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I144" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J144" s="23" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="M144" s="28" t="s">
+        <v>1443</v>
+      </c>
+      <c r="N144" s="23" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O144" s="33" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Q144" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="R144" s="28" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AK144" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="145" spans="1:37" ht="43.5">
+      <c r="A145" s="23" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G145" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H145" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I145" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J145" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M145" s="23" t="s">
+        <v>1452</v>
+      </c>
+      <c r="N145" s="23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="O145" s="23" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P145" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q145" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R145" s="23">
+        <v>94107</v>
+      </c>
+      <c r="AK145" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="146" spans="1:37" ht="57.95">
+      <c r="A146" s="23" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G146" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H146" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I146" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J146" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K146" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M146" s="23" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N146" s="23" t="s">
+        <v>1461</v>
+      </c>
+      <c r="O146" s="23" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P146" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q146" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R146" s="28" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AK146" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="147" spans="1:37" ht="43.5">
+      <c r="A147" s="23" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H147" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I147" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J147" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="M147" s="23" t="s">
+        <v>1469</v>
+      </c>
+      <c r="N147" s="23" t="s">
+        <v>1470</v>
+      </c>
+      <c r="O147" s="23" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P147" s="23" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Q147" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R147" s="23">
+        <v>38132</v>
+      </c>
+      <c r="AK147" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="148" spans="1:37" ht="57.95">
+      <c r="A148" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G148" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H148" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I148" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J148" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K148" s="24" t="s">
+        <v>790</v>
+      </c>
+      <c r="M148" s="23" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N148" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="O148" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="P148" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q148" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R148" s="23">
+        <v>43035</v>
+      </c>
+      <c r="AK148" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="149" spans="1:37" ht="72.599999999999994">
+      <c r="A149" s="23" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G149" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="H149" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I149" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J149" s="33" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="M149" s="28" t="s">
+        <v>1480</v>
+      </c>
+      <c r="N149" s="23" t="s">
+        <v>1481</v>
+      </c>
+      <c r="O149" s="23" t="s">
+        <v>1482</v>
+      </c>
+      <c r="Q149" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="R149" s="28" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AK149" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="150" spans="1:37" ht="57.95">
+      <c r="A150" s="23" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="H150" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I150" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J150" s="23">
+        <v>39448</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M150" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="O150" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P150" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q150" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R150" s="4">
+        <v>92675</v>
+      </c>
+      <c r="AK150" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="151" spans="1:37" ht="57.95">
+      <c r="A151" s="23" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="D151" s="45" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I151" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J151" s="23">
+        <v>39448</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M151" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="N151" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="O151" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P151" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q151" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R151" s="4">
+        <v>92675</v>
+      </c>
+      <c r="AK151" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="152" spans="1:37" ht="57.95">
+      <c r="A152" s="23" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G152" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I152" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J152" s="23">
+        <v>39448</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M152" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="O152" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P152" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q152" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R152" s="4">
+        <v>92675</v>
+      </c>
+      <c r="AK152" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="153" spans="1:37" ht="57.95">
+      <c r="A153" s="23" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G153" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H153" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I153" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J153" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="M153" s="23" t="s">
+        <v>1496</v>
+      </c>
+      <c r="N153" s="23" t="s">
+        <v>1497</v>
+      </c>
+      <c r="O153" s="23" t="s">
+        <v>1498</v>
+      </c>
+      <c r="P153" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q153" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R153" s="28" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AK153" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="154" spans="1:37" ht="29.1">
+      <c r="A154" s="23" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G154" s="23" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H154" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I154" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J154" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="M154" s="23" t="s">
+        <v>1507</v>
+      </c>
+      <c r="N154" s="46" t="s">
+        <v>1508</v>
+      </c>
+      <c r="O154" s="23" t="s">
+        <v>1509</v>
+      </c>
+      <c r="P154" s="23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="Q154" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R154" s="23">
+        <v>55344</v>
+      </c>
+      <c r="AK154" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="155" spans="1:37" ht="43.5">
+      <c r="A155" s="23" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="H155" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I155" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J155" s="23" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K155" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="M155" s="23" t="s">
+        <v>1516</v>
+      </c>
+      <c r="N155" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="O155" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="P155" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q155" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R155" s="23">
+        <v>94806</v>
+      </c>
+      <c r="AC155" s="24"/>
+      <c r="AG155" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH155" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK155" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="156" spans="1:37" ht="43.5">
+      <c r="A156" s="23" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G156" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I156" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J156" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K156" s="23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M156" s="23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="N156" s="23" t="s">
+        <v>1523</v>
+      </c>
+      <c r="O156" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="P156" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q156" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R156" s="23">
+        <v>92121</v>
+      </c>
+      <c r="AK156" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="157" spans="1:37" ht="43.5">
+      <c r="A157" s="23" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G157" s="23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H157" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I157" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J157" s="23" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M157" s="23" t="s">
+        <v>1530</v>
+      </c>
+      <c r="N157" s="23" t="s">
+        <v>1531</v>
+      </c>
+      <c r="O157" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="P157" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q157" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="R157" s="23">
+        <v>225300</v>
+      </c>
+      <c r="AK157" s="4" t="s">
         <v>819</v>
       </c>
     </row>
@@ -19496,285 +21157,320 @@
     <hyperlink ref="D83" r:id="rId34" xr:uid="{28AF124C-DE0C-4F6A-9013-C919EC0030B8}"/>
     <hyperlink ref="K91" r:id="rId35" xr:uid="{AED1D534-F89F-1F4C-AF6D-0AA2351A74CA}"/>
     <hyperlink ref="K126" r:id="rId36" xr:uid="{9E4C2C80-12D3-9D42-B644-3EBE3DB20720}"/>
-    <hyperlink ref="E126" r:id="rId37" xr:uid="{041581CF-8BA9-DC4F-BA11-BDC41581FA8E}"/>
-    <hyperlink ref="S126" r:id="rId38" display="https://www.antibodies-online.com/kit/6952137/PhoenixDx+2019-nCoV+RNA+Detection+Kit/" xr:uid="{2E00D898-EBF7-BC45-B8BD-B31A6EE40CAD}"/>
-    <hyperlink ref="D114" r:id="rId39" xr:uid="{AD165DFE-692D-1F41-9CE3-B03858723110}"/>
-    <hyperlink ref="K9" r:id="rId40" xr:uid="{D85D727B-C6D1-E040-B352-939B42C00704}"/>
-    <hyperlink ref="K111" r:id="rId41" xr:uid="{205438BE-D74B-B44E-A227-D6CDA48DBCCF}"/>
-    <hyperlink ref="K26" r:id="rId42" xr:uid="{C83A9E88-B718-4C7F-B248-81D2BD62D3AE}"/>
-    <hyperlink ref="D115" r:id="rId43" xr:uid="{97E7CFDB-4AA5-4E90-8564-CEF3415A69D1}"/>
-    <hyperlink ref="K115" r:id="rId44" xr:uid="{DEC5BC51-648F-4F6D-86A9-3F0D66E24F2D}"/>
-    <hyperlink ref="D89" r:id="rId45" xr:uid="{F81F24A9-3FDD-44F4-83FA-AABC32CDAB3A}"/>
-    <hyperlink ref="K89" r:id="rId46" xr:uid="{F188106F-B2B5-4D3E-8ACB-7AF5D3E5E674}"/>
-    <hyperlink ref="D136" r:id="rId47" xr:uid="{9E24306B-19BE-400A-960B-CBD28C9A6D6C}"/>
-    <hyperlink ref="K136" r:id="rId48" xr:uid="{82A72280-AB42-4D2C-9BB8-86014D87E925}"/>
-    <hyperlink ref="D59" r:id="rId49" xr:uid="{3E17243E-9AD9-41CF-9AF1-A30DFD97757C}"/>
-    <hyperlink ref="K59" r:id="rId50" xr:uid="{4E284E36-6350-432F-8B90-5CD5FE4B30DC}"/>
-    <hyperlink ref="D6" r:id="rId51" xr:uid="{DBB51715-019F-40C8-AA64-9E975C65DC90}"/>
-    <hyperlink ref="K6" r:id="rId52" xr:uid="{717B9E3A-EEC2-462D-AD53-86090F0A9B21}"/>
-    <hyperlink ref="K2" r:id="rId53" xr:uid="{D92FA87C-4F1C-40B4-9934-F187775FE3B0}"/>
-    <hyperlink ref="D2" r:id="rId54" xr:uid="{BAF641AD-5FD0-4B5D-BA6F-8D431F00477C}"/>
-    <hyperlink ref="D26" r:id="rId55" xr:uid="{DCC293DA-E3B3-4527-8D1B-7FA86AB32E7F}"/>
-    <hyperlink ref="D112" r:id="rId56" xr:uid="{28672ACB-8E5D-492F-AAD2-62850BDEA2E6}"/>
-    <hyperlink ref="D105" r:id="rId57" xr:uid="{8AAD2884-4F7C-49E6-B9E1-2C545F86FF9F}"/>
-    <hyperlink ref="K105" r:id="rId58" xr:uid="{8C5AACB8-230C-4BEA-AE4A-6A178A7CDA54}"/>
-    <hyperlink ref="D75" r:id="rId59" xr:uid="{368B0B5F-8FE2-4A3A-A665-0205E0F2F6B3}"/>
-    <hyperlink ref="K75" r:id="rId60" xr:uid="{353A2A34-EB96-4889-BD0F-C78709795E70}"/>
-    <hyperlink ref="D25" r:id="rId61" xr:uid="{1C167CE0-422A-48E4-8559-20F892F3D44F}"/>
-    <hyperlink ref="K25" r:id="rId62" xr:uid="{9D915933-B409-4E0A-96C0-8905A01FC9A3}"/>
-    <hyperlink ref="K27" r:id="rId63" xr:uid="{F40B3EB9-28D3-462A-A6AD-124711086105}"/>
-    <hyperlink ref="D27" r:id="rId64" xr:uid="{77EACF03-E9F1-4F5D-B579-63ECAD2FC965}"/>
-    <hyperlink ref="D50" r:id="rId65" xr:uid="{5375796D-8E44-408C-9842-5AAAACF5F1AB}"/>
-    <hyperlink ref="D79" r:id="rId66" xr:uid="{9FD5ED1E-C3ED-43F0-BB37-7E6BE9CEFB3C}"/>
-    <hyperlink ref="D4" r:id="rId67" xr:uid="{A906FCFD-5770-49AD-9596-9FBACE70C8D6}"/>
-    <hyperlink ref="K4" r:id="rId68" xr:uid="{FD493CD9-AE7A-4BC7-94D3-E4F8B9E97DDF}"/>
-    <hyperlink ref="D101" r:id="rId69" xr:uid="{CD039236-7474-48D1-8A35-B7E63935754A}"/>
-    <hyperlink ref="D86" r:id="rId70" xr:uid="{48DEDEB4-4A9A-418E-A077-89F00BCDAFD5}"/>
-    <hyperlink ref="K33" r:id="rId71" xr:uid="{BB0C9E36-6B2C-4DB8-AF04-34078BDAEE2D}"/>
-    <hyperlink ref="D33" r:id="rId72" xr:uid="{49D95777-342F-4C3E-BD28-134E9B566BA0}"/>
-    <hyperlink ref="K110" r:id="rId73" xr:uid="{BDC429AF-206A-4FA2-A358-2B4FBE814885}"/>
-    <hyperlink ref="D110" r:id="rId74" xr:uid="{5BFF238F-B28A-49BC-A229-A034ABBBD811}"/>
-    <hyperlink ref="K78" r:id="rId75" xr:uid="{B6D7BCBF-7CAE-4682-9E50-BDF5A146D492}"/>
-    <hyperlink ref="D78" r:id="rId76" xr:uid="{EA8A8DDC-954C-4D1E-80BF-AE02BB498E47}"/>
-    <hyperlink ref="D66" r:id="rId77" xr:uid="{F6180320-49F2-40F7-9C2E-7BE349664E3B}"/>
-    <hyperlink ref="K66" r:id="rId78" xr:uid="{89528CC6-81B0-4408-B422-957846C4341E}"/>
-    <hyperlink ref="E33" r:id="rId79" xr:uid="{6273C637-86C3-4BD0-98B5-5FAE269D01AF}"/>
-    <hyperlink ref="E86" r:id="rId80" xr:uid="{7D39BF67-ADC0-4230-8DE1-F48206B13264}"/>
-    <hyperlink ref="E101" r:id="rId81" xr:uid="{9E639607-F203-4284-88A0-95301B397127}"/>
-    <hyperlink ref="D111" r:id="rId82" xr:uid="{414CA4EA-A4A4-41C1-BE24-FA919CC0CDD1}"/>
-    <hyperlink ref="E2" r:id="rId83" xr:uid="{11D50E87-5089-4301-8D5D-8471F3DADA3A}"/>
-    <hyperlink ref="E4" r:id="rId84" xr:uid="{3DFF3011-DFC9-45AC-AEAC-659F2C2802CD}"/>
-    <hyperlink ref="E5" r:id="rId85" xr:uid="{A5CDA79B-9AA2-4FA7-AA99-A1D0ED1F483F}"/>
-    <hyperlink ref="E6" r:id="rId86" xr:uid="{BC9CA8F7-FE51-4D98-A0CF-F2D186702438}"/>
-    <hyperlink ref="E9" r:id="rId87" xr:uid="{00201E7E-3A43-46EF-8B0C-A417318A16D3}"/>
-    <hyperlink ref="E12" r:id="rId88" xr:uid="{1C38CDD7-A8D3-4434-A6EF-609AFE88AD65}"/>
-    <hyperlink ref="E20" r:id="rId89" xr:uid="{48C4FD59-3A9F-4B0F-B272-65A2019B168B}"/>
-    <hyperlink ref="E27" r:id="rId90" xr:uid="{1D3A21F0-407B-43DB-ABC9-54112F273BBF}"/>
-    <hyperlink ref="E24" r:id="rId91" xr:uid="{DAC2CE77-D460-4760-8316-24870A3B3FB4}"/>
-    <hyperlink ref="E25" r:id="rId92" xr:uid="{CC10D741-EA67-4C15-9AF3-EAC9168A70FD}"/>
-    <hyperlink ref="E26" r:id="rId93" xr:uid="{AF75070A-AAC6-49BE-BD11-DF7E9EA97BFD}"/>
-    <hyperlink ref="E29" r:id="rId94" xr:uid="{23A9271B-49F4-41AF-8F8B-E85AE2AB5EB4}"/>
-    <hyperlink ref="E30" r:id="rId95" xr:uid="{42592E24-C4EC-4551-873E-4513BE53000D}"/>
-    <hyperlink ref="E40" r:id="rId96" xr:uid="{7F247D81-7582-4A03-89AF-14CD68518A92}"/>
-    <hyperlink ref="D40" r:id="rId97" xr:uid="{046F1B4E-F602-4D5D-9EB9-310712CFD6E8}"/>
-    <hyperlink ref="E43" r:id="rId98" xr:uid="{4C7C5189-3A0B-4FA4-8F37-D11822DF450C}"/>
-    <hyperlink ref="E50" r:id="rId99" xr:uid="{0E97C03D-07BD-4677-AA64-18E486F1801B}"/>
-    <hyperlink ref="E56" r:id="rId100" xr:uid="{C17D6573-B366-4B6E-ACF0-ACFF018D8FCD}"/>
-    <hyperlink ref="E51" r:id="rId101" xr:uid="{0545D318-C1D1-4864-B37A-DC56A1F15717}"/>
-    <hyperlink ref="E59" r:id="rId102" xr:uid="{00FE116A-21D1-4330-81CB-E296DD4D07A0}"/>
-    <hyperlink ref="E64" r:id="rId103" xr:uid="{B2F30322-D6E3-45A3-BB21-E03A255ADF26}"/>
-    <hyperlink ref="E66" r:id="rId104" xr:uid="{23BAC5C9-A05F-4CD5-B8F5-6DD80F6B3DB8}"/>
-    <hyperlink ref="E75" r:id="rId105" xr:uid="{E4EB295A-77FF-489A-82F6-E64DA9DFDD11}"/>
-    <hyperlink ref="E78" r:id="rId106" location="molecular" display="https://www.luminexcorp.com/covid19-testing-solutions/ - molecular" xr:uid="{88DDDEDA-9290-4B4F-A364-F7BA65738226}"/>
-    <hyperlink ref="E79" r:id="rId107" location="molecular" display="https://www.luminexcorp.com/covid19-testing-solutions/ - molecular" xr:uid="{A6029CB3-5A5A-4EFF-B921-19D728E7143D}"/>
-    <hyperlink ref="E80" r:id="rId108" xr:uid="{54233BAD-9EFA-47D3-8A73-F2670598E8B6}"/>
-    <hyperlink ref="E83" r:id="rId109" xr:uid="{2D8850E2-F499-49CD-A2F0-4CEBB78716BB}"/>
-    <hyperlink ref="E89" r:id="rId110" xr:uid="{518B8018-3D0F-477C-B8B5-74703B1B7F20}"/>
-    <hyperlink ref="E91" r:id="rId111" location="row_md45" display="http://www.osanghc.com/en/products_en/molecular-diagnosis/ - row_md45" xr:uid="{CAE0480D-1016-42FC-A55E-F799063DFEB3}"/>
-    <hyperlink ref="E94" r:id="rId112" xr:uid="{71A9CFAA-B20C-4E9C-823D-827BAF0D6A8D}"/>
-    <hyperlink ref="E98" r:id="rId113" xr:uid="{572C4A98-4855-4007-AA8A-B73B1C93C787}"/>
-    <hyperlink ref="E104" r:id="rId114" xr:uid="{62DC026D-B96F-411B-8B42-41F9359409EC}"/>
-    <hyperlink ref="E105" r:id="rId115" xr:uid="{469E78F8-09BF-4857-93C9-514B446C9562}"/>
-    <hyperlink ref="E106" r:id="rId116" xr:uid="{A140188C-2225-49B5-AAC2-48600B66B9E1}"/>
-    <hyperlink ref="E109" r:id="rId117" xr:uid="{6FE5BDE0-CFA3-4BD3-8F62-E26D0D39EC6A}"/>
-    <hyperlink ref="E110" r:id="rId118" xr:uid="{E86B3471-E5F4-4819-9419-9E5A98A3148F}"/>
-    <hyperlink ref="E111" r:id="rId119" xr:uid="{CD81C3E1-E280-4158-8583-A19510FB4E30}"/>
-    <hyperlink ref="D113" r:id="rId120" xr:uid="{3BA3DFDA-51B6-48F1-A5E8-A3575F53014F}"/>
-    <hyperlink ref="K113" r:id="rId121" xr:uid="{387CF524-8444-4762-B502-E1AC9F1C624D}"/>
-    <hyperlink ref="E113" r:id="rId122" xr:uid="{348F5532-F1A9-45A4-915B-4EC2084A404E}"/>
-    <hyperlink ref="E112" r:id="rId123" xr:uid="{23F7ACD5-A1FE-46B5-B79F-1240924C2FBC}"/>
-    <hyperlink ref="E115" r:id="rId124" xr:uid="{818CF2E6-2FB5-4300-9B99-BF94A47885E9}"/>
-    <hyperlink ref="E123" r:id="rId125" xr:uid="{940AE1C1-C7F0-4AD8-BC8B-E57E2A1973B8}"/>
-    <hyperlink ref="D126" r:id="rId126" xr:uid="{45CC9C24-57A2-499E-9DC7-BEE7B913C6DE}"/>
-    <hyperlink ref="E136" r:id="rId127" xr:uid="{AF6BB7E1-068D-495D-BD2C-34C9B3DF05A8}"/>
-    <hyperlink ref="D54" r:id="rId128" xr:uid="{909A594C-3B88-444C-8E25-78AF6B4303AF}"/>
-    <hyperlink ref="E54" r:id="rId129" xr:uid="{F968FF17-5FDD-465D-A1F8-ABED41A42F74}"/>
-    <hyperlink ref="D63" r:id="rId130" xr:uid="{CC55CFAD-13FC-4E28-8164-6954AF8C4EB4}"/>
-    <hyperlink ref="K63" r:id="rId131" xr:uid="{5C7C44DB-C7DC-4C6F-9410-0F7E8D9AD28D}"/>
-    <hyperlink ref="D103" r:id="rId132" xr:uid="{A2C2E428-44B6-4CEF-AC93-110E85652D46}"/>
-    <hyperlink ref="E103" r:id="rId133" xr:uid="{DC8E507C-1E8F-4F9C-901A-AD1A9E77DB73}"/>
-    <hyperlink ref="K104" r:id="rId134" display="mailto:customerservice@quidel.com" xr:uid="{06ECD120-CD18-4016-9B8B-0C0146B98988}"/>
-    <hyperlink ref="K103" r:id="rId135" display="mailto:customerservice@quidel.com" xr:uid="{3AE3C53A-CA87-4391-BF95-E9FD94819825}"/>
-    <hyperlink ref="D23" r:id="rId136" xr:uid="{26D70AED-8CBC-4F7C-9119-7E07585D6874}"/>
-    <hyperlink ref="K23" r:id="rId137" xr:uid="{B4ACF05B-F263-4665-8C6B-EF9C294FF009}"/>
-    <hyperlink ref="E23" r:id="rId138" xr:uid="{ABD4CD6D-F4B6-4F02-A6DB-B214ED3C498F}"/>
-    <hyperlink ref="D116" r:id="rId139" xr:uid="{EF747904-0800-4911-8CF1-117EED1BE25A}"/>
-    <hyperlink ref="D39" r:id="rId140" xr:uid="{EBF7609A-AE85-469D-A94D-D481AD5BF59C}"/>
-    <hyperlink ref="D55" r:id="rId141" xr:uid="{C420AFB4-D7B6-4609-852E-B2A2BEE19F92}"/>
-    <hyperlink ref="D45" r:id="rId142" xr:uid="{1958D791-0FF9-4B39-812F-4A78CB69660D}"/>
-    <hyperlink ref="E45" r:id="rId143" xr:uid="{930BC8B4-A96A-4870-AF36-F1B8BC7BAC51}"/>
-    <hyperlink ref="D31" r:id="rId144" xr:uid="{11016015-9FC2-4DC1-8C0A-D4880B3FE56E}"/>
-    <hyperlink ref="E31" r:id="rId145" location="/sars-cov-2" xr:uid="{0060F72C-BD16-48E7-A87D-0B5483F7BE49}"/>
-    <hyperlink ref="K65" r:id="rId146" xr:uid="{D0AF71BD-602E-4358-B41B-703ADD43D8A0}"/>
-    <hyperlink ref="K38" r:id="rId147" xr:uid="{BAACB403-15E2-4809-AC0E-B4A37C315E32}"/>
-    <hyperlink ref="K107" r:id="rId148" xr:uid="{99D59686-FADA-44AA-86E0-1B5EB6B48EA2}"/>
-    <hyperlink ref="D11" r:id="rId149" xr:uid="{3C6B39C0-9DD6-49E8-8B0C-DB138D3434D6}"/>
-    <hyperlink ref="D3" r:id="rId150" xr:uid="{AD6779CD-A97D-471D-982F-3AB91B37D97C}"/>
-    <hyperlink ref="D18" r:id="rId151" xr:uid="{30FB615B-10CD-4934-88C2-F019375D466C}"/>
-    <hyperlink ref="E19" r:id="rId152" xr:uid="{5B269CC6-2C10-4ECB-B9E1-C96BDA317C9C}"/>
-    <hyperlink ref="E18" r:id="rId153" xr:uid="{8458F665-16D2-4A8C-8415-CF786FE08BA5}"/>
-    <hyperlink ref="D19" r:id="rId154" xr:uid="{A90C77DF-7F5F-4E74-8EC2-5171652D21DD}"/>
-    <hyperlink ref="E58" r:id="rId155" xr:uid="{9AF25CFF-6D72-4F66-B635-6679582F4DFD}"/>
-    <hyperlink ref="K58" r:id="rId156" xr:uid="{89F82CAB-D7CB-44A0-B5DD-E511E2E350B5}"/>
-    <hyperlink ref="D133" r:id="rId157" xr:uid="{7ACCBC6F-2F2A-4285-8BB2-FA8544F9A9DC}"/>
-    <hyperlink ref="K133" r:id="rId158" xr:uid="{990C7A34-BA6E-4A7A-977E-4DBCCB22B447}"/>
-    <hyperlink ref="D53" r:id="rId159" xr:uid="{4684665B-ABF3-4818-93CC-8C88554136E7}"/>
-    <hyperlink ref="E53" r:id="rId160" xr:uid="{35601B06-9E07-40A3-9CE8-24AB63B35548}"/>
-    <hyperlink ref="E11" r:id="rId161" xr:uid="{03F8FD99-3997-46D6-A474-607C12B08087}"/>
-    <hyperlink ref="D12" r:id="rId162" xr:uid="{5BB15E92-1230-4FC9-93DB-EA4CC73A5D3B}"/>
-    <hyperlink ref="D16" r:id="rId163" xr:uid="{4F32356D-E61F-4CD5-873F-94FF5D9B31D0}"/>
-    <hyperlink ref="D14" r:id="rId164" xr:uid="{517F8ED2-991D-424B-A08B-C24E501602A9}"/>
-    <hyperlink ref="E14" r:id="rId165" xr:uid="{04B36A99-8DA0-4E30-A297-308651842F27}"/>
-    <hyperlink ref="D52" r:id="rId166" xr:uid="{75A931D3-AB2B-4758-B5F5-3A8D3B2F9799}"/>
-    <hyperlink ref="E52" r:id="rId167" xr:uid="{7FE1C029-3EFA-4A79-8553-E91726DB3F97}"/>
-    <hyperlink ref="D92" r:id="rId168" xr:uid="{9A6D952D-0145-417A-8FBC-59CDCC7B50A7}"/>
-    <hyperlink ref="E60" r:id="rId169" xr:uid="{C3448CF6-C805-40B9-9EA3-48B406289486}"/>
-    <hyperlink ref="D95" r:id="rId170" xr:uid="{46EA8353-2F88-4C1D-A173-20F5A85138A8}"/>
-    <hyperlink ref="E95" r:id="rId171" xr:uid="{BCC08A5A-F54A-40FB-B88C-35A995D5B673}"/>
-    <hyperlink ref="D124" r:id="rId172" xr:uid="{E11D0195-8D1C-4864-90F3-6FD08A4A8F4F}"/>
-    <hyperlink ref="E87" r:id="rId173" xr:uid="{77B0B535-EB1E-4F4B-8DAC-381361E6212C}"/>
-    <hyperlink ref="D71" r:id="rId174" xr:uid="{91C01A45-57BF-4651-9E8E-D868BC8A7AB2}"/>
-    <hyperlink ref="E71" r:id="rId175" xr:uid="{DCCDDA1D-6518-4321-9C68-66B4EDD3CAE6}"/>
-    <hyperlink ref="D62" r:id="rId176" xr:uid="{0B275D64-41B7-481D-B693-87FDBBD2DFA4}"/>
-    <hyperlink ref="E62" r:id="rId177" xr:uid="{BFDA52CD-0461-4686-AE4A-265D106085EF}"/>
-    <hyperlink ref="D128" r:id="rId178" xr:uid="{EE8E59CD-31B4-4FCD-B9C7-F9A09F8CF5C2}"/>
-    <hyperlink ref="E108" r:id="rId179" xr:uid="{BD2CD9D8-18A1-4743-956C-A0FF98C1277C}"/>
-    <hyperlink ref="D76" r:id="rId180" xr:uid="{D29D0B9F-38D7-4AEF-97F0-AE6764E0D1B3}"/>
-    <hyperlink ref="E76" r:id="rId181" xr:uid="{4BEDC045-9DB7-4D00-BC74-7DAF0AD06745}"/>
-    <hyperlink ref="D130" r:id="rId182" xr:uid="{DC569DB2-C90E-4116-B724-946D7F15626E}"/>
-    <hyperlink ref="E130" r:id="rId183" xr:uid="{25D9D611-2A52-429F-AB98-5A7410D41F31}"/>
-    <hyperlink ref="D32" r:id="rId184" xr:uid="{69AAD0B6-5D83-40D5-B71E-317DE5E38236}"/>
-    <hyperlink ref="E32" r:id="rId185" xr:uid="{3626FB8B-F754-4755-A28E-0F08B03448FD}"/>
-    <hyperlink ref="D42" r:id="rId186" xr:uid="{8013B838-C99F-4831-B606-8A3DAEF18BFA}"/>
-    <hyperlink ref="E42" r:id="rId187" xr:uid="{AA931EEA-1132-4D78-90E2-BD67244DC6E5}"/>
-    <hyperlink ref="D46" r:id="rId188" xr:uid="{59293959-1A2A-4DE4-A44B-F1C2D0CE12B3}"/>
-    <hyperlink ref="E46" r:id="rId189" xr:uid="{E08ADD81-25D5-4856-9EC9-30042CD2D989}"/>
-    <hyperlink ref="D135" r:id="rId190" xr:uid="{4634C4F7-9F21-46DC-9915-04317F6515EA}"/>
-    <hyperlink ref="E135" r:id="rId191" xr:uid="{D1214889-1C8F-4B01-8728-F861C51B1B99}"/>
-    <hyperlink ref="D67" r:id="rId192" xr:uid="{B5B97A4E-2CF2-4A0A-845D-6B564F61CC55}"/>
-    <hyperlink ref="D61" r:id="rId193" xr:uid="{5B67F8E2-F452-4C2E-93F7-F5B91C9F5DF1}"/>
-    <hyperlink ref="D41" r:id="rId194" xr:uid="{9D3304C8-F768-44D1-B56F-251DBB6B1424}"/>
-    <hyperlink ref="E67" r:id="rId195" xr:uid="{801E0DC9-2779-40A6-B844-6D6C19A8130B}"/>
-    <hyperlink ref="D36" r:id="rId196" xr:uid="{8CA04433-A3FF-48C1-AE44-7E46F003B181}"/>
-    <hyperlink ref="E41" r:id="rId197" xr:uid="{22ECFB7E-508E-4B91-9EAD-608CCAF63BA7}"/>
-    <hyperlink ref="D82" r:id="rId198" xr:uid="{8FDAA67A-DB24-43DB-A24C-BE13E33B7CC5}"/>
-    <hyperlink ref="D81" r:id="rId199" xr:uid="{6313B833-AD63-4A07-861C-BA0081116216}"/>
-    <hyperlink ref="D134" r:id="rId200" xr:uid="{844DF176-C5A0-441F-97C2-50D706449936}"/>
-    <hyperlink ref="E134" r:id="rId201" xr:uid="{E81FCF58-151C-4E2C-8047-BA395E779C44}"/>
-    <hyperlink ref="E82" r:id="rId202" xr:uid="{0F47A7CD-7740-4517-8AE4-D4C97E4D81E6}"/>
-    <hyperlink ref="D85" r:id="rId203" xr:uid="{E9144731-1357-4AB6-B052-B0E693EBD9C0}"/>
-    <hyperlink ref="D44" r:id="rId204" xr:uid="{48A378FB-5F99-4BAB-B54A-0FB88532CC10}"/>
-    <hyperlink ref="D13" r:id="rId205" xr:uid="{965DC820-7209-49E7-A6C5-BB6C63596A6D}"/>
-    <hyperlink ref="E13" r:id="rId206" xr:uid="{701EE930-80A1-438F-940B-D9D300A12CA9}"/>
-    <hyperlink ref="D132" r:id="rId207" xr:uid="{DECCBD93-2836-4E2C-9A27-0529ABCE39D0}"/>
-    <hyperlink ref="D60" r:id="rId208" xr:uid="{191E77F2-5361-45FA-A620-4F97177211CE}"/>
-    <hyperlink ref="D73" r:id="rId209" xr:uid="{227111ED-C5D2-4FED-ABE3-37C14D84F91D}"/>
-    <hyperlink ref="D87" r:id="rId210" xr:uid="{56800ADA-3115-4031-992F-0D38694FBF26}"/>
-    <hyperlink ref="D122" r:id="rId211" xr:uid="{99FF0F84-DA52-448F-B14B-CADD948BA005}"/>
-    <hyperlink ref="D108" r:id="rId212" xr:uid="{B6F316BD-DB84-4E48-9B0E-D81C8A98102A}"/>
-    <hyperlink ref="D37" r:id="rId213" xr:uid="{05A4083F-E4FE-4AFC-B2EB-B7BFA5020429}"/>
-    <hyperlink ref="E44" r:id="rId214" xr:uid="{FAFEB691-69EE-4C6F-924F-D6F9D5BD66AA}"/>
-    <hyperlink ref="D102" r:id="rId215" xr:uid="{5F0EBE0B-3E22-4C0A-99DD-EBC4CB929594}"/>
-    <hyperlink ref="D47" r:id="rId216" xr:uid="{61917CFB-49B0-4433-80DD-4B81F2593F3B}"/>
-    <hyperlink ref="E102" r:id="rId217" xr:uid="{205E5169-3800-40FD-BB6B-CA28DBACAB94}"/>
-    <hyperlink ref="D117" r:id="rId218" xr:uid="{5242CCF6-973C-4AA6-A9C3-F762CACAAC99}"/>
-    <hyperlink ref="E47" r:id="rId219" xr:uid="{81DBF9C6-A69B-413A-9DE3-360D037EC1D9}"/>
-    <hyperlink ref="E117" r:id="rId220" xr:uid="{742DB83C-C95B-46C5-9B4A-0B68E634E439}"/>
-    <hyperlink ref="D8" r:id="rId221" xr:uid="{9733C5FE-74DC-4555-9545-76BCAD0B0DF7}"/>
-    <hyperlink ref="D49" r:id="rId222" xr:uid="{53A21E6F-8FC2-402F-A3C8-FB41079D9195}"/>
-    <hyperlink ref="D17" r:id="rId223" xr:uid="{62852EBF-C670-4DEE-9D6F-432BCF70A57F}"/>
-    <hyperlink ref="E17" r:id="rId224" xr:uid="{98607AB7-365D-4956-AC48-8D9338C2D215}"/>
-    <hyperlink ref="E8" r:id="rId225" xr:uid="{87D34843-D247-4216-BF4A-027D57C97F9C}"/>
-    <hyperlink ref="D127" r:id="rId226" xr:uid="{B6AA710C-5B27-47B7-926E-3CA7BFECB832}"/>
-    <hyperlink ref="E132" r:id="rId227" xr:uid="{FDE150AA-7C8F-40AE-A163-3BE94CB42DF5}"/>
-    <hyperlink ref="D34" r:id="rId228" xr:uid="{5A6C6110-6F71-491E-A0B1-4052CA3AB1A2}"/>
-    <hyperlink ref="E34" r:id="rId229" xr:uid="{32FBF1F3-6694-486F-9EDB-E9B98B0D2CF7}"/>
-    <hyperlink ref="E127" r:id="rId230" xr:uid="{E8636BAB-E260-4B73-B834-B52C6A7C0CF7}"/>
-    <hyperlink ref="D119" r:id="rId231" xr:uid="{C3849A61-3353-4592-8936-74CC85AE5759}"/>
-    <hyperlink ref="D84" r:id="rId232" xr:uid="{528181A2-90FC-4901-9651-4F0CECA25A8B}"/>
-    <hyperlink ref="D88" r:id="rId233" xr:uid="{144EBC26-9C07-4229-B27E-8B58BEDC9555}"/>
-    <hyperlink ref="E84" r:id="rId234" xr:uid="{5E86AE4B-4DDB-480E-8D90-F07D540DF945}"/>
-    <hyperlink ref="E88" r:id="rId235" location="test" xr:uid="{05A66E55-70B5-4B53-AE86-4E95068C99E8}"/>
-    <hyperlink ref="D21" r:id="rId236" xr:uid="{1FD71F1A-8589-446B-AC1C-893C84E86596}"/>
-    <hyperlink ref="E119" r:id="rId237" xr:uid="{71A02C06-D249-4044-B08F-4A7C8DDE80BA}"/>
-    <hyperlink ref="D28" r:id="rId238" xr:uid="{802E2073-9CE0-4DF9-992D-9584A7CA6061}"/>
-    <hyperlink ref="D129" r:id="rId239" xr:uid="{50900A69-D93C-4F72-9DF4-D7203EA982E0}"/>
-    <hyperlink ref="D10" r:id="rId240" xr:uid="{24A54D8F-260E-4889-8F97-E4793E0C8795}"/>
-    <hyperlink ref="D35" r:id="rId241" xr:uid="{3E9ED440-07E0-4C5C-845B-F19CBC5328CF}"/>
-    <hyperlink ref="E129" r:id="rId242" xr:uid="{1BAE074C-3F8C-404C-A01D-C9F11ED05E07}"/>
-    <hyperlink ref="D118" r:id="rId243" xr:uid="{E82B35EF-9F7F-456E-A2F4-A0C0BE6F963E}"/>
-    <hyperlink ref="E118" r:id="rId244" xr:uid="{59AD183A-B119-42F1-B2FE-B386233F039A}"/>
-    <hyperlink ref="D90" r:id="rId245" xr:uid="{5849C207-B068-4B77-B490-F5C92EE84D00}"/>
-    <hyperlink ref="E36" r:id="rId246" xr:uid="{C358D717-5A2F-4627-AF3C-346E268FB209}"/>
-    <hyperlink ref="E90" r:id="rId247" xr:uid="{D85CC028-D0EC-40D2-B900-90A12EB12711}"/>
-    <hyperlink ref="D131" r:id="rId248" xr:uid="{22195A5B-DB61-49D9-99EA-C98B9E7CF9FE}"/>
-    <hyperlink ref="D93" r:id="rId249" xr:uid="{2EDB8CB1-ED5C-4452-BA61-DF56DF89E423}"/>
-    <hyperlink ref="E49" r:id="rId250" location="5d6abca8-e707-4841-ba9a-ce17e3830960" xr:uid="{811A624A-C8F3-42A3-AF55-79302C76CD65}"/>
-    <hyperlink ref="E93" r:id="rId251" xr:uid="{6C847D72-DF97-4578-B36C-53C896785859}"/>
-    <hyperlink ref="D70" r:id="rId252" xr:uid="{5A614384-4D0A-419A-BD63-2094AFE88011}"/>
-    <hyperlink ref="E70" r:id="rId253" xr:uid="{59C33A7C-EC2B-4502-A686-62D5EAFAD7F6}"/>
-    <hyperlink ref="D22" r:id="rId254" xr:uid="{253660D6-AC2C-41BA-B339-81CA90B99A6B}"/>
-    <hyperlink ref="D48" r:id="rId255" xr:uid="{BB80F362-29F7-4052-8DEC-96348C7FBFE3}"/>
-    <hyperlink ref="E48" r:id="rId256" xr:uid="{4AC0E3E8-4FAB-48C9-A15A-66EA8B2DE864}"/>
-    <hyperlink ref="E37" r:id="rId257" xr:uid="{40911FE9-5E76-4FCA-A249-3012BE2AA6F0}"/>
-    <hyperlink ref="K16" r:id="rId258" xr:uid="{7C24C4E5-809D-40BE-8C02-3EE68511934B}"/>
-    <hyperlink ref="K60" r:id="rId259" xr:uid="{F36CF339-5098-43A5-B6D9-08D62949EC80}"/>
-    <hyperlink ref="K124" r:id="rId260" xr:uid="{F830101C-62C0-4777-860F-C568B6C524E3}"/>
-    <hyperlink ref="K62" r:id="rId261" xr:uid="{56A1DE8A-AD01-480C-BA5A-2295A2FBA789}"/>
-    <hyperlink ref="K71" r:id="rId262" xr:uid="{4B03B362-10BC-4C3A-98CE-CA2627DB323E}"/>
-    <hyperlink ref="K108" r:id="rId263" xr:uid="{4073F0A4-DD8D-48BE-9D3D-937BF7679EE3}"/>
-    <hyperlink ref="K99" r:id="rId264" xr:uid="{DBC71AB2-FD09-46F9-818C-17A0A375DD60}"/>
-    <hyperlink ref="K92" r:id="rId265" xr:uid="{38E5A956-FA88-4055-804B-A1C8FE273E99}"/>
-    <hyperlink ref="K52" r:id="rId266" xr:uid="{E2FD488F-3278-4844-AEFD-AAC1B8434C8F}"/>
-    <hyperlink ref="K14" r:id="rId267" xr:uid="{A603EFC9-E8C5-46B4-9F09-F1EB82091E53}"/>
-    <hyperlink ref="K74" r:id="rId268" xr:uid="{00510275-E1E1-4D46-B909-A5E69C8B597F}"/>
-    <hyperlink ref="K87" r:id="rId269" xr:uid="{84564DE7-A667-4A6F-9287-959B8F472C74}"/>
-    <hyperlink ref="K76" r:id="rId270" xr:uid="{65FC2DA2-D60A-4013-97D7-E0D46222A1DA}"/>
-    <hyperlink ref="K32" r:id="rId271" xr:uid="{AEB12390-A7DC-4C21-B501-966DE18BB58A}"/>
-    <hyperlink ref="K130" r:id="rId272" xr:uid="{020017E6-ADEC-414E-A480-512B9B49D240}"/>
-    <hyperlink ref="K42" r:id="rId273" xr:uid="{65BE5BD9-20E8-4B21-9F4B-0E028D04A99B}"/>
-    <hyperlink ref="K46" r:id="rId274" xr:uid="{B90ADB76-BC2B-43B0-B26C-1E9BFEEB28DF}"/>
-    <hyperlink ref="K67" r:id="rId275" xr:uid="{A785F6DA-9760-494E-9296-8A385D8D96FC}"/>
-    <hyperlink ref="K61" r:id="rId276" xr:uid="{C4303BA6-01A8-4C39-A65C-A013820F9CF0}"/>
-    <hyperlink ref="K134" r:id="rId277" xr:uid="{98017A5B-9758-4434-AC27-E83FA92406F7}"/>
-    <hyperlink ref="K82" r:id="rId278" xr:uid="{C7A108F4-1EBC-4240-84D6-FD19C4DB22C2}"/>
-    <hyperlink ref="K81" r:id="rId279" xr:uid="{669C6F04-8F75-4E22-A544-451E7C2D9ABF}"/>
-    <hyperlink ref="K44" r:id="rId280" xr:uid="{E80A1CDF-4E7E-4EBA-B50D-34689C864888}"/>
-    <hyperlink ref="K37" r:id="rId281" xr:uid="{2776AEBE-350E-46AD-8178-16B509E06627}"/>
-    <hyperlink ref="K102" r:id="rId282" xr:uid="{529548A5-FEC5-4901-93D2-E87082B6E1BB}"/>
-    <hyperlink ref="K117" r:id="rId283" xr:uid="{BDCF6E70-11D0-4273-8C98-F43BBEDD58AE}"/>
-    <hyperlink ref="K8" r:id="rId284" xr:uid="{380EFB5A-9740-4523-B949-B4498A4E7CCF}"/>
-    <hyperlink ref="K132" r:id="rId285" xr:uid="{0917E6ED-2FEF-417D-9B2D-DB412EF1853C}"/>
-    <hyperlink ref="K127" r:id="rId286" xr:uid="{4C48073F-DD17-41B7-B96F-9B1E14260E13}"/>
-    <hyperlink ref="K34" r:id="rId287" xr:uid="{EBA720C6-3F40-4151-BDF5-6679493416C3}"/>
-    <hyperlink ref="K84" r:id="rId288" xr:uid="{055F4D9B-8E0D-44F7-B07B-DDDB8B0B8363}"/>
-    <hyperlink ref="K21" r:id="rId289" xr:uid="{0C9D7A16-E1A1-4809-A3C5-FA451DFB60D6}"/>
-    <hyperlink ref="K129" r:id="rId290" xr:uid="{C47270AE-E28D-496A-9B88-0C35266ECF95}"/>
-    <hyperlink ref="K35" r:id="rId291" xr:uid="{E0FB1056-30FF-43E3-97E2-F9E52D7EA497}"/>
-    <hyperlink ref="K118" r:id="rId292" xr:uid="{C55650AE-DF11-45C6-AF19-0DCC68694D95}"/>
-    <hyperlink ref="K90" r:id="rId293" xr:uid="{5170FA32-24D2-40B5-A6F8-0C5E90DFFAB9}"/>
-    <hyperlink ref="K70" r:id="rId294" xr:uid="{0625A3E3-40E9-4832-829A-76DECD16F775}"/>
-    <hyperlink ref="K131" r:id="rId295" xr:uid="{6454563D-3DB9-46D7-8A10-E323AF5DA848}"/>
-    <hyperlink ref="K22" r:id="rId296" xr:uid="{9A393BA6-954D-4142-9948-4641E714C9A1}"/>
-    <hyperlink ref="K68" r:id="rId297" xr:uid="{9C283404-9C2C-4123-ADBA-5FC582540829}"/>
-    <hyperlink ref="K88" r:id="rId298" xr:uid="{49BB6BCB-EC73-4757-8984-2902EF1E995D}"/>
-    <hyperlink ref="K106" r:id="rId299" xr:uid="{E2F96A6A-91CD-4A60-A437-FCABE40B8030}"/>
-    <hyperlink ref="D69" r:id="rId300" xr:uid="{10B0096B-536D-4391-81E5-CBD2BF44B4FB}"/>
-    <hyperlink ref="E69" r:id="rId301" xr:uid="{FC221B13-E40C-4C1A-A688-B29E3F7DA421}"/>
-    <hyperlink ref="K69" r:id="rId302" xr:uid="{F8485640-4676-432A-8241-93480B6B06BB}"/>
-    <hyperlink ref="D97" r:id="rId303" xr:uid="{CE65D092-02EC-466D-A619-4CBB0C7CF12B}"/>
-    <hyperlink ref="K97" r:id="rId304" xr:uid="{C4808187-40A0-40E6-B53E-B7575B15FC0F}"/>
-    <hyperlink ref="E97" r:id="rId305" xr:uid="{66FCA52C-8EEF-44D6-9A81-B59D479B61B4}"/>
-    <hyperlink ref="D96" r:id="rId306" xr:uid="{98BCBE81-22D5-41D8-A500-1C5B67A324C5}"/>
-    <hyperlink ref="E96" r:id="rId307" xr:uid="{816A449A-57DC-4371-9737-04909F3450B1}"/>
-    <hyperlink ref="K96" r:id="rId308" xr:uid="{C8B1ACB4-BC89-4307-8EEE-9EFDB16414CC}"/>
-    <hyperlink ref="D125" r:id="rId309" xr:uid="{38A8B725-E48F-4F0C-B148-E61E6EE6E03F}"/>
-    <hyperlink ref="E7" r:id="rId310" xr:uid="{40EB132C-E3A0-4CC9-A14F-F0D84422D4D8}"/>
+    <hyperlink ref="S126" r:id="rId37" display="https://www.antibodies-online.com/kit/6952137/PhoenixDx+2019-nCoV+RNA+Detection+Kit/" xr:uid="{2E00D898-EBF7-BC45-B8BD-B31A6EE40CAD}"/>
+    <hyperlink ref="D114" r:id="rId38" xr:uid="{AD165DFE-692D-1F41-9CE3-B03858723110}"/>
+    <hyperlink ref="K9" r:id="rId39" xr:uid="{D85D727B-C6D1-E040-B352-939B42C00704}"/>
+    <hyperlink ref="K111" r:id="rId40" xr:uid="{205438BE-D74B-B44E-A227-D6CDA48DBCCF}"/>
+    <hyperlink ref="K26" r:id="rId41" xr:uid="{C83A9E88-B718-4C7F-B248-81D2BD62D3AE}"/>
+    <hyperlink ref="D115" r:id="rId42" xr:uid="{97E7CFDB-4AA5-4E90-8564-CEF3415A69D1}"/>
+    <hyperlink ref="K115" r:id="rId43" xr:uid="{DEC5BC51-648F-4F6D-86A9-3F0D66E24F2D}"/>
+    <hyperlink ref="D89" r:id="rId44" xr:uid="{F81F24A9-3FDD-44F4-83FA-AABC32CDAB3A}"/>
+    <hyperlink ref="K89" r:id="rId45" xr:uid="{F188106F-B2B5-4D3E-8ACB-7AF5D3E5E674}"/>
+    <hyperlink ref="D136" r:id="rId46" xr:uid="{9E24306B-19BE-400A-960B-CBD28C9A6D6C}"/>
+    <hyperlink ref="K136" r:id="rId47" xr:uid="{82A72280-AB42-4D2C-9BB8-86014D87E925}"/>
+    <hyperlink ref="D59" r:id="rId48" xr:uid="{3E17243E-9AD9-41CF-9AF1-A30DFD97757C}"/>
+    <hyperlink ref="K59" r:id="rId49" xr:uid="{4E284E36-6350-432F-8B90-5CD5FE4B30DC}"/>
+    <hyperlink ref="D6" r:id="rId50" xr:uid="{DBB51715-019F-40C8-AA64-9E975C65DC90}"/>
+    <hyperlink ref="K6" r:id="rId51" xr:uid="{717B9E3A-EEC2-462D-AD53-86090F0A9B21}"/>
+    <hyperlink ref="K2" r:id="rId52" xr:uid="{D92FA87C-4F1C-40B4-9934-F187775FE3B0}"/>
+    <hyperlink ref="D2" r:id="rId53" xr:uid="{BAF641AD-5FD0-4B5D-BA6F-8D431F00477C}"/>
+    <hyperlink ref="D26" r:id="rId54" xr:uid="{DCC293DA-E3B3-4527-8D1B-7FA86AB32E7F}"/>
+    <hyperlink ref="D112" r:id="rId55" xr:uid="{28672ACB-8E5D-492F-AAD2-62850BDEA2E6}"/>
+    <hyperlink ref="D105" r:id="rId56" xr:uid="{8AAD2884-4F7C-49E6-B9E1-2C545F86FF9F}"/>
+    <hyperlink ref="K105" r:id="rId57" xr:uid="{8C5AACB8-230C-4BEA-AE4A-6A178A7CDA54}"/>
+    <hyperlink ref="D75" r:id="rId58" xr:uid="{368B0B5F-8FE2-4A3A-A665-0205E0F2F6B3}"/>
+    <hyperlink ref="K75" r:id="rId59" xr:uid="{353A2A34-EB96-4889-BD0F-C78709795E70}"/>
+    <hyperlink ref="D25" r:id="rId60" xr:uid="{1C167CE0-422A-48E4-8559-20F892F3D44F}"/>
+    <hyperlink ref="K25" r:id="rId61" xr:uid="{9D915933-B409-4E0A-96C0-8905A01FC9A3}"/>
+    <hyperlink ref="K27" r:id="rId62" xr:uid="{F40B3EB9-28D3-462A-A6AD-124711086105}"/>
+    <hyperlink ref="D27" r:id="rId63" xr:uid="{77EACF03-E9F1-4F5D-B579-63ECAD2FC965}"/>
+    <hyperlink ref="D50" r:id="rId64" xr:uid="{5375796D-8E44-408C-9842-5AAAACF5F1AB}"/>
+    <hyperlink ref="D79" r:id="rId65" xr:uid="{9FD5ED1E-C3ED-43F0-BB37-7E6BE9CEFB3C}"/>
+    <hyperlink ref="D4" r:id="rId66" xr:uid="{A906FCFD-5770-49AD-9596-9FBACE70C8D6}"/>
+    <hyperlink ref="K4" r:id="rId67" xr:uid="{FD493CD9-AE7A-4BC7-94D3-E4F8B9E97DDF}"/>
+    <hyperlink ref="D101" r:id="rId68" xr:uid="{CD039236-7474-48D1-8A35-B7E63935754A}"/>
+    <hyperlink ref="D86" r:id="rId69" xr:uid="{48DEDEB4-4A9A-418E-A077-89F00BCDAFD5}"/>
+    <hyperlink ref="K33" r:id="rId70" xr:uid="{BB0C9E36-6B2C-4DB8-AF04-34078BDAEE2D}"/>
+    <hyperlink ref="D33" r:id="rId71" xr:uid="{49D95777-342F-4C3E-BD28-134E9B566BA0}"/>
+    <hyperlink ref="K110" r:id="rId72" xr:uid="{BDC429AF-206A-4FA2-A358-2B4FBE814885}"/>
+    <hyperlink ref="D110" r:id="rId73" xr:uid="{5BFF238F-B28A-49BC-A229-A034ABBBD811}"/>
+    <hyperlink ref="K78" r:id="rId74" xr:uid="{B6D7BCBF-7CAE-4682-9E50-BDF5A146D492}"/>
+    <hyperlink ref="D78" r:id="rId75" xr:uid="{EA8A8DDC-954C-4D1E-80BF-AE02BB498E47}"/>
+    <hyperlink ref="D66" r:id="rId76" xr:uid="{F6180320-49F2-40F7-9C2E-7BE349664E3B}"/>
+    <hyperlink ref="K66" r:id="rId77" xr:uid="{89528CC6-81B0-4408-B422-957846C4341E}"/>
+    <hyperlink ref="E33" r:id="rId78" xr:uid="{6273C637-86C3-4BD0-98B5-5FAE269D01AF}"/>
+    <hyperlink ref="E86" r:id="rId79" xr:uid="{7D39BF67-ADC0-4230-8DE1-F48206B13264}"/>
+    <hyperlink ref="E101" r:id="rId80" xr:uid="{9E639607-F203-4284-88A0-95301B397127}"/>
+    <hyperlink ref="D111" r:id="rId81" xr:uid="{414CA4EA-A4A4-41C1-BE24-FA919CC0CDD1}"/>
+    <hyperlink ref="E2" r:id="rId82" xr:uid="{11D50E87-5089-4301-8D5D-8471F3DADA3A}"/>
+    <hyperlink ref="E4" r:id="rId83" xr:uid="{3DFF3011-DFC9-45AC-AEAC-659F2C2802CD}"/>
+    <hyperlink ref="E5" r:id="rId84" xr:uid="{A5CDA79B-9AA2-4FA7-AA99-A1D0ED1F483F}"/>
+    <hyperlink ref="E6" r:id="rId85" xr:uid="{BC9CA8F7-FE51-4D98-A0CF-F2D186702438}"/>
+    <hyperlink ref="E9" r:id="rId86" xr:uid="{00201E7E-3A43-46EF-8B0C-A417318A16D3}"/>
+    <hyperlink ref="E12" r:id="rId87" xr:uid="{1C38CDD7-A8D3-4434-A6EF-609AFE88AD65}"/>
+    <hyperlink ref="E20" r:id="rId88" xr:uid="{48C4FD59-3A9F-4B0F-B272-65A2019B168B}"/>
+    <hyperlink ref="E27" r:id="rId89" xr:uid="{1D3A21F0-407B-43DB-ABC9-54112F273BBF}"/>
+    <hyperlink ref="E24" r:id="rId90" xr:uid="{DAC2CE77-D460-4760-8316-24870A3B3FB4}"/>
+    <hyperlink ref="E25" r:id="rId91" xr:uid="{CC10D741-EA67-4C15-9AF3-EAC9168A70FD}"/>
+    <hyperlink ref="E26" r:id="rId92" xr:uid="{AF75070A-AAC6-49BE-BD11-DF7E9EA97BFD}"/>
+    <hyperlink ref="E29" r:id="rId93" xr:uid="{23A9271B-49F4-41AF-8F8B-E85AE2AB5EB4}"/>
+    <hyperlink ref="E30" r:id="rId94" xr:uid="{42592E24-C4EC-4551-873E-4513BE53000D}"/>
+    <hyperlink ref="E40" r:id="rId95" xr:uid="{7F247D81-7582-4A03-89AF-14CD68518A92}"/>
+    <hyperlink ref="D40" r:id="rId96" xr:uid="{046F1B4E-F602-4D5D-9EB9-310712CFD6E8}"/>
+    <hyperlink ref="E43" r:id="rId97" xr:uid="{4C7C5189-3A0B-4FA4-8F37-D11822DF450C}"/>
+    <hyperlink ref="E50" r:id="rId98" xr:uid="{0E97C03D-07BD-4677-AA64-18E486F1801B}"/>
+    <hyperlink ref="E56" r:id="rId99" xr:uid="{C17D6573-B366-4B6E-ACF0-ACFF018D8FCD}"/>
+    <hyperlink ref="E51" r:id="rId100" xr:uid="{0545D318-C1D1-4864-B37A-DC56A1F15717}"/>
+    <hyperlink ref="E59" r:id="rId101" xr:uid="{00FE116A-21D1-4330-81CB-E296DD4D07A0}"/>
+    <hyperlink ref="E64" r:id="rId102" xr:uid="{B2F30322-D6E3-45A3-BB21-E03A255ADF26}"/>
+    <hyperlink ref="E66" r:id="rId103" xr:uid="{23BAC5C9-A05F-4CD5-B8F5-6DD80F6B3DB8}"/>
+    <hyperlink ref="E75" r:id="rId104" xr:uid="{E4EB295A-77FF-489A-82F6-E64DA9DFDD11}"/>
+    <hyperlink ref="E78" r:id="rId105" location="molecular" display="https://www.luminexcorp.com/covid19-testing-solutions/ - molecular" xr:uid="{88DDDEDA-9290-4B4F-A364-F7BA65738226}"/>
+    <hyperlink ref="E79" r:id="rId106" location="molecular" display="https://www.luminexcorp.com/covid19-testing-solutions/ - molecular" xr:uid="{A6029CB3-5A5A-4EFF-B921-19D728E7143D}"/>
+    <hyperlink ref="E80" r:id="rId107" xr:uid="{54233BAD-9EFA-47D3-8A73-F2670598E8B6}"/>
+    <hyperlink ref="E83" r:id="rId108" xr:uid="{2D8850E2-F499-49CD-A2F0-4CEBB78716BB}"/>
+    <hyperlink ref="E89" r:id="rId109" xr:uid="{518B8018-3D0F-477C-B8B5-74703B1B7F20}"/>
+    <hyperlink ref="E91" r:id="rId110" location="row_md45" display="http://www.osanghc.com/en/products_en/molecular-diagnosis/ - row_md45" xr:uid="{CAE0480D-1016-42FC-A55E-F799063DFEB3}"/>
+    <hyperlink ref="E94" r:id="rId111" xr:uid="{71A9CFAA-B20C-4E9C-823D-827BAF0D6A8D}"/>
+    <hyperlink ref="E98" r:id="rId112" xr:uid="{572C4A98-4855-4007-AA8A-B73B1C93C787}"/>
+    <hyperlink ref="E104" r:id="rId113" xr:uid="{62DC026D-B96F-411B-8B42-41F9359409EC}"/>
+    <hyperlink ref="E105" r:id="rId114" xr:uid="{469E78F8-09BF-4857-93C9-514B446C9562}"/>
+    <hyperlink ref="E106" r:id="rId115" xr:uid="{A140188C-2225-49B5-AAC2-48600B66B9E1}"/>
+    <hyperlink ref="E109" r:id="rId116" xr:uid="{6FE5BDE0-CFA3-4BD3-8F62-E26D0D39EC6A}"/>
+    <hyperlink ref="E110" r:id="rId117" xr:uid="{E86B3471-E5F4-4819-9419-9E5A98A3148F}"/>
+    <hyperlink ref="E111" r:id="rId118" xr:uid="{CD81C3E1-E280-4158-8583-A19510FB4E30}"/>
+    <hyperlink ref="D113" r:id="rId119" xr:uid="{3BA3DFDA-51B6-48F1-A5E8-A3575F53014F}"/>
+    <hyperlink ref="K113" r:id="rId120" xr:uid="{387CF524-8444-4762-B502-E1AC9F1C624D}"/>
+    <hyperlink ref="E113" r:id="rId121" xr:uid="{348F5532-F1A9-45A4-915B-4EC2084A404E}"/>
+    <hyperlink ref="E112" r:id="rId122" xr:uid="{23F7ACD5-A1FE-46B5-B79F-1240924C2FBC}"/>
+    <hyperlink ref="E115" r:id="rId123" xr:uid="{818CF2E6-2FB5-4300-9B99-BF94A47885E9}"/>
+    <hyperlink ref="E123" r:id="rId124" xr:uid="{940AE1C1-C7F0-4AD8-BC8B-E57E2A1973B8}"/>
+    <hyperlink ref="D126" r:id="rId125" xr:uid="{45CC9C24-57A2-499E-9DC7-BEE7B913C6DE}"/>
+    <hyperlink ref="E136" r:id="rId126" xr:uid="{AF6BB7E1-068D-495D-BD2C-34C9B3DF05A8}"/>
+    <hyperlink ref="D54" r:id="rId127" xr:uid="{909A594C-3B88-444C-8E25-78AF6B4303AF}"/>
+    <hyperlink ref="E54" r:id="rId128" xr:uid="{F968FF17-5FDD-465D-A1F8-ABED41A42F74}"/>
+    <hyperlink ref="D63" r:id="rId129" xr:uid="{CC55CFAD-13FC-4E28-8164-6954AF8C4EB4}"/>
+    <hyperlink ref="K63" r:id="rId130" xr:uid="{5C7C44DB-C7DC-4C6F-9410-0F7E8D9AD28D}"/>
+    <hyperlink ref="D103" r:id="rId131" xr:uid="{A2C2E428-44B6-4CEF-AC93-110E85652D46}"/>
+    <hyperlink ref="E103" r:id="rId132" xr:uid="{DC8E507C-1E8F-4F9C-901A-AD1A9E77DB73}"/>
+    <hyperlink ref="K104" r:id="rId133" display="mailto:customerservice@quidel.com" xr:uid="{06ECD120-CD18-4016-9B8B-0C0146B98988}"/>
+    <hyperlink ref="K103" r:id="rId134" display="mailto:customerservice@quidel.com" xr:uid="{3AE3C53A-CA87-4391-BF95-E9FD94819825}"/>
+    <hyperlink ref="D23" r:id="rId135" xr:uid="{26D70AED-8CBC-4F7C-9119-7E07585D6874}"/>
+    <hyperlink ref="K23" r:id="rId136" xr:uid="{B4ACF05B-F263-4665-8C6B-EF9C294FF009}"/>
+    <hyperlink ref="E23" r:id="rId137" xr:uid="{ABD4CD6D-F4B6-4F02-A6DB-B214ED3C498F}"/>
+    <hyperlink ref="D116" r:id="rId138" xr:uid="{EF747904-0800-4911-8CF1-117EED1BE25A}"/>
+    <hyperlink ref="D39" r:id="rId139" xr:uid="{EBF7609A-AE85-469D-A94D-D481AD5BF59C}"/>
+    <hyperlink ref="D55" r:id="rId140" xr:uid="{C420AFB4-D7B6-4609-852E-B2A2BEE19F92}"/>
+    <hyperlink ref="D45" r:id="rId141" xr:uid="{1958D791-0FF9-4B39-812F-4A78CB69660D}"/>
+    <hyperlink ref="E45" r:id="rId142" xr:uid="{930BC8B4-A96A-4870-AF36-F1B8BC7BAC51}"/>
+    <hyperlink ref="D31" r:id="rId143" xr:uid="{11016015-9FC2-4DC1-8C0A-D4880B3FE56E}"/>
+    <hyperlink ref="E31" r:id="rId144" location="/sars-cov-2" xr:uid="{0060F72C-BD16-48E7-A87D-0B5483F7BE49}"/>
+    <hyperlink ref="K65" r:id="rId145" xr:uid="{D0AF71BD-602E-4358-B41B-703ADD43D8A0}"/>
+    <hyperlink ref="K38" r:id="rId146" xr:uid="{BAACB403-15E2-4809-AC0E-B4A37C315E32}"/>
+    <hyperlink ref="K107" r:id="rId147" xr:uid="{99D59686-FADA-44AA-86E0-1B5EB6B48EA2}"/>
+    <hyperlink ref="D11" r:id="rId148" xr:uid="{3C6B39C0-9DD6-49E8-8B0C-DB138D3434D6}"/>
+    <hyperlink ref="D3" r:id="rId149" xr:uid="{AD6779CD-A97D-471D-982F-3AB91B37D97C}"/>
+    <hyperlink ref="D18" r:id="rId150" xr:uid="{30FB615B-10CD-4934-88C2-F019375D466C}"/>
+    <hyperlink ref="E19" r:id="rId151" xr:uid="{5B269CC6-2C10-4ECB-B9E1-C96BDA317C9C}"/>
+    <hyperlink ref="E18" r:id="rId152" xr:uid="{8458F665-16D2-4A8C-8415-CF786FE08BA5}"/>
+    <hyperlink ref="D19" r:id="rId153" xr:uid="{A90C77DF-7F5F-4E74-8EC2-5171652D21DD}"/>
+    <hyperlink ref="E58" r:id="rId154" xr:uid="{9AF25CFF-6D72-4F66-B635-6679582F4DFD}"/>
+    <hyperlink ref="K58" r:id="rId155" xr:uid="{89F82CAB-D7CB-44A0-B5DD-E511E2E350B5}"/>
+    <hyperlink ref="D133" r:id="rId156" xr:uid="{7ACCBC6F-2F2A-4285-8BB2-FA8544F9A9DC}"/>
+    <hyperlink ref="K133" r:id="rId157" xr:uid="{990C7A34-BA6E-4A7A-977E-4DBCCB22B447}"/>
+    <hyperlink ref="D53" r:id="rId158" xr:uid="{4684665B-ABF3-4818-93CC-8C88554136E7}"/>
+    <hyperlink ref="E53" r:id="rId159" xr:uid="{35601B06-9E07-40A3-9CE8-24AB63B35548}"/>
+    <hyperlink ref="E11" r:id="rId160" xr:uid="{03F8FD99-3997-46D6-A474-607C12B08087}"/>
+    <hyperlink ref="D12" r:id="rId161" xr:uid="{5BB15E92-1230-4FC9-93DB-EA4CC73A5D3B}"/>
+    <hyperlink ref="D16" r:id="rId162" xr:uid="{4F32356D-E61F-4CD5-873F-94FF5D9B31D0}"/>
+    <hyperlink ref="D14" r:id="rId163" xr:uid="{517F8ED2-991D-424B-A08B-C24E501602A9}"/>
+    <hyperlink ref="E14" r:id="rId164" xr:uid="{04B36A99-8DA0-4E30-A297-308651842F27}"/>
+    <hyperlink ref="D52" r:id="rId165" xr:uid="{75A931D3-AB2B-4758-B5F5-3A8D3B2F9799}"/>
+    <hyperlink ref="E52" r:id="rId166" xr:uid="{7FE1C029-3EFA-4A79-8553-E91726DB3F97}"/>
+    <hyperlink ref="D92" r:id="rId167" xr:uid="{9A6D952D-0145-417A-8FBC-59CDCC7B50A7}"/>
+    <hyperlink ref="E60" r:id="rId168" xr:uid="{C3448CF6-C805-40B9-9EA3-48B406289486}"/>
+    <hyperlink ref="D95" r:id="rId169" xr:uid="{46EA8353-2F88-4C1D-A173-20F5A85138A8}"/>
+    <hyperlink ref="E95" r:id="rId170" xr:uid="{BCC08A5A-F54A-40FB-B88C-35A995D5B673}"/>
+    <hyperlink ref="D124" r:id="rId171" xr:uid="{E11D0195-8D1C-4864-90F3-6FD08A4A8F4F}"/>
+    <hyperlink ref="E87" r:id="rId172" xr:uid="{77B0B535-EB1E-4F4B-8DAC-381361E6212C}"/>
+    <hyperlink ref="D71" r:id="rId173" xr:uid="{91C01A45-57BF-4651-9E8E-D868BC8A7AB2}"/>
+    <hyperlink ref="E71" r:id="rId174" xr:uid="{DCCDDA1D-6518-4321-9C68-66B4EDD3CAE6}"/>
+    <hyperlink ref="D62" r:id="rId175" xr:uid="{0B275D64-41B7-481D-B693-87FDBBD2DFA4}"/>
+    <hyperlink ref="E62" r:id="rId176" xr:uid="{BFDA52CD-0461-4686-AE4A-265D106085EF}"/>
+    <hyperlink ref="D128" r:id="rId177" xr:uid="{EE8E59CD-31B4-4FCD-B9C7-F9A09F8CF5C2}"/>
+    <hyperlink ref="E108" r:id="rId178" xr:uid="{BD2CD9D8-18A1-4743-956C-A0FF98C1277C}"/>
+    <hyperlink ref="D76" r:id="rId179" xr:uid="{D29D0B9F-38D7-4AEF-97F0-AE6764E0D1B3}"/>
+    <hyperlink ref="E76" r:id="rId180" xr:uid="{4BEDC045-9DB7-4D00-BC74-7DAF0AD06745}"/>
+    <hyperlink ref="D130" r:id="rId181" xr:uid="{DC569DB2-C90E-4116-B724-946D7F15626E}"/>
+    <hyperlink ref="E130" r:id="rId182" xr:uid="{25D9D611-2A52-429F-AB98-5A7410D41F31}"/>
+    <hyperlink ref="D32" r:id="rId183" xr:uid="{69AAD0B6-5D83-40D5-B71E-317DE5E38236}"/>
+    <hyperlink ref="E32" r:id="rId184" xr:uid="{3626FB8B-F754-4755-A28E-0F08B03448FD}"/>
+    <hyperlink ref="D42" r:id="rId185" xr:uid="{8013B838-C99F-4831-B606-8A3DAEF18BFA}"/>
+    <hyperlink ref="E42" r:id="rId186" xr:uid="{AA931EEA-1132-4D78-90E2-BD67244DC6E5}"/>
+    <hyperlink ref="D46" r:id="rId187" xr:uid="{59293959-1A2A-4DE4-A44B-F1C2D0CE12B3}"/>
+    <hyperlink ref="E46" r:id="rId188" xr:uid="{E08ADD81-25D5-4856-9EC9-30042CD2D989}"/>
+    <hyperlink ref="D135" r:id="rId189" xr:uid="{4634C4F7-9F21-46DC-9915-04317F6515EA}"/>
+    <hyperlink ref="E135" r:id="rId190" xr:uid="{D1214889-1C8F-4B01-8728-F861C51B1B99}"/>
+    <hyperlink ref="D67" r:id="rId191" xr:uid="{B5B97A4E-2CF2-4A0A-845D-6B564F61CC55}"/>
+    <hyperlink ref="D61" r:id="rId192" xr:uid="{5B67F8E2-F452-4C2E-93F7-F5B91C9F5DF1}"/>
+    <hyperlink ref="D41" r:id="rId193" xr:uid="{9D3304C8-F768-44D1-B56F-251DBB6B1424}"/>
+    <hyperlink ref="E67" r:id="rId194" xr:uid="{801E0DC9-2779-40A6-B844-6D6C19A8130B}"/>
+    <hyperlink ref="D36" r:id="rId195" xr:uid="{8CA04433-A3FF-48C1-AE44-7E46F003B181}"/>
+    <hyperlink ref="E41" r:id="rId196" xr:uid="{22ECFB7E-508E-4B91-9EAD-608CCAF63BA7}"/>
+    <hyperlink ref="D82" r:id="rId197" xr:uid="{8FDAA67A-DB24-43DB-A24C-BE13E33B7CC5}"/>
+    <hyperlink ref="D81" r:id="rId198" xr:uid="{6313B833-AD63-4A07-861C-BA0081116216}"/>
+    <hyperlink ref="D134" r:id="rId199" xr:uid="{844DF176-C5A0-441F-97C2-50D706449936}"/>
+    <hyperlink ref="E134" r:id="rId200" xr:uid="{E81FCF58-151C-4E2C-8047-BA395E779C44}"/>
+    <hyperlink ref="E82" r:id="rId201" xr:uid="{0F47A7CD-7740-4517-8AE4-D4C97E4D81E6}"/>
+    <hyperlink ref="D85" r:id="rId202" xr:uid="{E9144731-1357-4AB6-B052-B0E693EBD9C0}"/>
+    <hyperlink ref="D44" r:id="rId203" xr:uid="{48A378FB-5F99-4BAB-B54A-0FB88532CC10}"/>
+    <hyperlink ref="D13" r:id="rId204" xr:uid="{965DC820-7209-49E7-A6C5-BB6C63596A6D}"/>
+    <hyperlink ref="E13" r:id="rId205" xr:uid="{701EE930-80A1-438F-940B-D9D300A12CA9}"/>
+    <hyperlink ref="D132" r:id="rId206" xr:uid="{DECCBD93-2836-4E2C-9A27-0529ABCE39D0}"/>
+    <hyperlink ref="D60" r:id="rId207" xr:uid="{191E77F2-5361-45FA-A620-4F97177211CE}"/>
+    <hyperlink ref="D73" r:id="rId208" xr:uid="{227111ED-C5D2-4FED-ABE3-37C14D84F91D}"/>
+    <hyperlink ref="D87" r:id="rId209" xr:uid="{56800ADA-3115-4031-992F-0D38694FBF26}"/>
+    <hyperlink ref="D122" r:id="rId210" xr:uid="{99FF0F84-DA52-448F-B14B-CADD948BA005}"/>
+    <hyperlink ref="D108" r:id="rId211" xr:uid="{B6F316BD-DB84-4E48-9B0E-D81C8A98102A}"/>
+    <hyperlink ref="D37" r:id="rId212" xr:uid="{05A4083F-E4FE-4AFC-B2EB-B7BFA5020429}"/>
+    <hyperlink ref="E44" r:id="rId213" xr:uid="{FAFEB691-69EE-4C6F-924F-D6F9D5BD66AA}"/>
+    <hyperlink ref="D102" r:id="rId214" xr:uid="{5F0EBE0B-3E22-4C0A-99DD-EBC4CB929594}"/>
+    <hyperlink ref="D47" r:id="rId215" xr:uid="{61917CFB-49B0-4433-80DD-4B81F2593F3B}"/>
+    <hyperlink ref="E102" r:id="rId216" xr:uid="{205E5169-3800-40FD-BB6B-CA28DBACAB94}"/>
+    <hyperlink ref="D117" r:id="rId217" xr:uid="{5242CCF6-973C-4AA6-A9C3-F762CACAAC99}"/>
+    <hyperlink ref="E47" r:id="rId218" xr:uid="{81DBF9C6-A69B-413A-9DE3-360D037EC1D9}"/>
+    <hyperlink ref="E117" r:id="rId219" xr:uid="{742DB83C-C95B-46C5-9B4A-0B68E634E439}"/>
+    <hyperlink ref="D8" r:id="rId220" xr:uid="{9733C5FE-74DC-4555-9545-76BCAD0B0DF7}"/>
+    <hyperlink ref="D49" r:id="rId221" xr:uid="{53A21E6F-8FC2-402F-A3C8-FB41079D9195}"/>
+    <hyperlink ref="D17" r:id="rId222" xr:uid="{62852EBF-C670-4DEE-9D6F-432BCF70A57F}"/>
+    <hyperlink ref="E17" r:id="rId223" xr:uid="{98607AB7-365D-4956-AC48-8D9338C2D215}"/>
+    <hyperlink ref="E8" r:id="rId224" xr:uid="{87D34843-D247-4216-BF4A-027D57C97F9C}"/>
+    <hyperlink ref="D127" r:id="rId225" xr:uid="{B6AA710C-5B27-47B7-926E-3CA7BFECB832}"/>
+    <hyperlink ref="E132" r:id="rId226" xr:uid="{FDE150AA-7C8F-40AE-A163-3BE94CB42DF5}"/>
+    <hyperlink ref="D34" r:id="rId227" xr:uid="{5A6C6110-6F71-491E-A0B1-4052CA3AB1A2}"/>
+    <hyperlink ref="E34" r:id="rId228" xr:uid="{32FBF1F3-6694-486F-9EDB-E9B98B0D2CF7}"/>
+    <hyperlink ref="E127" r:id="rId229" xr:uid="{E8636BAB-E260-4B73-B834-B52C6A7C0CF7}"/>
+    <hyperlink ref="D119" r:id="rId230" xr:uid="{C3849A61-3353-4592-8936-74CC85AE5759}"/>
+    <hyperlink ref="D84" r:id="rId231" xr:uid="{528181A2-90FC-4901-9651-4F0CECA25A8B}"/>
+    <hyperlink ref="D88" r:id="rId232" xr:uid="{144EBC26-9C07-4229-B27E-8B58BEDC9555}"/>
+    <hyperlink ref="E84" r:id="rId233" xr:uid="{5E86AE4B-4DDB-480E-8D90-F07D540DF945}"/>
+    <hyperlink ref="E88" r:id="rId234" location="test" xr:uid="{05A66E55-70B5-4B53-AE86-4E95068C99E8}"/>
+    <hyperlink ref="D21" r:id="rId235" xr:uid="{1FD71F1A-8589-446B-AC1C-893C84E86596}"/>
+    <hyperlink ref="E119" r:id="rId236" xr:uid="{71A02C06-D249-4044-B08F-4A7C8DDE80BA}"/>
+    <hyperlink ref="D28" r:id="rId237" xr:uid="{802E2073-9CE0-4DF9-992D-9584A7CA6061}"/>
+    <hyperlink ref="D129" r:id="rId238" xr:uid="{50900A69-D93C-4F72-9DF4-D7203EA982E0}"/>
+    <hyperlink ref="D10" r:id="rId239" xr:uid="{24A54D8F-260E-4889-8F97-E4793E0C8795}"/>
+    <hyperlink ref="D35" r:id="rId240" xr:uid="{3E9ED440-07E0-4C5C-845B-F19CBC5328CF}"/>
+    <hyperlink ref="E129" r:id="rId241" xr:uid="{1BAE074C-3F8C-404C-A01D-C9F11ED05E07}"/>
+    <hyperlink ref="D118" r:id="rId242" xr:uid="{E82B35EF-9F7F-456E-A2F4-A0C0BE6F963E}"/>
+    <hyperlink ref="E118" r:id="rId243" xr:uid="{59AD183A-B119-42F1-B2FE-B386233F039A}"/>
+    <hyperlink ref="D90" r:id="rId244" xr:uid="{5849C207-B068-4B77-B490-F5C92EE84D00}"/>
+    <hyperlink ref="E36" r:id="rId245" xr:uid="{C358D717-5A2F-4627-AF3C-346E268FB209}"/>
+    <hyperlink ref="E90" r:id="rId246" xr:uid="{D85CC028-D0EC-40D2-B900-90A12EB12711}"/>
+    <hyperlink ref="D131" r:id="rId247" xr:uid="{22195A5B-DB61-49D9-99EA-C98B9E7CF9FE}"/>
+    <hyperlink ref="D93" r:id="rId248" xr:uid="{2EDB8CB1-ED5C-4452-BA61-DF56DF89E423}"/>
+    <hyperlink ref="E49" r:id="rId249" location="5d6abca8-e707-4841-ba9a-ce17e3830960" xr:uid="{811A624A-C8F3-42A3-AF55-79302C76CD65}"/>
+    <hyperlink ref="E93" r:id="rId250" xr:uid="{6C847D72-DF97-4578-B36C-53C896785859}"/>
+    <hyperlink ref="D70" r:id="rId251" xr:uid="{5A614384-4D0A-419A-BD63-2094AFE88011}"/>
+    <hyperlink ref="E70" r:id="rId252" xr:uid="{59C33A7C-EC2B-4502-A686-62D5EAFAD7F6}"/>
+    <hyperlink ref="D22" r:id="rId253" xr:uid="{253660D6-AC2C-41BA-B339-81CA90B99A6B}"/>
+    <hyperlink ref="D48" r:id="rId254" xr:uid="{BB80F362-29F7-4052-8DEC-96348C7FBFE3}"/>
+    <hyperlink ref="E48" r:id="rId255" xr:uid="{4AC0E3E8-4FAB-48C9-A15A-66EA8B2DE864}"/>
+    <hyperlink ref="E37" r:id="rId256" xr:uid="{40911FE9-5E76-4FCA-A249-3012BE2AA6F0}"/>
+    <hyperlink ref="K16" r:id="rId257" xr:uid="{7C24C4E5-809D-40BE-8C02-3EE68511934B}"/>
+    <hyperlink ref="K60" r:id="rId258" xr:uid="{F36CF339-5098-43A5-B6D9-08D62949EC80}"/>
+    <hyperlink ref="K124" r:id="rId259" xr:uid="{F830101C-62C0-4777-860F-C568B6C524E3}"/>
+    <hyperlink ref="K62" r:id="rId260" xr:uid="{56A1DE8A-AD01-480C-BA5A-2295A2FBA789}"/>
+    <hyperlink ref="K71" r:id="rId261" xr:uid="{4B03B362-10BC-4C3A-98CE-CA2627DB323E}"/>
+    <hyperlink ref="K108" r:id="rId262" xr:uid="{4073F0A4-DD8D-48BE-9D3D-937BF7679EE3}"/>
+    <hyperlink ref="K99" r:id="rId263" xr:uid="{DBC71AB2-FD09-46F9-818C-17A0A375DD60}"/>
+    <hyperlink ref="K92" r:id="rId264" xr:uid="{38E5A956-FA88-4055-804B-A1C8FE273E99}"/>
+    <hyperlink ref="K52" r:id="rId265" xr:uid="{E2FD488F-3278-4844-AEFD-AAC1B8434C8F}"/>
+    <hyperlink ref="K14" r:id="rId266" xr:uid="{A603EFC9-E8C5-46B4-9F09-F1EB82091E53}"/>
+    <hyperlink ref="K74" r:id="rId267" xr:uid="{00510275-E1E1-4D46-B909-A5E69C8B597F}"/>
+    <hyperlink ref="K87" r:id="rId268" xr:uid="{84564DE7-A667-4A6F-9287-959B8F472C74}"/>
+    <hyperlink ref="K76" r:id="rId269" xr:uid="{65FC2DA2-D60A-4013-97D7-E0D46222A1DA}"/>
+    <hyperlink ref="K32" r:id="rId270" xr:uid="{AEB12390-A7DC-4C21-B501-966DE18BB58A}"/>
+    <hyperlink ref="K130" r:id="rId271" xr:uid="{020017E6-ADEC-414E-A480-512B9B49D240}"/>
+    <hyperlink ref="K42" r:id="rId272" xr:uid="{65BE5BD9-20E8-4B21-9F4B-0E028D04A99B}"/>
+    <hyperlink ref="K46" r:id="rId273" xr:uid="{B90ADB76-BC2B-43B0-B26C-1E9BFEEB28DF}"/>
+    <hyperlink ref="K67" r:id="rId274" xr:uid="{A785F6DA-9760-494E-9296-8A385D8D96FC}"/>
+    <hyperlink ref="K61" r:id="rId275" xr:uid="{C4303BA6-01A8-4C39-A65C-A013820F9CF0}"/>
+    <hyperlink ref="K134" r:id="rId276" xr:uid="{98017A5B-9758-4434-AC27-E83FA92406F7}"/>
+    <hyperlink ref="K82" r:id="rId277" xr:uid="{C7A108F4-1EBC-4240-84D6-FD19C4DB22C2}"/>
+    <hyperlink ref="K81" r:id="rId278" xr:uid="{669C6F04-8F75-4E22-A544-451E7C2D9ABF}"/>
+    <hyperlink ref="K44" r:id="rId279" xr:uid="{E80A1CDF-4E7E-4EBA-B50D-34689C864888}"/>
+    <hyperlink ref="K37" r:id="rId280" xr:uid="{2776AEBE-350E-46AD-8178-16B509E06627}"/>
+    <hyperlink ref="K102" r:id="rId281" xr:uid="{529548A5-FEC5-4901-93D2-E87082B6E1BB}"/>
+    <hyperlink ref="K117" r:id="rId282" xr:uid="{BDCF6E70-11D0-4273-8C98-F43BBEDD58AE}"/>
+    <hyperlink ref="K8" r:id="rId283" xr:uid="{380EFB5A-9740-4523-B949-B4498A4E7CCF}"/>
+    <hyperlink ref="K132" r:id="rId284" xr:uid="{0917E6ED-2FEF-417D-9B2D-DB412EF1853C}"/>
+    <hyperlink ref="K127" r:id="rId285" xr:uid="{4C48073F-DD17-41B7-B96F-9B1E14260E13}"/>
+    <hyperlink ref="K34" r:id="rId286" xr:uid="{EBA720C6-3F40-4151-BDF5-6679493416C3}"/>
+    <hyperlink ref="K84" r:id="rId287" xr:uid="{055F4D9B-8E0D-44F7-B07B-DDDB8B0B8363}"/>
+    <hyperlink ref="K21" r:id="rId288" xr:uid="{0C9D7A16-E1A1-4809-A3C5-FA451DFB60D6}"/>
+    <hyperlink ref="K129" r:id="rId289" xr:uid="{C47270AE-E28D-496A-9B88-0C35266ECF95}"/>
+    <hyperlink ref="K35" r:id="rId290" xr:uid="{E0FB1056-30FF-43E3-97E2-F9E52D7EA497}"/>
+    <hyperlink ref="K118" r:id="rId291" xr:uid="{C55650AE-DF11-45C6-AF19-0DCC68694D95}"/>
+    <hyperlink ref="K90" r:id="rId292" xr:uid="{5170FA32-24D2-40B5-A6F8-0C5E90DFFAB9}"/>
+    <hyperlink ref="K70" r:id="rId293" xr:uid="{0625A3E3-40E9-4832-829A-76DECD16F775}"/>
+    <hyperlink ref="K131" r:id="rId294" xr:uid="{6454563D-3DB9-46D7-8A10-E323AF5DA848}"/>
+    <hyperlink ref="K22" r:id="rId295" xr:uid="{9A393BA6-954D-4142-9948-4641E714C9A1}"/>
+    <hyperlink ref="K68" r:id="rId296" xr:uid="{9C283404-9C2C-4123-ADBA-5FC582540829}"/>
+    <hyperlink ref="K88" r:id="rId297" xr:uid="{49BB6BCB-EC73-4757-8984-2902EF1E995D}"/>
+    <hyperlink ref="K106" r:id="rId298" xr:uid="{E2F96A6A-91CD-4A60-A437-FCABE40B8030}"/>
+    <hyperlink ref="D69" r:id="rId299" xr:uid="{10B0096B-536D-4391-81E5-CBD2BF44B4FB}"/>
+    <hyperlink ref="E69" r:id="rId300" xr:uid="{FC221B13-E40C-4C1A-A688-B29E3F7DA421}"/>
+    <hyperlink ref="K69" r:id="rId301" xr:uid="{F8485640-4676-432A-8241-93480B6B06BB}"/>
+    <hyperlink ref="D97" r:id="rId302" xr:uid="{CE65D092-02EC-466D-A619-4CBB0C7CF12B}"/>
+    <hyperlink ref="K97" r:id="rId303" xr:uid="{C4808187-40A0-40E6-B53E-B7575B15FC0F}"/>
+    <hyperlink ref="E97" r:id="rId304" xr:uid="{66FCA52C-8EEF-44D6-9A81-B59D479B61B4}"/>
+    <hyperlink ref="D96" r:id="rId305" xr:uid="{98BCBE81-22D5-41D8-A500-1C5B67A324C5}"/>
+    <hyperlink ref="E96" r:id="rId306" xr:uid="{816A449A-57DC-4371-9737-04909F3450B1}"/>
+    <hyperlink ref="K96" r:id="rId307" xr:uid="{C8B1ACB4-BC89-4307-8EEE-9EFDB16414CC}"/>
+    <hyperlink ref="D125" r:id="rId308" xr:uid="{38A8B725-E48F-4F0C-B148-E61E6EE6E03F}"/>
+    <hyperlink ref="E7" r:id="rId309" xr:uid="{40EB132C-E3A0-4CC9-A14F-F0D84422D4D8}"/>
+    <hyperlink ref="K137" r:id="rId310" xr:uid="{D6BE54A0-AFA3-47F4-B2F3-8E84BF2858D9}"/>
+    <hyperlink ref="D138" r:id="rId311" xr:uid="{23CFD192-423A-4D53-BB56-2B9705BD5661}"/>
+    <hyperlink ref="K138" r:id="rId312" xr:uid="{4D03E7F5-A65E-4EB8-A9E9-DEEA30646C48}"/>
+    <hyperlink ref="K139" r:id="rId313" xr:uid="{CA6F1C47-B045-4CEB-ABD2-1538A2873DAD}"/>
+    <hyperlink ref="D140" r:id="rId314" xr:uid="{6EB27C77-4947-47B0-A2C4-F2013535053A}"/>
+    <hyperlink ref="K140" r:id="rId315" xr:uid="{D3B0834C-FDEE-46B0-A5DD-9C522242602A}"/>
+    <hyperlink ref="D141" r:id="rId316" xr:uid="{DA35FE27-D447-43B9-9D40-546623FF641A}"/>
+    <hyperlink ref="K141" r:id="rId317" xr:uid="{FD98473F-B1BD-4D8E-A193-A571A20E4153}"/>
+    <hyperlink ref="K142" r:id="rId318" xr:uid="{B23FA80C-6545-47C2-8D2C-D4F740765272}"/>
+    <hyperlink ref="D143" r:id="rId319" xr:uid="{19C7F87B-D99F-4050-8C6A-076F19B99476}"/>
+    <hyperlink ref="K143" r:id="rId320" xr:uid="{359D8642-9BE4-4B31-84C6-38618EFF2045}"/>
+    <hyperlink ref="E144" r:id="rId321" location="__79346__item2 " xr:uid="{0FF0DF9E-F3B0-4448-BA48-6C57EF98D4CA}"/>
+    <hyperlink ref="K144" r:id="rId322" xr:uid="{120D5B15-FDAE-4959-837C-CB62B98F8623}"/>
+    <hyperlink ref="K145" r:id="rId323" xr:uid="{5D48D3A7-C56E-45D9-8C6E-4B5F13C801FD}"/>
+    <hyperlink ref="D146" r:id="rId324" xr:uid="{5AD23AE8-5F65-466A-89F1-CF3A047AFA4E}"/>
+    <hyperlink ref="E137" r:id="rId325" xr:uid="{6A49DFC3-0F81-475C-B5B7-2AC9D396A772}"/>
+    <hyperlink ref="D147" r:id="rId326" xr:uid="{11963FDF-0F31-41EC-A599-4634D57B2F93}"/>
+    <hyperlink ref="K147" r:id="rId327" xr:uid="{CEB20F6E-A2B1-451B-986B-C334EA64288B}"/>
+    <hyperlink ref="D148" r:id="rId328" xr:uid="{5CC81F0F-B738-4AE8-8376-6963609151E0}"/>
+    <hyperlink ref="K148" r:id="rId329" xr:uid="{4A4D4B16-DE3C-4FC9-92CF-C4B5B10FB58E}"/>
+    <hyperlink ref="E126" r:id="rId330" xr:uid="{87DCE551-1923-458D-8F75-10DAD6DC448E}"/>
+    <hyperlink ref="E148" r:id="rId331" xr:uid="{6629E6B1-82DB-4C25-A7E9-5C57BD9E0A35}"/>
+    <hyperlink ref="K149" r:id="rId332" xr:uid="{016456AD-E994-4A8A-A172-2D1EB636B7C7}"/>
+    <hyperlink ref="D150" r:id="rId333" xr:uid="{73D237BF-EA6D-4988-9672-3E1CF3E0922B}"/>
+    <hyperlink ref="K150" r:id="rId334" xr:uid="{510D76AA-2FB6-4C35-A02D-14BFA2431EBF}"/>
+    <hyperlink ref="D151" r:id="rId335" xr:uid="{0BF0AA87-BB46-42CC-8691-D9785A8188D9}"/>
+    <hyperlink ref="K151" r:id="rId336" xr:uid="{BD2BB3C0-9510-4B71-82EF-17A47833637A}"/>
+    <hyperlink ref="D152" r:id="rId337" xr:uid="{4949AFB6-4A51-48FE-A44E-33BFBAEE6D23}"/>
+    <hyperlink ref="E151" r:id="rId338" xr:uid="{7F68F9B6-55BA-4307-94B6-5E1364FCAB41}"/>
+    <hyperlink ref="K152" r:id="rId339" xr:uid="{07C62118-80C1-4921-A824-F30753936D66}"/>
+    <hyperlink ref="E152" r:id="rId340" xr:uid="{F54C65D6-1EFF-4E8E-8CD3-6FB90D4527C2}"/>
+    <hyperlink ref="K153" r:id="rId341" xr:uid="{E0BAA7F8-CAF9-48A9-BC07-99FDA4385BFD}"/>
+    <hyperlink ref="K154" r:id="rId342" xr:uid="{745B4CA4-0D4D-4FE9-A51C-99A8C103B322}"/>
+    <hyperlink ref="K155" r:id="rId343" xr:uid="{0BE5CEE9-4629-4392-AF28-90FFC7507051}"/>
+    <hyperlink ref="D156" r:id="rId344" xr:uid="{43C74764-E580-4487-B1CB-12A56B0777DF}"/>
+    <hyperlink ref="K157" r:id="rId345" xr:uid="{0A4A226C-ED46-4033-9ED1-04D2EB1FEC71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId311"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId346"/>
   <tableParts count="1">
-    <tablePart r:id="rId312"/>
+    <tablePart r:id="rId347"/>
   </tableParts>
 </worksheet>
 </file>
@@ -19815,22 +21511,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1379</v>
+        <v>1532</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1380</v>
+        <v>1533</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1381</v>
+        <v>1534</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1382</v>
+        <v>1535</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>7</v>
@@ -19917,7 +21613,7 @@
         <v>171</v>
       </c>
       <c r="AB2" s="23" t="s">
-        <v>1383</v>
+        <v>1536</v>
       </c>
       <c r="AG2" s="23" t="s">
         <v>159</v>
@@ -19974,13 +21670,13 @@
         <v>91773</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>1384</v>
+        <v>1537</v>
       </c>
       <c r="AB3" s="24" t="s">
         <v>1095</v>
       </c>
       <c r="AD3" s="23" t="s">
-        <v>1385</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="61.5" customHeight="1">
@@ -19991,7 +21687,7 @@
         <v>857</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1386</v>
+        <v>1539</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>859</v>
@@ -20085,46 +21781,46 @@
     </row>
     <row r="6" spans="1:34" ht="72.599999999999994">
       <c r="A6" s="23" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>1177</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>1178</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>886</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>1180</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="H6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>1183</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>1185</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>1186</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>67</v>
@@ -20135,19 +21831,19 @@
     </row>
     <row r="7" spans="1:34" ht="43.5">
       <c r="A7" s="23" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>1227</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1229</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>42</v>
@@ -20162,16 +21858,16 @@
         <v>44</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>183</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="O7" s="23" t="s">
         <v>142</v>
@@ -20235,44 +21931,44 @@
     </row>
     <row r="9" spans="1:34" s="23" customFormat="1" ht="46.5" customHeight="1">
       <c r="A9" s="23" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>1194</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="D9" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="E9" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>1197</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="H9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>1198</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>1199</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>1200</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="23" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="O9" s="23" t="s">
         <v>142</v>
@@ -20286,19 +21982,19 @@
     </row>
     <row r="10" spans="1:34" ht="43.5">
       <c r="A10" s="23" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>886</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>42</v>
@@ -20313,16 +22009,16 @@
         <v>44</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>1304</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>1305</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>1306</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>865</v>
@@ -20374,19 +22070,19 @@
     </row>
     <row r="12" spans="1:34" ht="75.95" customHeight="1">
       <c r="A12" s="23" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>1154</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1155</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>848</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>1156</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>1157</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>42</v>
@@ -20401,16 +22097,16 @@
         <v>44</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>1160</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>1161</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>130</v>
@@ -20424,19 +22120,19 @@
     </row>
     <row r="13" spans="1:34" ht="43.5">
       <c r="A13" s="23" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>42</v>
@@ -20454,7 +22150,7 @@
         <v>1090</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>1091</v>
@@ -20592,7 +22288,7 @@
         <v>1081</v>
       </c>
       <c r="K16" s="30"/>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="47" t="s">
         <v>1082</v>
       </c>
       <c r="M16" s="23" t="s">
@@ -20614,7 +22310,7 @@
         <v>171</v>
       </c>
       <c r="AC16" s="23" t="s">
-        <v>1389</v>
+        <v>1542</v>
       </c>
       <c r="AH16" s="23" t="s">
         <v>159</v>
@@ -20622,43 +22318,43 @@
     </row>
     <row r="17" spans="1:17" ht="72.599999999999994">
       <c r="A17" s="23" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>1250</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="E17" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="F17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>1253</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="H17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="23" t="s">
+      <c r="L17" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>1257</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>1259</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>66</v>
@@ -20667,24 +22363,24 @@
         <v>67</v>
       </c>
       <c r="Q17" s="42" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="87">
       <c r="A18" s="23" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>42</v>
@@ -20699,16 +22395,16 @@
         <v>44</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>1243</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>1244</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>1246</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>130</v>
@@ -20822,25 +22518,25 @@
     </row>
     <row r="21" spans="1:17" ht="57.95">
       <c r="A21" s="23" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>886</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>1390</v>
+        <v>1543</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>44</v>
@@ -20849,16 +22545,16 @@
         <v>44</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>264</v>
@@ -20872,19 +22568,19 @@
     </row>
     <row r="22" spans="1:17" ht="29.1">
       <c r="A22" s="23" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>42</v>
@@ -20899,13 +22595,13 @@
         <v>44</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>183</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>524</v>
@@ -20922,19 +22618,19 @@
     </row>
     <row r="23" spans="1:17" ht="57.95">
       <c r="A23" s="23" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>42</v>
@@ -20949,13 +22645,13 @@
         <v>44</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>546</v>
@@ -20978,7 +22674,7 @@
         <v>1023</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1391</v>
+        <v>1544</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>1025</v>
@@ -21022,46 +22718,46 @@
     </row>
     <row r="25" spans="1:17" ht="72.599999999999994">
       <c r="A25" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>1136</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>1137</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>67</v>
@@ -21072,25 +22768,25 @@
     </row>
     <row r="26" spans="1:17" ht="72.599999999999994">
       <c r="A26" s="23" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1393</v>
+        <v>1546</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1394</v>
+        <v>1547</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>44</v>
@@ -21099,16 +22795,16 @@
         <v>44</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>865</v>
@@ -21122,43 +22818,43 @@
     </row>
     <row r="27" spans="1:17" ht="57.95">
       <c r="A27" s="23" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>1264</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="F27" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="H27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="L27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>1269</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>1271</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>525</v>
@@ -21178,7 +22874,7 @@
         <v>1371</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>1372</v>
@@ -21240,7 +22936,7 @@
         <v>42</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>1044</v>
+        <v>1549</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>44</v>
@@ -21272,25 +22968,25 @@
     </row>
     <row r="30" spans="1:17" ht="57.95">
       <c r="A30" s="23" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>1390</v>
+        <v>1543</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>44</v>
@@ -21299,19 +22995,19 @@
         <v>44</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>67</v>
@@ -21322,16 +23018,16 @@
     </row>
     <row r="31" spans="1:17" ht="57.95">
       <c r="A31" s="23" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>1122</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>1123</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>183</v>
@@ -21340,7 +23036,7 @@
         <v>42</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>1390</v>
+        <v>1543</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>44</v>
@@ -21349,13 +23045,13 @@
         <v>44</v>
       </c>
       <c r="J31" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>1125</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>1126</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>1057</v>
@@ -21367,7 +23063,7 @@
         <v>67</v>
       </c>
       <c r="Q31" s="42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="57.95">
@@ -21390,7 +23086,7 @@
         <v>42</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>1044</v>
+        <v>1549</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>44</v>
@@ -21422,25 +23118,25 @@
     </row>
     <row r="33" spans="1:17" ht="57.95">
       <c r="A33" s="23" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1052</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>1115</v>
+        <v>1550</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>44</v>
@@ -21452,13 +23148,13 @@
         <v>183</v>
       </c>
       <c r="L33" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N33" s="4" t="s">
         <v>1284</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>1285</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>1286</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>130</v>
@@ -21490,7 +23186,7 @@
         <v>42</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>1396</v>
+        <v>1551</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>44</v>
@@ -21522,43 +23218,43 @@
     </row>
     <row r="35" spans="1:17" ht="29.1">
       <c r="A35" s="23" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="L35" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="5" t="s">
+      <c r="M35" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>1277</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>1278</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>1279</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>130</v>
@@ -21572,40 +23268,40 @@
     </row>
     <row r="36" spans="1:17" ht="43.5">
       <c r="A36" s="23" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>1169</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>1170</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>877</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>994</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>1174</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>1175</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>1057</v>
@@ -21617,12 +23313,12 @@
         <v>67</v>
       </c>
       <c r="Q36" s="42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="57.95">
       <c r="A37" s="23" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>1103</v>
@@ -21631,16 +23327,16 @@
         <v>877</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>1189</v>
-      </c>
       <c r="F37" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>1190</v>
+        <v>1554</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>44</v>
@@ -21652,10 +23348,10 @@
         <v>183</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>899</v>
@@ -21690,7 +23386,7 @@
         <v>42</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>994</v>
+        <v>1553</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>44</v>
@@ -21722,25 +23418,25 @@
     </row>
     <row r="39" spans="1:17" ht="43.5">
       <c r="A39" s="23" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>886</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>994</v>
+        <v>1553</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>44</v>
@@ -21752,13 +23448,13 @@
         <v>183</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>995</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>855</v>
@@ -21790,7 +23486,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>994</v>
+        <v>1553</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>44</v>
@@ -21822,19 +23518,19 @@
     </row>
     <row r="41" spans="1:17" ht="29.1">
       <c r="A41" s="23" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>822</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>42</v>
@@ -21852,16 +23548,16 @@
         <v>183</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>67</v>
@@ -21922,19 +23618,19 @@
     </row>
     <row r="43" spans="1:17" ht="57.95">
       <c r="A43" s="23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>1146</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1398</v>
+        <v>1555</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>42</v>
@@ -21949,13 +23645,13 @@
         <v>44</v>
       </c>
       <c r="M43" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>1152</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>1153</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>67</v>
@@ -21993,7 +23689,7 @@
         <v>44</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>1399</v>
+        <v>1556</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>853</v>
@@ -22013,19 +23709,19 @@
     </row>
     <row r="45" spans="1:17" ht="57.95">
       <c r="A45" s="23" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>877</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>42</v>
@@ -22040,16 +23736,16 @@
         <v>44</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>264</v>
@@ -22063,19 +23759,19 @@
     </row>
     <row r="46" spans="1:17" ht="57.95">
       <c r="A46" s="23" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>42</v>
@@ -22090,13 +23786,13 @@
         <v>44</v>
       </c>
       <c r="L46" s="44" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>855</v>
@@ -22163,7 +23859,7 @@
         <v>876</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1400</v>
+        <v>1557</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>878</v>
@@ -22201,19 +23897,19 @@
     </row>
     <row r="49" spans="1:17" ht="57.95">
       <c r="A49" s="23" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1401</v>
+        <v>1558</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>42</v>
@@ -22228,16 +23924,16 @@
         <v>44</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>130</v>
@@ -22251,19 +23947,19 @@
     </row>
     <row r="50" spans="1:17" ht="43.5">
       <c r="A50" s="23" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>1165</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>1166</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>42</v>
@@ -22278,7 +23974,7 @@
         <v>44</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>1048</v>
@@ -22342,16 +24038,16 @@
     </row>
     <row r="52" spans="1:17" ht="43.5">
       <c r="A52" s="23" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>183</v>
@@ -22369,16 +24065,16 @@
         <v>44</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>142</v>
@@ -22489,7 +24185,7 @@
     </row>
     <row r="55" spans="1:17" ht="72.599999999999994">
       <c r="A55" s="23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>1069</v>
@@ -22498,10 +24194,10 @@
         <v>877</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>1139</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>1140</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>42</v>
@@ -22516,16 +24212,16 @@
         <v>44</v>
       </c>
       <c r="J55" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L55" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="N55" s="4" t="s">
         <v>1143</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>1144</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>641</v>
@@ -22645,7 +24341,7 @@
         <v>1344</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1402</v>
+        <v>1559</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>1346</v>
@@ -22927,31 +24623,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1379</v>
+        <v>1532</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1403</v>
+        <v>1560</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>1404</v>
+        <v>1561</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1405</v>
+        <v>1562</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>1406</v>
+        <v>1563</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>1407</v>
+        <v>1564</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>1408</v>
+        <v>1565</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>30</v>
@@ -22966,10 +24662,10 @@
         <v>32</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>1409</v>
+        <v>1566</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>1410</v>
+        <v>1567</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>11</v>
@@ -23008,10 +24704,10 @@
         <v>22</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>1411</v>
+        <v>1568</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>1412</v>
+        <v>1569</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>25</v>
@@ -23022,72 +24718,72 @@
     </row>
     <row r="2" spans="1:32" ht="57.95">
       <c r="A2" s="4" t="s">
-        <v>1413</v>
+        <v>1570</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1414</v>
+        <v>1571</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1415</v>
+        <v>1572</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1416</v>
+        <v>1573</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1417</v>
+        <v>1574</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1418</v>
+        <v>1575</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>1419</v>
+        <v>1576</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1420</v>
+        <v>1577</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>1421</v>
+        <v>1578</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>1422</v>
+        <v>1579</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>1423</v>
+        <v>1580</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>1424</v>
+        <v>1581</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>1425</v>
+        <v>1582</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>1426</v>
+        <v>1583</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>1427</v>
+        <v>1584</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>1422</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="72.599999999999994">
       <c r="A3" s="4" t="s">
-        <v>1428</v>
+        <v>1585</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1429</v>
+        <v>1586</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1430</v>
+        <v>1587</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1431</v>
+        <v>1588</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1432</v>
+        <v>1589</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>42</v>
@@ -23099,10 +24795,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1433</v>
+        <v>1590</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>1434</v>
+        <v>1591</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>74</v>
@@ -23111,22 +24807,22 @@
         <v>100</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>1435</v>
+        <v>1592</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>1436</v>
+        <v>1593</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>1437</v>
+        <v>1594</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>1438</v>
+        <v>1595</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>1439</v>
+        <v>1596</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>67</v>
@@ -23137,37 +24833,37 @@
     </row>
     <row r="4" spans="1:32" ht="87">
       <c r="A4" s="4" t="s">
-        <v>1440</v>
+        <v>1597</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1441</v>
+        <v>1598</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1442</v>
+        <v>1599</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1443</v>
+        <v>1600</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1444</v>
+        <v>1601</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1445</v>
+        <v>1602</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1446</v>
+        <v>1603</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1447</v>
+        <v>1604</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>1448</v>
+        <v>1605</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>1449</v>
+        <v>1606</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>74</v>
@@ -23176,22 +24872,22 @@
         <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>1450</v>
+        <v>1607</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>1451</v>
+        <v>1608</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>1452</v>
+        <v>1609</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>1453</v>
+        <v>1610</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>1454</v>
+        <v>1611</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>1455</v>
+        <v>1612</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>142</v>
@@ -23205,69 +24901,69 @@
     </row>
     <row r="5" spans="1:32" ht="116.1">
       <c r="A5" s="9" t="s">
-        <v>1456</v>
+        <v>1613</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1457</v>
+        <v>1614</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1458</v>
+        <v>1615</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1459</v>
+        <v>1616</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1460</v>
+        <v>1617</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>1461</v>
+        <v>1618</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1420</v>
+        <v>1577</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>1462</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="101.45">
       <c r="A6" s="4" t="s">
-        <v>1463</v>
+        <v>1620</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1464</v>
+        <v>1621</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1465</v>
+        <v>1622</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1466</v>
+        <v>1623</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1460</v>
+        <v>1617</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1467</v>
+        <v>1624</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1468</v>
+        <v>1625</v>
       </c>
       <c r="I6" s="11">
         <v>0.99</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1469</v>
+        <v>1626</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>1470</v>
+        <v>1627</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>74</v>
@@ -23276,22 +24972,22 @@
         <v>50</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>1471</v>
+        <v>1628</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>1472</v>
+        <v>1629</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>1473</v>
+        <v>1630</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>1474</v>
+        <v>1631</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>1475</v>
+        <v>1632</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>1476</v>
+        <v>1633</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>378</v>
@@ -23302,19 +24998,19 @@
     </row>
     <row r="7" spans="1:32" ht="72.599999999999994">
       <c r="A7" s="4" t="s">
-        <v>1477</v>
+        <v>1634</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1478</v>
+        <v>1635</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1459</v>
+        <v>1616</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1479</v>
+        <v>1636</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1480</v>
+        <v>1637</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>42</v>
@@ -23326,31 +25022,31 @@
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1481</v>
+        <v>1638</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1434</v>
+        <v>1591</v>
       </c>
       <c r="N7" s="4">
         <v>100</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>1435</v>
+        <v>1592</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>1436</v>
+        <v>1593</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>1437</v>
+        <v>1594</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>1438</v>
+        <v>1595</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>1439</v>
+        <v>1596</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>67</v>
@@ -23361,20 +25057,20 @@
     </row>
     <row r="8" spans="1:32" ht="116.1">
       <c r="A8" s="4" t="s">
-        <v>1482</v>
+        <v>1639</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1483</v>
+        <v>1640</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>1484</v>
+        <v>1641</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1460</v>
+        <v>1617</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1485</v>
+        <v>1642</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>42</v>
@@ -23386,14 +25082,14 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1486</v>
+        <v>1643</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1487</v>
+        <v>1644</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="4" t="s">
-        <v>1488</v>
+        <v>1645</v>
       </c>
       <c r="N8" s="4">
         <v>100</v>
@@ -23402,45 +25098,45 @@
         <v>311450</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>1489</v>
+        <v>1646</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>1490</v>
+        <v>1647</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>1491</v>
+        <v>1648</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>1492</v>
+        <v>1649</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>67</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>1493</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="43.5">
       <c r="A9" s="4" t="s">
-        <v>1494</v>
+        <v>1651</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1495</v>
+        <v>1652</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1496</v>
+        <v>1653</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1497</v>
+        <v>1654</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1498</v>
+        <v>1655</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1499</v>
+        <v>1656</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>42</v>
@@ -23452,22 +25148,22 @@
         <v>0.96</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1500</v>
+        <v>1657</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>1501</v>
+        <v>1658</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>183</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1502</v>
+        <v>1659</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>1503</v>
+        <v>1660</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>1504</v>
+        <v>1661</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>1110</v>
@@ -23484,10 +25180,10 @@
         <v>632</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1505</v>
+        <v>1662</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1506</v>
+        <v>1663</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>42</v>
@@ -23495,58 +25191,58 @@
     </row>
     <row r="11" spans="1:32" ht="29.1">
       <c r="A11" s="4" t="s">
-        <v>1507</v>
+        <v>1664</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1508</v>
+        <v>1665</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1509</v>
+        <v>1666</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1510</v>
+        <v>1667</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1460</v>
+        <v>1617</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1511</v>
+        <v>1668</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1512</v>
+        <v>1669</v>
       </c>
       <c r="I11" s="12">
         <v>0.99629999999999996</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1513</v>
+        <v>1670</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>1514</v>
+        <v>1671</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>1515</v>
+        <v>1672</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>1516</v>
+        <v>1673</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>1517</v>
+        <v>1674</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>1518</v>
+        <v>1675</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>1519</v>
+        <v>1676</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>1520</v>
+        <v>1677</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>67</v>
@@ -23560,31 +25256,31 @@
         <v>242</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1521</v>
+        <v>1678</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1458</v>
+        <v>1615</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1522</v>
+        <v>1679</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1460</v>
+        <v>1617</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1523</v>
+        <v>1680</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1524</v>
+        <v>1681</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>1525</v>
+        <v>1682</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1526</v>
+        <v>1683</v>
       </c>
       <c r="M12" s="4">
         <v>96</v>
@@ -23593,22 +25289,22 @@
         <v>240</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>1527</v>
+        <v>1684</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>183</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>1528</v>
+        <v>1685</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>1529</v>
+        <v>1686</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>1530</v>
+        <v>1687</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>1476</v>
+        <v>1633</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>67</v>
@@ -23619,19 +25315,19 @@
     </row>
     <row r="13" spans="1:32" ht="43.5">
       <c r="A13" s="4" t="s">
-        <v>1531</v>
+        <v>1688</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1532</v>
+        <v>1689</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1533</v>
+        <v>1690</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1534</v>
+        <v>1691</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1479</v>
+        <v>1636</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>42</v>
@@ -23643,19 +25339,19 @@
         <v>0.996</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1535</v>
+        <v>1692</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>1536</v>
+        <v>1693</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1537</v>
+        <v>1694</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>1538</v>
+        <v>1695</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>1539</v>
+        <v>1696</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>817</v>
@@ -23672,81 +25368,81 @@
     </row>
     <row r="14" spans="1:32" ht="57.95">
       <c r="A14" s="4" t="s">
-        <v>1540</v>
+        <v>1697</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1541</v>
+        <v>1698</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1542</v>
+        <v>1699</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1543</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1544</v>
+        <v>1701</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1545</v>
+        <v>1702</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1546</v>
+        <v>1703</v>
       </c>
       <c r="I14" s="12">
         <v>0.99809999999999999</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1547</v>
+        <v>1704</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1548</v>
+        <v>1705</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>1549</v>
+        <v>1706</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>1550</v>
+        <v>1707</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>1551</v>
+        <v>1708</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>1552</v>
+        <v>1709</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>1553</v>
+        <v>1710</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>1554</v>
+        <v>1711</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>117</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>1555</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="29.1">
       <c r="A15" s="4" t="s">
-        <v>1556</v>
+        <v>1713</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1557</v>
+        <v>1714</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1458</v>
+        <v>1615</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1459</v>
+        <v>1616</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1544</v>
+        <v>1701</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1558</v>
+        <v>1715</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>42</v>
@@ -23758,7 +25454,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1559</v>
+        <v>1716</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>44</v>
@@ -23770,7 +25466,7 @@
         <v>96</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>1560</v>
+        <v>1717</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>183</v>
@@ -23779,7 +25475,7 @@
         <v>353</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>1561</v>
+        <v>1718</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>356</v>
@@ -23847,27 +25543,27 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="41" t="s">
-        <v>1562</v>
+        <v>1719</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>1563</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="41" t="s">
-        <v>1564</v>
+        <v>1721</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1565</v>
+        <v>1722</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1566</v>
+        <v>1723</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1567</v>
+        <v>1724</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>1568</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -23878,40 +25574,40 @@
         <v>306</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1569</v>
+        <v>1726</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1570</v>
+        <v>1727</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1571</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="41" t="s">
-        <v>1572</v>
+        <v>1729</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1573</v>
+        <v>1730</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1574</v>
+        <v>1731</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1575</v>
+        <v>1732</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>1576</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="41" t="s">
-        <v>1577</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="41" t="s">
-        <v>1578</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -23989,24 +25685,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E670CC39FE6924EBD59906DF8EFDA53" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bcce7797185c88bb45014ed7364941f3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b04d4598-dd04-450c-aa56-46cff6b0ba6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a94cd2b280ccbe787b9f2a8b8fe8bcd" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E670CC39FE6924EBD59906DF8EFDA53" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e90685ec06a69706c37c028f3edd6b9a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b04d4598-dd04-450c-aa56-46cff6b0ba6f" xmlns:ns3="ab860399-53f0-46d8-8140-572bffe2e624" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83a6c33188c8c12d0ffda7f47847f238" ns2:_="" ns3:_="">
     <xsd:import namespace="b04d4598-dd04-450c-aa56-46cff6b0ba6f"/>
+    <xsd:import namespace="ab860399-53f0-46d8-8140-572bffe2e624"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -24018,6 +25700,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -24051,6 +25735,36 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ab860399-53f0-46d8-8140-572bffe2e624" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -24153,14 +25867,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AFB4A3B-F7DD-4E53-953B-5C63B18C09BE}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4480A02C-A00C-4D86-BC0D-93448CC4AD0C}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA49A7F-7C4D-4200-9628-76592D6DAB58}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AAA3CBD-D512-46C4-A508-732D32C7E926}"/>
 </file>